--- a/apps/load_data/2021/04/PLMOVMAE.xlsx
+++ b/apps/load_data/2021/04/PLMOVMAE.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\NOMBRADOS -2021\HHY0421\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\2021\HHY0421\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33936D73-E1CB-495D-9A95-D5985D70B110}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22010304-91C1-4F8F-BD1E-42C41DF24281}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="13050" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,6 +16,7 @@
     <sheet name="PLMOVMAE" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">PLMOVMAE!$A$1:$CI$280</definedName>
     <definedName name="_xlnm.Database">PLMOVMAE!$A$1:$CI$268</definedName>
   </definedNames>
   <calcPr calcId="0"/>
@@ -23,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12149" uniqueCount="3504">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12128" uniqueCount="3501">
   <si>
     <t>CODEJE</t>
   </si>
@@ -7342,9 +7343,6 @@
     <t>0074A         1</t>
   </si>
   <si>
-    <t>S/N</t>
-  </si>
-  <si>
     <t>Mjhjfeeh11111d1flüjmhhfkgkech</t>
   </si>
   <si>
@@ -8641,9 +8639,6 @@
     <t>0004A         1</t>
   </si>
   <si>
-    <t>S/M</t>
-  </si>
-  <si>
     <t>6501080BIHTE003</t>
   </si>
   <si>
@@ -8942,9 +8937,6 @@
   </si>
   <si>
     <t>0135A         1</t>
-  </si>
-  <si>
-    <t>SUSPENSION</t>
   </si>
   <si>
     <t>7306280HYLAM000</t>
@@ -11383,8 +11375,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:CI280"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A257" workbookViewId="0">
-      <selection activeCell="K282" sqref="K282"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AD172" sqref="AC172:AD278"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -43638,12 +43630,7 @@
       <c r="AB172" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="AC172" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD172" s="1" t="s">
-        <v>2439</v>
-      </c>
+      <c r="AC172" s="3"/>
       <c r="AF172" s="1" t="s">
         <v>107</v>
       </c>
@@ -43696,16 +43683,16 @@
         <v>21</v>
       </c>
       <c r="BD172" s="1" t="s">
-        <v>2440</v>
+        <v>2439</v>
       </c>
       <c r="BG172" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH172" s="1" t="s">
+        <v>2440</v>
+      </c>
+      <c r="BI172" s="1" t="s">
         <v>2441</v>
-      </c>
-      <c r="BI172" s="1" t="s">
-        <v>2442</v>
       </c>
       <c r="BM172" s="1" t="s">
         <v>118</v>
@@ -43720,13 +43707,13 @@
         <v>168</v>
       </c>
       <c r="BR172" s="1" t="s">
-        <v>2443</v>
+        <v>2442</v>
       </c>
       <c r="BS172" s="3">
         <v>36225</v>
       </c>
       <c r="BT172" s="1" t="s">
-        <v>2444</v>
+        <v>2443</v>
       </c>
       <c r="BU172" s="1" t="s">
         <v>122</v>
@@ -43747,19 +43734,19 @@
         <v>112</v>
       </c>
       <c r="CC172" s="1" t="s">
+        <v>2444</v>
+      </c>
+      <c r="CD172" s="1" t="s">
         <v>2445</v>
       </c>
-      <c r="CD172" s="1" t="s">
+      <c r="CE172" s="1" t="s">
         <v>2446</v>
       </c>
-      <c r="CE172" s="1" t="s">
+      <c r="CG172" s="1" t="s">
         <v>2447</v>
       </c>
-      <c r="CG172" s="1" t="s">
+      <c r="CH172" s="1" t="s">
         <v>2448</v>
-      </c>
-      <c r="CH172" s="1" t="s">
-        <v>2449</v>
       </c>
       <c r="CI172" s="1" t="s">
         <v>130</v>
@@ -43797,19 +43784,19 @@
         <v>96</v>
       </c>
       <c r="K173" s="1" t="s">
+        <v>2449</v>
+      </c>
+      <c r="L173" s="1" t="s">
         <v>2450</v>
       </c>
-      <c r="L173" s="1" t="s">
+      <c r="N173" s="1" t="s">
         <v>2451</v>
-      </c>
-      <c r="N173" s="1" t="s">
-        <v>2452</v>
       </c>
       <c r="O173" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P173" s="1" t="s">
-        <v>2453</v>
+        <v>2452</v>
       </c>
       <c r="Q173" s="3">
         <v>27241</v>
@@ -43838,12 +43825,7 @@
       <c r="AB173" s="1" t="s">
         <v>1320</v>
       </c>
-      <c r="AC173" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD173" s="1" t="s">
-        <v>2439</v>
-      </c>
+      <c r="AC173" s="3"/>
       <c r="AF173" s="1" t="s">
         <v>107</v>
       </c>
@@ -43890,7 +43872,7 @@
         <v>112</v>
       </c>
       <c r="AZ173" s="1" t="s">
-        <v>2454</v>
+        <v>2453</v>
       </c>
       <c r="BB173" s="1">
         <v>4</v>
@@ -43899,13 +43881,13 @@
         <v>21</v>
       </c>
       <c r="BD173" s="1" t="s">
-        <v>2455</v>
+        <v>2454</v>
       </c>
       <c r="BG173" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH173" s="1" t="s">
-        <v>2456</v>
+        <v>2455</v>
       </c>
       <c r="BI173" s="1" t="s">
         <v>1786</v>
@@ -43920,13 +43902,13 @@
         <v>102</v>
       </c>
       <c r="BR173" s="1" t="s">
-        <v>2457</v>
+        <v>2456</v>
       </c>
       <c r="BS173" s="3">
         <v>36949</v>
       </c>
       <c r="BT173" s="1" t="s">
-        <v>2458</v>
+        <v>2457</v>
       </c>
       <c r="BU173" s="1" t="s">
         <v>122</v>
@@ -43950,16 +43932,16 @@
         <v>112</v>
       </c>
       <c r="CC173" s="1" t="s">
-        <v>2459</v>
+        <v>2458</v>
       </c>
       <c r="CD173" s="1" t="s">
         <v>2125</v>
       </c>
       <c r="CE173" s="1" t="s">
+        <v>2459</v>
+      </c>
+      <c r="CG173" s="1" t="s">
         <v>2460</v>
-      </c>
-      <c r="CG173" s="1" t="s">
-        <v>2461</v>
       </c>
       <c r="CH173" s="1" t="s">
         <v>1791</v>
@@ -44000,19 +43982,19 @@
         <v>96</v>
       </c>
       <c r="K174" s="1" t="s">
+        <v>2461</v>
+      </c>
+      <c r="L174" s="1" t="s">
         <v>2462</v>
       </c>
-      <c r="L174" s="1" t="s">
+      <c r="N174" s="1" t="s">
         <v>2463</v>
-      </c>
-      <c r="N174" s="1" t="s">
-        <v>2464</v>
       </c>
       <c r="O174" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P174" s="1" t="s">
-        <v>2465</v>
+        <v>2464</v>
       </c>
       <c r="Q174" s="3">
         <v>25223</v>
@@ -44041,12 +44023,7 @@
       <c r="AB174" s="1" t="s">
         <v>1320</v>
       </c>
-      <c r="AC174" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD174" s="1" t="s">
-        <v>2439</v>
-      </c>
+      <c r="AC174" s="3"/>
       <c r="AF174" s="1" t="s">
         <v>107</v>
       </c>
@@ -44093,7 +44070,7 @@
         <v>112</v>
       </c>
       <c r="AZ174" s="1" t="s">
-        <v>2466</v>
+        <v>2465</v>
       </c>
       <c r="BB174" s="1">
         <v>4</v>
@@ -44102,16 +44079,16 @@
         <v>21</v>
       </c>
       <c r="BD174" s="1" t="s">
-        <v>2467</v>
+        <v>2466</v>
       </c>
       <c r="BG174" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH174" s="1" t="s">
+        <v>2467</v>
+      </c>
+      <c r="BI174" s="1" t="s">
         <v>2468</v>
-      </c>
-      <c r="BI174" s="1" t="s">
-        <v>2469</v>
       </c>
       <c r="BM174" s="1" t="s">
         <v>118</v>
@@ -44126,13 +44103,13 @@
         <v>168</v>
       </c>
       <c r="BR174" s="1" t="s">
-        <v>2470</v>
+        <v>2469</v>
       </c>
       <c r="BS174" s="3">
         <v>36825</v>
       </c>
       <c r="BT174" s="1" t="s">
-        <v>2471</v>
+        <v>2470</v>
       </c>
       <c r="BU174" s="1" t="s">
         <v>122</v>
@@ -44156,19 +44133,19 @@
         <v>112</v>
       </c>
       <c r="CC174" s="1" t="s">
+        <v>2471</v>
+      </c>
+      <c r="CD174" s="1" t="s">
         <v>2472</v>
       </c>
-      <c r="CD174" s="1" t="s">
+      <c r="CE174" s="1" t="s">
         <v>2473</v>
       </c>
-      <c r="CE174" s="1" t="s">
+      <c r="CG174" s="1" t="s">
         <v>2474</v>
       </c>
-      <c r="CG174" s="1" t="s">
+      <c r="CH174" s="1" t="s">
         <v>2475</v>
-      </c>
-      <c r="CH174" s="1" t="s">
-        <v>2476</v>
       </c>
       <c r="CI174" s="1" t="s">
         <v>130</v>
@@ -44206,19 +44183,19 @@
         <v>96</v>
       </c>
       <c r="K175" s="1" t="s">
+        <v>2476</v>
+      </c>
+      <c r="L175" s="1" t="s">
         <v>2477</v>
       </c>
-      <c r="L175" s="1" t="s">
+      <c r="N175" s="1" t="s">
         <v>2478</v>
-      </c>
-      <c r="N175" s="1" t="s">
-        <v>2479</v>
       </c>
       <c r="O175" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P175" s="1" t="s">
-        <v>2480</v>
+        <v>2479</v>
       </c>
       <c r="Q175" s="3">
         <v>27018</v>
@@ -44244,12 +44221,7 @@
       <c r="AA175" s="1">
         <v>0</v>
       </c>
-      <c r="AC175" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD175" s="1" t="s">
-        <v>2439</v>
-      </c>
+      <c r="AC175" s="3"/>
       <c r="AF175" s="1" t="s">
         <v>107</v>
       </c>
@@ -44299,7 +44271,7 @@
         <v>112</v>
       </c>
       <c r="AZ175" s="1" t="s">
-        <v>2481</v>
+        <v>2480</v>
       </c>
       <c r="BB175" s="1">
         <v>4</v>
@@ -44308,13 +44280,13 @@
         <v>21</v>
       </c>
       <c r="BD175" s="1" t="s">
-        <v>2482</v>
+        <v>2481</v>
       </c>
       <c r="BG175" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH175" s="1" t="s">
-        <v>2483</v>
+        <v>2482</v>
       </c>
       <c r="BM175" s="1" t="s">
         <v>118</v>
@@ -44323,7 +44295,7 @@
         <v>106</v>
       </c>
       <c r="BT175" s="1" t="s">
-        <v>2484</v>
+        <v>2483</v>
       </c>
       <c r="BU175" s="1" t="s">
         <v>122</v>
@@ -44341,16 +44313,16 @@
         <v>112</v>
       </c>
       <c r="CC175" s="1" t="s">
-        <v>2485</v>
+        <v>2484</v>
       </c>
       <c r="CD175" s="1" t="s">
         <v>1312</v>
       </c>
       <c r="CE175" s="1" t="s">
+        <v>2485</v>
+      </c>
+      <c r="CG175" s="1" t="s">
         <v>2486</v>
-      </c>
-      <c r="CG175" s="1" t="s">
-        <v>2487</v>
       </c>
       <c r="CH175" s="1" t="s">
         <v>130</v>
@@ -44391,19 +44363,19 @@
         <v>96</v>
       </c>
       <c r="K176" s="1" t="s">
+        <v>2487</v>
+      </c>
+      <c r="L176" s="1" t="s">
         <v>2488</v>
       </c>
-      <c r="L176" s="1" t="s">
+      <c r="N176" s="1" t="s">
         <v>2489</v>
-      </c>
-      <c r="N176" s="1" t="s">
-        <v>2490</v>
       </c>
       <c r="O176" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P176" s="1" t="s">
-        <v>2491</v>
+        <v>2490</v>
       </c>
       <c r="Q176" s="3">
         <v>29037</v>
@@ -44432,12 +44404,7 @@
       <c r="AB176" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="AC176" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD176" s="1" t="s">
-        <v>2439</v>
-      </c>
+      <c r="AC176" s="3"/>
       <c r="AF176" s="1" t="s">
         <v>107</v>
       </c>
@@ -44487,7 +44454,7 @@
         <v>112</v>
       </c>
       <c r="AZ176" s="1" t="s">
-        <v>2492</v>
+        <v>2491</v>
       </c>
       <c r="BB176" s="1">
         <v>4</v>
@@ -44496,13 +44463,13 @@
         <v>21</v>
       </c>
       <c r="BD176" s="1" t="s">
-        <v>2493</v>
+        <v>2492</v>
       </c>
       <c r="BG176" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH176" s="1" t="s">
-        <v>2494</v>
+        <v>2493</v>
       </c>
       <c r="BM176" s="1" t="s">
         <v>118</v>
@@ -44511,7 +44478,7 @@
         <v>106</v>
       </c>
       <c r="BT176" s="1" t="s">
-        <v>2495</v>
+        <v>2494</v>
       </c>
       <c r="BU176" s="1" t="s">
         <v>122</v>
@@ -44532,13 +44499,13 @@
         <v>719</v>
       </c>
       <c r="CD176" s="1" t="s">
+        <v>2495</v>
+      </c>
+      <c r="CE176" s="1" t="s">
         <v>2496</v>
       </c>
-      <c r="CE176" s="1" t="s">
+      <c r="CG176" s="1" t="s">
         <v>2497</v>
-      </c>
-      <c r="CG176" s="1" t="s">
-        <v>2498</v>
       </c>
       <c r="CH176" s="1" t="s">
         <v>130</v>
@@ -44579,19 +44546,19 @@
         <v>96</v>
       </c>
       <c r="K177" s="1" t="s">
+        <v>2498</v>
+      </c>
+      <c r="L177" s="1" t="s">
         <v>2499</v>
       </c>
-      <c r="L177" s="1" t="s">
+      <c r="N177" s="1" t="s">
         <v>2500</v>
-      </c>
-      <c r="N177" s="1" t="s">
-        <v>2501</v>
       </c>
       <c r="O177" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P177" s="1" t="s">
-        <v>2502</v>
+        <v>2501</v>
       </c>
       <c r="Q177" s="3">
         <v>26647</v>
@@ -44617,12 +44584,7 @@
       <c r="AA177" s="1">
         <v>0</v>
       </c>
-      <c r="AC177" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD177" s="1" t="s">
-        <v>2439</v>
-      </c>
+      <c r="AC177" s="3"/>
       <c r="AF177" s="1" t="s">
         <v>107</v>
       </c>
@@ -44672,7 +44634,7 @@
         <v>112</v>
       </c>
       <c r="AZ177" s="1" t="s">
-        <v>2503</v>
+        <v>2502</v>
       </c>
       <c r="BB177" s="1">
         <v>4</v>
@@ -44681,13 +44643,13 @@
         <v>21</v>
       </c>
       <c r="BD177" s="1" t="s">
-        <v>2504</v>
+        <v>2503</v>
       </c>
       <c r="BG177" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH177" s="1" t="s">
-        <v>2505</v>
+        <v>2504</v>
       </c>
       <c r="BM177" s="1" t="s">
         <v>118</v>
@@ -44696,7 +44658,7 @@
         <v>106</v>
       </c>
       <c r="BT177" s="1" t="s">
-        <v>2506</v>
+        <v>2505</v>
       </c>
       <c r="BU177" s="1" t="s">
         <v>122</v>
@@ -44714,16 +44676,16 @@
         <v>112</v>
       </c>
       <c r="CC177" s="1" t="s">
+        <v>2506</v>
+      </c>
+      <c r="CD177" s="1" t="s">
+        <v>2506</v>
+      </c>
+      <c r="CE177" s="1" t="s">
         <v>2507</v>
       </c>
-      <c r="CD177" s="1" t="s">
-        <v>2507</v>
-      </c>
-      <c r="CE177" s="1" t="s">
+      <c r="CG177" s="1" t="s">
         <v>2508</v>
-      </c>
-      <c r="CG177" s="1" t="s">
-        <v>2509</v>
       </c>
       <c r="CH177" s="1" t="s">
         <v>130</v>
@@ -44764,19 +44726,19 @@
         <v>96</v>
       </c>
       <c r="K178" s="1" t="s">
+        <v>2509</v>
+      </c>
+      <c r="L178" s="1" t="s">
         <v>2510</v>
       </c>
-      <c r="L178" s="1" t="s">
+      <c r="N178" s="1" t="s">
         <v>2511</v>
-      </c>
-      <c r="N178" s="1" t="s">
-        <v>2512</v>
       </c>
       <c r="O178" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P178" s="1" t="s">
-        <v>2513</v>
+        <v>2512</v>
       </c>
       <c r="Q178" s="3">
         <v>25405</v>
@@ -44808,12 +44770,7 @@
       <c r="AA178" s="1">
         <v>0</v>
       </c>
-      <c r="AC178" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD178" s="1" t="s">
-        <v>2439</v>
-      </c>
+      <c r="AC178" s="3"/>
       <c r="AF178" s="1" t="s">
         <v>107</v>
       </c>
@@ -44860,7 +44817,7 @@
         <v>112</v>
       </c>
       <c r="AZ178" s="1" t="s">
-        <v>2514</v>
+        <v>2513</v>
       </c>
       <c r="BB178" s="1">
         <v>4</v>
@@ -44869,13 +44826,13 @@
         <v>21</v>
       </c>
       <c r="BD178" s="1" t="s">
-        <v>2515</v>
+        <v>2514</v>
       </c>
       <c r="BG178" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH178" s="1" t="s">
-        <v>2516</v>
+        <v>2515</v>
       </c>
       <c r="BI178" s="1" t="s">
         <v>272</v>
@@ -44890,13 +44847,13 @@
         <v>119</v>
       </c>
       <c r="BR178" s="1" t="s">
-        <v>2517</v>
+        <v>2516</v>
       </c>
       <c r="BS178" s="3">
         <v>35243</v>
       </c>
       <c r="BT178" s="1" t="s">
-        <v>2518</v>
+        <v>2517</v>
       </c>
       <c r="BU178" s="1" t="s">
         <v>122</v>
@@ -44914,16 +44871,16 @@
         <v>112</v>
       </c>
       <c r="CC178" s="1" t="s">
+        <v>2518</v>
+      </c>
+      <c r="CD178" s="1" t="s">
         <v>2519</v>
       </c>
-      <c r="CD178" s="1" t="s">
+      <c r="CE178" s="1" t="s">
         <v>2520</v>
       </c>
-      <c r="CE178" s="1" t="s">
+      <c r="CG178" s="1" t="s">
         <v>2521</v>
-      </c>
-      <c r="CG178" s="1" t="s">
-        <v>2522</v>
       </c>
       <c r="CH178" s="1" t="s">
         <v>280</v>
@@ -44964,19 +44921,19 @@
         <v>96</v>
       </c>
       <c r="K179" s="1" t="s">
+        <v>2522</v>
+      </c>
+      <c r="L179" s="1" t="s">
         <v>2523</v>
       </c>
-      <c r="L179" s="1" t="s">
+      <c r="N179" s="1" t="s">
         <v>2524</v>
-      </c>
-      <c r="N179" s="1" t="s">
-        <v>2525</v>
       </c>
       <c r="O179" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P179" s="1" t="s">
-        <v>2526</v>
+        <v>2525</v>
       </c>
       <c r="Q179" s="3">
         <v>28845</v>
@@ -45002,12 +44959,7 @@
       <c r="AA179" s="1">
         <v>0</v>
       </c>
-      <c r="AC179" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD179" s="1" t="s">
-        <v>2439</v>
-      </c>
+      <c r="AC179" s="3"/>
       <c r="AF179" s="1" t="s">
         <v>107</v>
       </c>
@@ -45057,7 +45009,7 @@
         <v>112</v>
       </c>
       <c r="AZ179" s="1" t="s">
-        <v>2527</v>
+        <v>2526</v>
       </c>
       <c r="BB179" s="1">
         <v>4</v>
@@ -45066,13 +45018,13 @@
         <v>21</v>
       </c>
       <c r="BD179" s="1" t="s">
-        <v>2528</v>
+        <v>2527</v>
       </c>
       <c r="BG179" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH179" s="1" t="s">
-        <v>2529</v>
+        <v>2528</v>
       </c>
       <c r="BI179" s="1" t="s">
         <v>1001</v>
@@ -45084,7 +45036,7 @@
         <v>106</v>
       </c>
       <c r="BT179" s="1" t="s">
-        <v>2530</v>
+        <v>2529</v>
       </c>
       <c r="BU179" s="1" t="s">
         <v>122</v>
@@ -45102,16 +45054,16 @@
         <v>112</v>
       </c>
       <c r="CC179" s="1" t="s">
+        <v>2530</v>
+      </c>
+      <c r="CD179" s="1" t="s">
         <v>2531</v>
       </c>
-      <c r="CD179" s="1" t="s">
+      <c r="CE179" s="1" t="s">
         <v>2532</v>
       </c>
-      <c r="CE179" s="1" t="s">
+      <c r="CG179" s="1" t="s">
         <v>2533</v>
-      </c>
-      <c r="CG179" s="1" t="s">
-        <v>2534</v>
       </c>
       <c r="CH179" s="1" t="s">
         <v>1006</v>
@@ -45152,19 +45104,19 @@
         <v>96</v>
       </c>
       <c r="K180" s="1" t="s">
+        <v>2534</v>
+      </c>
+      <c r="L180" s="1" t="s">
         <v>2535</v>
       </c>
-      <c r="L180" s="1" t="s">
+      <c r="N180" s="1" t="s">
         <v>2536</v>
-      </c>
-      <c r="N180" s="1" t="s">
-        <v>2537</v>
       </c>
       <c r="O180" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P180" s="1" t="s">
-        <v>2538</v>
+        <v>2537</v>
       </c>
       <c r="Q180" s="3">
         <v>21425</v>
@@ -45190,12 +45142,7 @@
       <c r="AA180" s="1">
         <v>0</v>
       </c>
-      <c r="AC180" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD180" s="1" t="s">
-        <v>2439</v>
-      </c>
+      <c r="AC180" s="3"/>
       <c r="AF180" s="1" t="s">
         <v>107</v>
       </c>
@@ -45245,7 +45192,7 @@
         <v>112</v>
       </c>
       <c r="AZ180" s="1" t="s">
-        <v>2539</v>
+        <v>2538</v>
       </c>
       <c r="BB180" s="1">
         <v>4</v>
@@ -45254,13 +45201,13 @@
         <v>21</v>
       </c>
       <c r="BD180" s="1" t="s">
-        <v>2540</v>
+        <v>2539</v>
       </c>
       <c r="BG180" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH180" s="1" t="s">
-        <v>2541</v>
+        <v>2540</v>
       </c>
       <c r="BI180" s="1" t="s">
         <v>1110</v>
@@ -45275,7 +45222,7 @@
         <v>168</v>
       </c>
       <c r="BT180" s="1" t="s">
-        <v>2542</v>
+        <v>2541</v>
       </c>
       <c r="BU180" s="1" t="s">
         <v>122</v>
@@ -45293,16 +45240,16 @@
         <v>112</v>
       </c>
       <c r="CC180" s="1" t="s">
+        <v>2542</v>
+      </c>
+      <c r="CD180" s="1" t="s">
         <v>2543</v>
       </c>
-      <c r="CD180" s="1" t="s">
+      <c r="CE180" s="1" t="s">
         <v>2544</v>
       </c>
-      <c r="CE180" s="1" t="s">
+      <c r="CG180" s="1" t="s">
         <v>2545</v>
-      </c>
-      <c r="CG180" s="1" t="s">
-        <v>2546</v>
       </c>
       <c r="CH180" s="1" t="s">
         <v>1116</v>
@@ -45319,13 +45266,13 @@
         <v>88</v>
       </c>
       <c r="C181" s="1" t="s">
+        <v>2546</v>
+      </c>
+      <c r="D181" s="1" t="s">
         <v>2547</v>
       </c>
-      <c r="D181" s="1" t="s">
+      <c r="E181" s="1" t="s">
         <v>2548</v>
-      </c>
-      <c r="E181" s="1" t="s">
-        <v>2549</v>
       </c>
       <c r="F181" s="1" t="s">
         <v>112</v>
@@ -45337,25 +45284,25 @@
         <v>94</v>
       </c>
       <c r="I181" s="1" t="s">
-        <v>2550</v>
+        <v>2549</v>
       </c>
       <c r="J181" s="1" t="s">
         <v>96</v>
       </c>
       <c r="K181" s="1" t="s">
+        <v>2550</v>
+      </c>
+      <c r="L181" s="1" t="s">
         <v>2551</v>
       </c>
-      <c r="L181" s="1" t="s">
+      <c r="N181" s="1" t="s">
         <v>2552</v>
-      </c>
-      <c r="N181" s="1" t="s">
-        <v>2553</v>
       </c>
       <c r="O181" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P181" s="1" t="s">
-        <v>2554</v>
+        <v>2553</v>
       </c>
       <c r="Q181" s="3">
         <v>23286</v>
@@ -45384,12 +45331,7 @@
       <c r="AA181" s="1">
         <v>0</v>
       </c>
-      <c r="AC181" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD181" s="1" t="s">
-        <v>2439</v>
-      </c>
+      <c r="AC181" s="3"/>
       <c r="AF181" s="1" t="s">
         <v>107</v>
       </c>
@@ -45439,7 +45381,7 @@
         <v>112</v>
       </c>
       <c r="AZ181" s="1" t="s">
-        <v>2555</v>
+        <v>2554</v>
       </c>
       <c r="BB181" s="1">
         <v>4</v>
@@ -45448,13 +45390,13 @@
         <v>21</v>
       </c>
       <c r="BD181" s="1" t="s">
-        <v>2556</v>
+        <v>2555</v>
       </c>
       <c r="BG181" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH181" s="1" t="s">
-        <v>2557</v>
+        <v>2556</v>
       </c>
       <c r="BM181" s="1" t="s">
         <v>118</v>
@@ -45463,7 +45405,7 @@
         <v>106</v>
       </c>
       <c r="BT181" s="1" t="s">
-        <v>2558</v>
+        <v>2557</v>
       </c>
       <c r="BU181" s="1" t="s">
         <v>122</v>
@@ -45484,16 +45426,16 @@
         <v>112</v>
       </c>
       <c r="CC181" s="1" t="s">
+        <v>2558</v>
+      </c>
+      <c r="CD181" s="1" t="s">
         <v>2559</v>
       </c>
-      <c r="CD181" s="1" t="s">
+      <c r="CE181" s="1" t="s">
         <v>2560</v>
       </c>
-      <c r="CE181" s="1" t="s">
+      <c r="CG181" s="1" t="s">
         <v>2561</v>
-      </c>
-      <c r="CG181" s="1" t="s">
-        <v>2562</v>
       </c>
       <c r="CH181" s="1" t="s">
         <v>130</v>
@@ -45534,19 +45476,19 @@
         <v>96</v>
       </c>
       <c r="K182" s="1" t="s">
+        <v>2562</v>
+      </c>
+      <c r="L182" s="1" t="s">
         <v>2563</v>
       </c>
-      <c r="L182" s="1" t="s">
+      <c r="N182" s="1" t="s">
         <v>2564</v>
-      </c>
-      <c r="N182" s="1" t="s">
-        <v>2565</v>
       </c>
       <c r="O182" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P182" s="1" t="s">
-        <v>2566</v>
+        <v>2565</v>
       </c>
       <c r="Q182" s="3">
         <v>26907</v>
@@ -45572,12 +45514,7 @@
       <c r="AA182" s="1">
         <v>0</v>
       </c>
-      <c r="AC182" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD182" s="1" t="s">
-        <v>2439</v>
-      </c>
+      <c r="AC182" s="3"/>
       <c r="AF182" s="1" t="s">
         <v>107</v>
       </c>
@@ -45624,7 +45561,7 @@
         <v>112</v>
       </c>
       <c r="AZ182" s="1" t="s">
-        <v>2567</v>
+        <v>2566</v>
       </c>
       <c r="BB182" s="1">
         <v>4</v>
@@ -45633,16 +45570,16 @@
         <v>21</v>
       </c>
       <c r="BD182" s="1" t="s">
-        <v>2568</v>
+        <v>2567</v>
       </c>
       <c r="BG182" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH182" s="1" t="s">
+        <v>2568</v>
+      </c>
+      <c r="BI182" s="1" t="s">
         <v>2569</v>
-      </c>
-      <c r="BI182" s="1" t="s">
-        <v>2570</v>
       </c>
       <c r="BM182" s="1" t="s">
         <v>118</v>
@@ -45654,13 +45591,13 @@
         <v>119</v>
       </c>
       <c r="BR182" s="1" t="s">
-        <v>2571</v>
+        <v>2570</v>
       </c>
       <c r="BS182" s="3">
         <v>35950</v>
       </c>
       <c r="BT182" s="1" t="s">
-        <v>2572</v>
+        <v>2571</v>
       </c>
       <c r="BU182" s="1" t="s">
         <v>122</v>
@@ -45678,19 +45615,19 @@
         <v>112</v>
       </c>
       <c r="CC182" s="1" t="s">
-        <v>2573</v>
+        <v>2572</v>
       </c>
       <c r="CD182" s="1" t="s">
         <v>1925</v>
       </c>
       <c r="CE182" s="1" t="s">
+        <v>2573</v>
+      </c>
+      <c r="CG182" s="1" t="s">
         <v>2574</v>
       </c>
-      <c r="CG182" s="1" t="s">
+      <c r="CH182" s="1" t="s">
         <v>2575</v>
-      </c>
-      <c r="CH182" s="1" t="s">
-        <v>2576</v>
       </c>
       <c r="CI182" s="1" t="s">
         <v>130</v>
@@ -45728,19 +45665,19 @@
         <v>96</v>
       </c>
       <c r="K183" s="1" t="s">
+        <v>2576</v>
+      </c>
+      <c r="L183" s="1" t="s">
         <v>2577</v>
       </c>
-      <c r="L183" s="1" t="s">
+      <c r="N183" s="1" t="s">
         <v>2578</v>
-      </c>
-      <c r="N183" s="1" t="s">
-        <v>2579</v>
       </c>
       <c r="O183" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P183" s="1" t="s">
-        <v>2580</v>
+        <v>2579</v>
       </c>
       <c r="Q183" s="3">
         <v>28642</v>
@@ -45818,7 +45755,7 @@
         <v>112</v>
       </c>
       <c r="AZ183" s="1" t="s">
-        <v>2581</v>
+        <v>2580</v>
       </c>
       <c r="BB183" s="1">
         <v>4</v>
@@ -45827,13 +45764,13 @@
         <v>21</v>
       </c>
       <c r="BD183" s="1" t="s">
-        <v>2582</v>
+        <v>2581</v>
       </c>
       <c r="BG183" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH183" s="1" t="s">
-        <v>2583</v>
+        <v>2582</v>
       </c>
       <c r="BI183" s="1" t="s">
         <v>1204</v>
@@ -45848,7 +45785,7 @@
         <v>168</v>
       </c>
       <c r="BT183" s="1" t="s">
-        <v>2584</v>
+        <v>2583</v>
       </c>
       <c r="BU183" s="1" t="s">
         <v>122</v>
@@ -45866,16 +45803,16 @@
         <v>112</v>
       </c>
       <c r="CC183" s="1" t="s">
-        <v>2585</v>
+        <v>2584</v>
       </c>
       <c r="CD183" s="1" t="s">
         <v>443</v>
       </c>
       <c r="CE183" s="1" t="s">
+        <v>2585</v>
+      </c>
+      <c r="CG183" s="1" t="s">
         <v>2586</v>
-      </c>
-      <c r="CG183" s="1" t="s">
-        <v>2587</v>
       </c>
       <c r="CH183" s="1" t="s">
         <v>1210</v>
@@ -45916,19 +45853,19 @@
         <v>96</v>
       </c>
       <c r="K184" s="1" t="s">
+        <v>2587</v>
+      </c>
+      <c r="L184" s="1" t="s">
         <v>2588</v>
       </c>
-      <c r="L184" s="1" t="s">
+      <c r="N184" s="1" t="s">
         <v>2589</v>
-      </c>
-      <c r="N184" s="1" t="s">
-        <v>2590</v>
       </c>
       <c r="O184" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P184" s="1" t="s">
-        <v>2591</v>
+        <v>2590</v>
       </c>
       <c r="Q184" s="3">
         <v>28239</v>
@@ -46000,7 +45937,7 @@
         <v>112</v>
       </c>
       <c r="AZ184" s="1" t="s">
-        <v>2592</v>
+        <v>2591</v>
       </c>
       <c r="BB184" s="1">
         <v>4</v>
@@ -46009,13 +45946,13 @@
         <v>21</v>
       </c>
       <c r="BD184" s="1" t="s">
-        <v>2593</v>
+        <v>2592</v>
       </c>
       <c r="BG184" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH184" s="1" t="s">
-        <v>2594</v>
+        <v>2593</v>
       </c>
       <c r="BI184" s="1" t="s">
         <v>1971</v>
@@ -46030,13 +45967,13 @@
         <v>238</v>
       </c>
       <c r="BR184" s="1" t="s">
-        <v>2595</v>
+        <v>2594</v>
       </c>
       <c r="BS184" s="3">
         <v>36099</v>
       </c>
       <c r="BT184" s="1" t="s">
-        <v>2596</v>
+        <v>2595</v>
       </c>
       <c r="BU184" s="1" t="s">
         <v>122</v>
@@ -46054,16 +45991,16 @@
         <v>112</v>
       </c>
       <c r="CC184" s="1" t="s">
+        <v>2596</v>
+      </c>
+      <c r="CD184" s="1" t="s">
         <v>2597</v>
       </c>
-      <c r="CD184" s="1" t="s">
+      <c r="CE184" s="1" t="s">
         <v>2598</v>
       </c>
-      <c r="CE184" s="1" t="s">
+      <c r="CG184" s="1" t="s">
         <v>2599</v>
-      </c>
-      <c r="CG184" s="1" t="s">
-        <v>2600</v>
       </c>
       <c r="CH184" s="1" t="s">
         <v>1977</v>
@@ -46104,19 +46041,19 @@
         <v>96</v>
       </c>
       <c r="K185" s="1" t="s">
+        <v>2600</v>
+      </c>
+      <c r="L185" s="1" t="s">
         <v>2601</v>
       </c>
-      <c r="L185" s="1" t="s">
+      <c r="N185" s="1" t="s">
         <v>2602</v>
-      </c>
-      <c r="N185" s="1" t="s">
-        <v>2603</v>
       </c>
       <c r="O185" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P185" s="1" t="s">
-        <v>2604</v>
+        <v>2603</v>
       </c>
       <c r="Q185" s="3">
         <v>25589</v>
@@ -46188,7 +46125,7 @@
         <v>112</v>
       </c>
       <c r="AZ185" s="1" t="s">
-        <v>2605</v>
+        <v>2604</v>
       </c>
       <c r="BB185" s="1">
         <v>4</v>
@@ -46197,16 +46134,16 @@
         <v>21</v>
       </c>
       <c r="BD185" s="1" t="s">
-        <v>2606</v>
+        <v>2605</v>
       </c>
       <c r="BG185" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH185" s="1" t="s">
+        <v>2606</v>
+      </c>
+      <c r="BI185" s="1" t="s">
         <v>2607</v>
-      </c>
-      <c r="BI185" s="1" t="s">
-        <v>2608</v>
       </c>
       <c r="BM185" s="1" t="s">
         <v>118</v>
@@ -46218,13 +46155,13 @@
         <v>102</v>
       </c>
       <c r="BR185" s="1" t="s">
-        <v>2609</v>
+        <v>2608</v>
       </c>
       <c r="BS185" s="3">
         <v>37735</v>
       </c>
       <c r="BT185" s="1" t="s">
-        <v>2610</v>
+        <v>2609</v>
       </c>
       <c r="BU185" s="1" t="s">
         <v>122</v>
@@ -46242,19 +46179,19 @@
         <v>112</v>
       </c>
       <c r="CC185" s="1" t="s">
+        <v>2610</v>
+      </c>
+      <c r="CD185" s="1" t="s">
         <v>2611</v>
       </c>
-      <c r="CD185" s="1" t="s">
+      <c r="CE185" s="1" t="s">
         <v>2612</v>
       </c>
-      <c r="CE185" s="1" t="s">
+      <c r="CG185" s="1" t="s">
         <v>2613</v>
       </c>
-      <c r="CG185" s="1" t="s">
+      <c r="CH185" s="1" t="s">
         <v>2614</v>
-      </c>
-      <c r="CH185" s="1" t="s">
-        <v>2615</v>
       </c>
       <c r="CI185" s="1" t="s">
         <v>130</v>
@@ -46292,19 +46229,19 @@
         <v>96</v>
       </c>
       <c r="K186" s="1" t="s">
+        <v>2615</v>
+      </c>
+      <c r="L186" s="1" t="s">
         <v>2616</v>
       </c>
-      <c r="L186" s="1" t="s">
+      <c r="N186" s="1" t="s">
         <v>2617</v>
-      </c>
-      <c r="N186" s="1" t="s">
-        <v>2618</v>
       </c>
       <c r="O186" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P186" s="1" t="s">
-        <v>2619</v>
+        <v>2618</v>
       </c>
       <c r="Q186" s="3">
         <v>29170</v>
@@ -46379,7 +46316,7 @@
         <v>112</v>
       </c>
       <c r="AZ186" s="1" t="s">
-        <v>2620</v>
+        <v>2619</v>
       </c>
       <c r="BB186" s="1">
         <v>4</v>
@@ -46388,13 +46325,13 @@
         <v>21</v>
       </c>
       <c r="BD186" s="1" t="s">
-        <v>2621</v>
+        <v>2620</v>
       </c>
       <c r="BG186" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH186" s="1" t="s">
-        <v>2622</v>
+        <v>2621</v>
       </c>
       <c r="BI186" s="1" t="s">
         <v>398</v>
@@ -46406,7 +46343,7 @@
         <v>106</v>
       </c>
       <c r="BT186" s="1" t="s">
-        <v>2623</v>
+        <v>2622</v>
       </c>
       <c r="BU186" s="1" t="s">
         <v>122</v>
@@ -46424,16 +46361,16 @@
         <v>112</v>
       </c>
       <c r="CC186" s="1" t="s">
-        <v>2624</v>
+        <v>2623</v>
       </c>
       <c r="CD186" s="1" t="s">
         <v>925</v>
       </c>
       <c r="CE186" s="1" t="s">
+        <v>2624</v>
+      </c>
+      <c r="CG186" s="1" t="s">
         <v>2625</v>
-      </c>
-      <c r="CG186" s="1" t="s">
-        <v>2626</v>
       </c>
       <c r="CH186" s="1" t="s">
         <v>406</v>
@@ -46456,7 +46393,7 @@
         <v>90</v>
       </c>
       <c r="E187" s="1" t="s">
-        <v>2627</v>
+        <v>2626</v>
       </c>
       <c r="F187" s="1" t="s">
         <v>112</v>
@@ -46474,19 +46411,19 @@
         <v>96</v>
       </c>
       <c r="K187" s="1" t="s">
+        <v>2627</v>
+      </c>
+      <c r="L187" s="1" t="s">
         <v>2628</v>
       </c>
-      <c r="L187" s="1" t="s">
+      <c r="N187" s="1" t="s">
         <v>2629</v>
-      </c>
-      <c r="N187" s="1" t="s">
-        <v>2630</v>
       </c>
       <c r="O187" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P187" s="1" t="s">
-        <v>2631</v>
+        <v>2630</v>
       </c>
       <c r="Q187" s="3">
         <v>27250</v>
@@ -46519,7 +46456,7 @@
         <v>107</v>
       </c>
       <c r="AG187" s="1" t="s">
-        <v>2632</v>
+        <v>2631</v>
       </c>
       <c r="AH187" s="1" t="s">
         <v>2042</v>
@@ -46564,7 +46501,7 @@
         <v>112</v>
       </c>
       <c r="AZ187" s="1" t="s">
-        <v>2633</v>
+        <v>2632</v>
       </c>
       <c r="BB187" s="1">
         <v>4</v>
@@ -46573,13 +46510,13 @@
         <v>21</v>
       </c>
       <c r="BD187" s="1" t="s">
-        <v>2634</v>
+        <v>2633</v>
       </c>
       <c r="BG187" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH187" s="1" t="s">
-        <v>2635</v>
+        <v>2634</v>
       </c>
       <c r="BM187" s="1" t="s">
         <v>118</v>
@@ -46588,7 +46525,7 @@
         <v>106</v>
       </c>
       <c r="BT187" s="1" t="s">
-        <v>2636</v>
+        <v>2635</v>
       </c>
       <c r="BU187" s="1" t="s">
         <v>122</v>
@@ -46597,7 +46534,7 @@
         <v>0</v>
       </c>
       <c r="BZ187" s="1" t="s">
-        <v>2637</v>
+        <v>2636</v>
       </c>
       <c r="CA187" s="1" t="s">
         <v>124</v>
@@ -46609,13 +46546,13 @@
         <v>1700</v>
       </c>
       <c r="CD187" s="1" t="s">
+        <v>2637</v>
+      </c>
+      <c r="CE187" s="1" t="s">
         <v>2638</v>
       </c>
-      <c r="CE187" s="1" t="s">
+      <c r="CG187" s="1" t="s">
         <v>2639</v>
-      </c>
-      <c r="CG187" s="1" t="s">
-        <v>2640</v>
       </c>
       <c r="CH187" s="1" t="s">
         <v>130</v>
@@ -46656,19 +46593,19 @@
         <v>96</v>
       </c>
       <c r="K188" s="1" t="s">
+        <v>2640</v>
+      </c>
+      <c r="L188" s="1" t="s">
         <v>2641</v>
       </c>
-      <c r="L188" s="1" t="s">
+      <c r="N188" s="1" t="s">
         <v>2642</v>
-      </c>
-      <c r="N188" s="1" t="s">
-        <v>2643</v>
       </c>
       <c r="O188" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P188" s="1" t="s">
-        <v>2644</v>
+        <v>2643</v>
       </c>
       <c r="Q188" s="3">
         <v>27999</v>
@@ -46743,7 +46680,7 @@
         <v>112</v>
       </c>
       <c r="AZ188" s="1" t="s">
-        <v>2645</v>
+        <v>2644</v>
       </c>
       <c r="BB188" s="1">
         <v>4</v>
@@ -46752,16 +46689,16 @@
         <v>21</v>
       </c>
       <c r="BD188" s="1" t="s">
-        <v>2646</v>
+        <v>2645</v>
       </c>
       <c r="BG188" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH188" s="1" t="s">
+        <v>2646</v>
+      </c>
+      <c r="BI188" s="1" t="s">
         <v>2647</v>
-      </c>
-      <c r="BI188" s="1" t="s">
-        <v>2648</v>
       </c>
       <c r="BM188" s="1" t="s">
         <v>118</v>
@@ -46773,13 +46710,13 @@
         <v>102</v>
       </c>
       <c r="BR188" s="1" t="s">
-        <v>2649</v>
+        <v>2648</v>
       </c>
       <c r="BS188" s="3">
         <v>43602</v>
       </c>
       <c r="BT188" s="1" t="s">
-        <v>2650</v>
+        <v>2649</v>
       </c>
       <c r="BU188" s="1" t="s">
         <v>122</v>
@@ -46803,13 +46740,13 @@
         <v>1019</v>
       </c>
       <c r="CE188" s="1" t="s">
+        <v>2650</v>
+      </c>
+      <c r="CG188" s="1" t="s">
         <v>2651</v>
       </c>
-      <c r="CG188" s="1" t="s">
+      <c r="CH188" s="1" t="s">
         <v>2652</v>
-      </c>
-      <c r="CH188" s="1" t="s">
-        <v>2653</v>
       </c>
       <c r="CI188" s="1" t="s">
         <v>130</v>
@@ -46847,19 +46784,19 @@
         <v>96</v>
       </c>
       <c r="K189" s="1" t="s">
+        <v>2653</v>
+      </c>
+      <c r="L189" s="1" t="s">
         <v>2654</v>
       </c>
-      <c r="L189" s="1" t="s">
+      <c r="N189" s="1" t="s">
         <v>2655</v>
-      </c>
-      <c r="N189" s="1" t="s">
-        <v>2656</v>
       </c>
       <c r="O189" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P189" s="1" t="s">
-        <v>2657</v>
+        <v>2656</v>
       </c>
       <c r="Q189" s="3">
         <v>29305</v>
@@ -46934,7 +46871,7 @@
         <v>112</v>
       </c>
       <c r="AZ189" s="1" t="s">
-        <v>2658</v>
+        <v>2657</v>
       </c>
       <c r="BB189" s="1">
         <v>4</v>
@@ -46943,13 +46880,13 @@
         <v>21</v>
       </c>
       <c r="BD189" s="1" t="s">
-        <v>2659</v>
+        <v>2658</v>
       </c>
       <c r="BG189" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH189" s="1" t="s">
-        <v>2660</v>
+        <v>2659</v>
       </c>
       <c r="BM189" s="1" t="s">
         <v>118</v>
@@ -46958,7 +46895,7 @@
         <v>106</v>
       </c>
       <c r="BT189" s="1" t="s">
-        <v>2661</v>
+        <v>2660</v>
       </c>
       <c r="BU189" s="1" t="s">
         <v>122</v>
@@ -46976,16 +46913,16 @@
         <v>112</v>
       </c>
       <c r="CC189" s="1" t="s">
+        <v>2661</v>
+      </c>
+      <c r="CD189" s="1" t="s">
         <v>2662</v>
       </c>
-      <c r="CD189" s="1" t="s">
+      <c r="CE189" s="1" t="s">
         <v>2663</v>
       </c>
-      <c r="CE189" s="1" t="s">
+      <c r="CG189" s="1" t="s">
         <v>2664</v>
-      </c>
-      <c r="CG189" s="1" t="s">
-        <v>2665</v>
       </c>
       <c r="CH189" s="1" t="s">
         <v>130</v>
@@ -47026,19 +46963,19 @@
         <v>96</v>
       </c>
       <c r="K190" s="1" t="s">
+        <v>2665</v>
+      </c>
+      <c r="L190" s="1" t="s">
         <v>2666</v>
       </c>
-      <c r="L190" s="1" t="s">
+      <c r="N190" s="1" t="s">
         <v>2667</v>
-      </c>
-      <c r="N190" s="1" t="s">
-        <v>2668</v>
       </c>
       <c r="O190" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P190" s="1" t="s">
-        <v>2669</v>
+        <v>2668</v>
       </c>
       <c r="Q190" s="3">
         <v>23125</v>
@@ -47074,7 +47011,7 @@
         <v>42247</v>
       </c>
       <c r="AD190" s="1" t="s">
-        <v>2670</v>
+        <v>2669</v>
       </c>
       <c r="AF190" s="1" t="s">
         <v>107</v>
@@ -47128,16 +47065,16 @@
         <v>21</v>
       </c>
       <c r="BD190" s="1" t="s">
-        <v>2671</v>
+        <v>2670</v>
       </c>
       <c r="BG190" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH190" s="1" t="s">
+        <v>2671</v>
+      </c>
+      <c r="BI190" s="1" t="s">
         <v>2672</v>
-      </c>
-      <c r="BI190" s="1" t="s">
-        <v>2673</v>
       </c>
       <c r="BM190" s="1" t="s">
         <v>118</v>
@@ -47149,13 +47086,13 @@
         <v>238</v>
       </c>
       <c r="BR190" s="1" t="s">
-        <v>2674</v>
+        <v>2673</v>
       </c>
       <c r="BS190" s="3">
         <v>36580</v>
       </c>
       <c r="BT190" s="1" t="s">
-        <v>2675</v>
+        <v>2674</v>
       </c>
       <c r="BU190" s="1" t="s">
         <v>122</v>
@@ -47176,7 +47113,7 @@
         <v>112</v>
       </c>
       <c r="CC190" s="1" t="s">
-        <v>2676</v>
+        <v>2675</v>
       </c>
       <c r="CD190" s="1" t="s">
         <v>306</v>
@@ -47185,10 +47122,10 @@
         <v>1731</v>
       </c>
       <c r="CG190" s="1" t="s">
+        <v>2676</v>
+      </c>
+      <c r="CH190" s="1" t="s">
         <v>2677</v>
-      </c>
-      <c r="CH190" s="1" t="s">
-        <v>2678</v>
       </c>
       <c r="CI190" s="1" t="s">
         <v>130</v>
@@ -47226,19 +47163,19 @@
         <v>96</v>
       </c>
       <c r="K191" s="1" t="s">
+        <v>2678</v>
+      </c>
+      <c r="L191" s="1" t="s">
         <v>2679</v>
       </c>
-      <c r="L191" s="1" t="s">
+      <c r="N191" s="1" t="s">
         <v>2680</v>
-      </c>
-      <c r="N191" s="1" t="s">
-        <v>2681</v>
       </c>
       <c r="O191" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P191" s="1" t="s">
-        <v>2682</v>
+        <v>2681</v>
       </c>
       <c r="Q191" s="3">
         <v>30023</v>
@@ -47316,13 +47253,13 @@
         <v>21</v>
       </c>
       <c r="BD191" s="1" t="s">
-        <v>2683</v>
+        <v>2682</v>
       </c>
       <c r="BG191" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH191" s="1" t="s">
-        <v>2684</v>
+        <v>2683</v>
       </c>
       <c r="BI191" s="1" t="s">
         <v>1204</v>
@@ -47337,13 +47274,13 @@
         <v>119</v>
       </c>
       <c r="BR191" s="1" t="s">
-        <v>2685</v>
+        <v>2684</v>
       </c>
       <c r="BS191" s="3">
         <v>37747</v>
       </c>
       <c r="BT191" s="1" t="s">
-        <v>2686</v>
+        <v>2685</v>
       </c>
       <c r="BU191" s="1" t="s">
         <v>122</v>
@@ -47367,10 +47304,10 @@
         <v>706</v>
       </c>
       <c r="CE191" s="1" t="s">
+        <v>2686</v>
+      </c>
+      <c r="CG191" s="1" t="s">
         <v>2687</v>
-      </c>
-      <c r="CG191" s="1" t="s">
-        <v>2688</v>
       </c>
       <c r="CH191" s="1" t="s">
         <v>1210</v>
@@ -47411,19 +47348,19 @@
         <v>96</v>
       </c>
       <c r="K192" s="1" t="s">
+        <v>2688</v>
+      </c>
+      <c r="L192" s="1" t="s">
         <v>2689</v>
       </c>
-      <c r="L192" s="1" t="s">
+      <c r="N192" s="1" t="s">
         <v>2690</v>
-      </c>
-      <c r="N192" s="1" t="s">
-        <v>2691</v>
       </c>
       <c r="O192" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P192" s="1" t="s">
-        <v>2692</v>
+        <v>2691</v>
       </c>
       <c r="Q192" s="3">
         <v>26205</v>
@@ -47504,13 +47441,13 @@
         <v>21</v>
       </c>
       <c r="BD192" s="1" t="s">
-        <v>2693</v>
+        <v>2692</v>
       </c>
       <c r="BG192" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH192" s="1" t="s">
-        <v>2694</v>
+        <v>2693</v>
       </c>
       <c r="BM192" s="1" t="s">
         <v>118</v>
@@ -47519,7 +47456,7 @@
         <v>106</v>
       </c>
       <c r="BT192" s="1" t="s">
-        <v>2695</v>
+        <v>2694</v>
       </c>
       <c r="BU192" s="1" t="s">
         <v>122</v>
@@ -47537,16 +47474,16 @@
         <v>112</v>
       </c>
       <c r="CC192" s="1" t="s">
+        <v>2695</v>
+      </c>
+      <c r="CD192" s="1" t="s">
         <v>2696</v>
       </c>
-      <c r="CD192" s="1" t="s">
+      <c r="CE192" s="1" t="s">
         <v>2697</v>
       </c>
-      <c r="CE192" s="1" t="s">
+      <c r="CG192" s="1" t="s">
         <v>2698</v>
-      </c>
-      <c r="CG192" s="1" t="s">
-        <v>2699</v>
       </c>
       <c r="CH192" s="1" t="s">
         <v>130</v>
@@ -47587,19 +47524,19 @@
         <v>96</v>
       </c>
       <c r="K193" s="1" t="s">
+        <v>2699</v>
+      </c>
+      <c r="L193" s="1" t="s">
         <v>2700</v>
       </c>
-      <c r="L193" s="1" t="s">
+      <c r="N193" s="1" t="s">
         <v>2701</v>
-      </c>
-      <c r="N193" s="1" t="s">
-        <v>2702</v>
       </c>
       <c r="O193" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P193" s="1" t="s">
-        <v>2703</v>
+        <v>2702</v>
       </c>
       <c r="Q193" s="3">
         <v>31662</v>
@@ -47680,13 +47617,13 @@
         <v>21</v>
       </c>
       <c r="BD193" s="1" t="s">
-        <v>2704</v>
+        <v>2703</v>
       </c>
       <c r="BG193" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH193" s="1" t="s">
-        <v>2705</v>
+        <v>2704</v>
       </c>
       <c r="BM193" s="1" t="s">
         <v>118</v>
@@ -47695,7 +47632,7 @@
         <v>168</v>
       </c>
       <c r="BT193" s="1" t="s">
-        <v>2706</v>
+        <v>2705</v>
       </c>
       <c r="BU193" s="1" t="s">
         <v>122</v>
@@ -47713,16 +47650,16 @@
         <v>112</v>
       </c>
       <c r="CC193" s="1" t="s">
+        <v>2706</v>
+      </c>
+      <c r="CD193" s="1" t="s">
         <v>2707</v>
       </c>
-      <c r="CD193" s="1" t="s">
+      <c r="CE193" s="1" t="s">
         <v>2708</v>
       </c>
-      <c r="CE193" s="1" t="s">
+      <c r="CG193" s="1" t="s">
         <v>2709</v>
-      </c>
-      <c r="CG193" s="1" t="s">
-        <v>2710</v>
       </c>
       <c r="CH193" s="1" t="s">
         <v>130</v>
@@ -47763,19 +47700,19 @@
         <v>96</v>
       </c>
       <c r="K194" s="1" t="s">
+        <v>2710</v>
+      </c>
+      <c r="L194" s="1" t="s">
         <v>2711</v>
       </c>
-      <c r="L194" s="1" t="s">
+      <c r="N194" s="1" t="s">
         <v>2712</v>
-      </c>
-      <c r="N194" s="1" t="s">
-        <v>2713</v>
       </c>
       <c r="O194" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P194" s="1" t="s">
-        <v>2714</v>
+        <v>2713</v>
       </c>
       <c r="Q194" s="3">
         <v>29117</v>
@@ -47853,16 +47790,16 @@
         <v>21</v>
       </c>
       <c r="BD194" s="1" t="s">
-        <v>2715</v>
+        <v>2714</v>
       </c>
       <c r="BG194" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH194" s="1" t="s">
+        <v>2715</v>
+      </c>
+      <c r="BI194" s="1" t="s">
         <v>2716</v>
-      </c>
-      <c r="BI194" s="1" t="s">
-        <v>2717</v>
       </c>
       <c r="BM194" s="1" t="s">
         <v>118</v>
@@ -47874,13 +47811,13 @@
         <v>102</v>
       </c>
       <c r="BR194" s="1" t="s">
-        <v>2718</v>
+        <v>2717</v>
       </c>
       <c r="BS194" s="3">
         <v>37334</v>
       </c>
       <c r="BT194" s="1" t="s">
-        <v>2719</v>
+        <v>2718</v>
       </c>
       <c r="BU194" s="1" t="s">
         <v>122</v>
@@ -47901,16 +47838,16 @@
         <v>535</v>
       </c>
       <c r="CD194" s="1" t="s">
+        <v>2719</v>
+      </c>
+      <c r="CE194" s="1" t="s">
         <v>2720</v>
       </c>
-      <c r="CE194" s="1" t="s">
+      <c r="CG194" s="1" t="s">
         <v>2721</v>
       </c>
-      <c r="CG194" s="1" t="s">
+      <c r="CH194" s="1" t="s">
         <v>2722</v>
-      </c>
-      <c r="CH194" s="1" t="s">
-        <v>2723</v>
       </c>
       <c r="CI194" s="1" t="s">
         <v>130</v>
@@ -47927,7 +47864,7 @@
         <v>152</v>
       </c>
       <c r="D195" s="1" t="s">
-        <v>2724</v>
+        <v>2723</v>
       </c>
       <c r="E195" s="1" t="s">
         <v>154</v>
@@ -47948,19 +47885,19 @@
         <v>96</v>
       </c>
       <c r="K195" s="1" t="s">
+        <v>2724</v>
+      </c>
+      <c r="L195" s="1" t="s">
         <v>2725</v>
       </c>
-      <c r="L195" s="1" t="s">
+      <c r="N195" s="1" t="s">
         <v>2726</v>
-      </c>
-      <c r="N195" s="1" t="s">
-        <v>2727</v>
       </c>
       <c r="O195" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P195" s="1" t="s">
-        <v>2728</v>
+        <v>2727</v>
       </c>
       <c r="Q195" s="3">
         <v>30007</v>
@@ -48038,16 +47975,16 @@
         <v>21</v>
       </c>
       <c r="BD195" s="1" t="s">
-        <v>2729</v>
+        <v>2728</v>
       </c>
       <c r="BG195" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH195" s="1" t="s">
+        <v>2729</v>
+      </c>
+      <c r="BI195" s="1" t="s">
         <v>2730</v>
-      </c>
-      <c r="BI195" s="1" t="s">
-        <v>2731</v>
       </c>
       <c r="BM195" s="1" t="s">
         <v>118</v>
@@ -48059,13 +47996,13 @@
         <v>102</v>
       </c>
       <c r="BR195" s="1" t="s">
-        <v>2732</v>
+        <v>2731</v>
       </c>
       <c r="BS195" s="3">
         <v>37904</v>
       </c>
       <c r="BT195" s="1" t="s">
-        <v>2733</v>
+        <v>2732</v>
       </c>
       <c r="BU195" s="1" t="s">
         <v>122</v>
@@ -48074,7 +48011,7 @@
         <v>0</v>
       </c>
       <c r="BZ195" s="1" t="s">
-        <v>2734</v>
+        <v>2733</v>
       </c>
       <c r="CA195" s="1" t="s">
         <v>124</v>
@@ -48086,16 +48023,16 @@
         <v>1019</v>
       </c>
       <c r="CD195" s="1" t="s">
+        <v>2734</v>
+      </c>
+      <c r="CE195" s="1" t="s">
         <v>2735</v>
       </c>
-      <c r="CE195" s="1" t="s">
+      <c r="CG195" s="1" t="s">
         <v>2736</v>
       </c>
-      <c r="CG195" s="1" t="s">
+      <c r="CH195" s="1" t="s">
         <v>2737</v>
-      </c>
-      <c r="CH195" s="1" t="s">
-        <v>2738</v>
       </c>
       <c r="CI195" s="1" t="s">
         <v>130</v>
@@ -48115,7 +48052,7 @@
         <v>90</v>
       </c>
       <c r="E196" s="1" t="s">
-        <v>2627</v>
+        <v>2626</v>
       </c>
       <c r="F196" s="1" t="s">
         <v>112</v>
@@ -48133,19 +48070,19 @@
         <v>96</v>
       </c>
       <c r="K196" s="1" t="s">
+        <v>2738</v>
+      </c>
+      <c r="L196" s="1" t="s">
         <v>2739</v>
       </c>
-      <c r="L196" s="1" t="s">
+      <c r="N196" s="1" t="s">
         <v>2740</v>
-      </c>
-      <c r="N196" s="1" t="s">
-        <v>2741</v>
       </c>
       <c r="O196" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P196" s="1" t="s">
-        <v>2742</v>
+        <v>2741</v>
       </c>
       <c r="Q196" s="3">
         <v>26221</v>
@@ -48223,13 +48160,13 @@
         <v>21</v>
       </c>
       <c r="BD196" s="1" t="s">
-        <v>2743</v>
+        <v>2742</v>
       </c>
       <c r="BG196" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH196" s="1" t="s">
-        <v>2744</v>
+        <v>2743</v>
       </c>
       <c r="BM196" s="1" t="s">
         <v>118</v>
@@ -48241,13 +48178,13 @@
         <v>119</v>
       </c>
       <c r="BR196" s="1" t="s">
-        <v>2745</v>
+        <v>2744</v>
       </c>
       <c r="BS196" s="3">
         <v>36111</v>
       </c>
       <c r="BT196" s="1" t="s">
-        <v>2746</v>
+        <v>2745</v>
       </c>
       <c r="BU196" s="1" t="s">
         <v>122</v>
@@ -48256,7 +48193,7 @@
         <v>0</v>
       </c>
       <c r="BZ196" s="1" t="s">
-        <v>2637</v>
+        <v>2636</v>
       </c>
       <c r="CA196" s="1" t="s">
         <v>124</v>
@@ -48265,16 +48202,16 @@
         <v>112</v>
       </c>
       <c r="CC196" s="1" t="s">
-        <v>2747</v>
+        <v>2746</v>
       </c>
       <c r="CD196" s="1" t="s">
         <v>1220</v>
       </c>
       <c r="CE196" s="1" t="s">
+        <v>2747</v>
+      </c>
+      <c r="CG196" s="1" t="s">
         <v>2748</v>
-      </c>
-      <c r="CG196" s="1" t="s">
-        <v>2749</v>
       </c>
       <c r="CH196" s="1" t="s">
         <v>130</v>
@@ -48315,19 +48252,19 @@
         <v>96</v>
       </c>
       <c r="K197" s="1" t="s">
+        <v>2749</v>
+      </c>
+      <c r="L197" s="1" t="s">
         <v>2750</v>
       </c>
-      <c r="L197" s="1" t="s">
+      <c r="N197" s="1" t="s">
         <v>2751</v>
-      </c>
-      <c r="N197" s="1" t="s">
-        <v>2752</v>
       </c>
       <c r="O197" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P197" s="1" t="s">
-        <v>2753</v>
+        <v>2752</v>
       </c>
       <c r="Q197" s="3">
         <v>27571</v>
@@ -48405,16 +48342,16 @@
         <v>21</v>
       </c>
       <c r="BD197" s="1" t="s">
-        <v>2754</v>
+        <v>2753</v>
       </c>
       <c r="BG197" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH197" s="1" t="s">
+        <v>2754</v>
+      </c>
+      <c r="BI197" s="1" t="s">
         <v>2755</v>
-      </c>
-      <c r="BI197" s="1" t="s">
-        <v>2756</v>
       </c>
       <c r="BM197" s="1" t="s">
         <v>118</v>
@@ -48426,13 +48363,13 @@
         <v>119</v>
       </c>
       <c r="BR197" s="1" t="s">
-        <v>2757</v>
+        <v>2756</v>
       </c>
       <c r="BS197" s="3">
         <v>37785</v>
       </c>
       <c r="BT197" s="1" t="s">
-        <v>2758</v>
+        <v>2757</v>
       </c>
       <c r="BU197" s="1" t="s">
         <v>122</v>
@@ -48450,19 +48387,19 @@
         <v>112</v>
       </c>
       <c r="CC197" s="1" t="s">
+        <v>2758</v>
+      </c>
+      <c r="CD197" s="1" t="s">
         <v>2759</v>
       </c>
-      <c r="CD197" s="1" t="s">
+      <c r="CE197" s="1" t="s">
         <v>2760</v>
       </c>
-      <c r="CE197" s="1" t="s">
+      <c r="CG197" s="1" t="s">
         <v>2761</v>
       </c>
-      <c r="CG197" s="1" t="s">
+      <c r="CH197" s="1" t="s">
         <v>2762</v>
-      </c>
-      <c r="CH197" s="1" t="s">
-        <v>2763</v>
       </c>
       <c r="CI197" s="1" t="s">
         <v>130</v>
@@ -48476,10 +48413,10 @@
         <v>88</v>
       </c>
       <c r="C198" s="1" t="s">
+        <v>2546</v>
+      </c>
+      <c r="D198" s="1" t="s">
         <v>2547</v>
-      </c>
-      <c r="D198" s="1" t="s">
-        <v>2548</v>
       </c>
       <c r="E198" s="1" t="s">
         <v>154</v>
@@ -48494,16 +48431,16 @@
         <v>94</v>
       </c>
       <c r="I198" s="1" t="s">
-        <v>2764</v>
+        <v>2763</v>
       </c>
       <c r="J198" s="1" t="s">
         <v>96</v>
       </c>
       <c r="K198" s="1" t="s">
+        <v>2764</v>
+      </c>
+      <c r="L198" s="1" t="s">
         <v>2765</v>
-      </c>
-      <c r="L198" s="1" t="s">
-        <v>2766</v>
       </c>
       <c r="O198" s="1" t="s">
         <v>100</v>
@@ -48581,7 +48518,7 @@
         <v>20</v>
       </c>
       <c r="BD198" s="1" t="s">
-        <v>2767</v>
+        <v>2766</v>
       </c>
       <c r="BM198" s="1" t="s">
         <v>118</v>
@@ -48596,7 +48533,7 @@
         <v>0</v>
       </c>
       <c r="BZ198" s="1" t="s">
-        <v>2768</v>
+        <v>2767</v>
       </c>
       <c r="CA198" s="1" t="s">
         <v>124</v>
@@ -48605,7 +48542,7 @@
         <v>112</v>
       </c>
       <c r="CC198" s="1" t="s">
-        <v>2765</v>
+        <v>2764</v>
       </c>
       <c r="CG198" s="1" t="s">
         <v>130</v>
@@ -48649,19 +48586,19 @@
         <v>96</v>
       </c>
       <c r="K199" s="1" t="s">
+        <v>2768</v>
+      </c>
+      <c r="L199" s="1" t="s">
         <v>2769</v>
       </c>
-      <c r="L199" s="1" t="s">
+      <c r="N199" s="1" t="s">
         <v>2770</v>
-      </c>
-      <c r="N199" s="1" t="s">
-        <v>2771</v>
       </c>
       <c r="O199" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P199" s="1" t="s">
-        <v>2772</v>
+        <v>2771</v>
       </c>
       <c r="Q199" s="3">
         <v>30993</v>
@@ -48736,7 +48673,7 @@
         <v>112</v>
       </c>
       <c r="AZ199" s="1" t="s">
-        <v>2773</v>
+        <v>2772</v>
       </c>
       <c r="BB199" s="1">
         <v>4</v>
@@ -48745,13 +48682,13 @@
         <v>21</v>
       </c>
       <c r="BD199" s="1" t="s">
-        <v>2774</v>
+        <v>2773</v>
       </c>
       <c r="BG199" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH199" s="1" t="s">
-        <v>2775</v>
+        <v>2774</v>
       </c>
       <c r="BM199" s="1" t="s">
         <v>118</v>
@@ -48760,7 +48697,7 @@
         <v>106</v>
       </c>
       <c r="BT199" s="1" t="s">
-        <v>2776</v>
+        <v>2775</v>
       </c>
       <c r="BU199" s="1" t="s">
         <v>122</v>
@@ -48778,16 +48715,16 @@
         <v>112</v>
       </c>
       <c r="CC199" s="1" t="s">
+        <v>2776</v>
+      </c>
+      <c r="CD199" s="1" t="s">
         <v>2777</v>
       </c>
-      <c r="CD199" s="1" t="s">
+      <c r="CE199" s="1" t="s">
         <v>2778</v>
       </c>
-      <c r="CE199" s="1" t="s">
+      <c r="CG199" s="1" t="s">
         <v>2779</v>
-      </c>
-      <c r="CG199" s="1" t="s">
-        <v>2780</v>
       </c>
       <c r="CH199" s="1" t="s">
         <v>130</v>
@@ -48828,19 +48765,19 @@
         <v>96</v>
       </c>
       <c r="K200" s="1" t="s">
+        <v>2780</v>
+      </c>
+      <c r="L200" s="1" t="s">
         <v>2781</v>
       </c>
-      <c r="L200" s="1" t="s">
+      <c r="N200" s="1" t="s">
         <v>2782</v>
-      </c>
-      <c r="N200" s="1" t="s">
-        <v>2783</v>
       </c>
       <c r="O200" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P200" s="1" t="s">
-        <v>2784</v>
+        <v>2783</v>
       </c>
       <c r="Q200" s="3">
         <v>30065</v>
@@ -48915,7 +48852,7 @@
         <v>112</v>
       </c>
       <c r="AZ200" s="1" t="s">
-        <v>2785</v>
+        <v>2784</v>
       </c>
       <c r="BB200" s="1">
         <v>4</v>
@@ -48924,16 +48861,16 @@
         <v>21</v>
       </c>
       <c r="BD200" s="1" t="s">
-        <v>2786</v>
+        <v>2785</v>
       </c>
       <c r="BG200" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH200" s="1" t="s">
+        <v>2786</v>
+      </c>
+      <c r="BI200" s="1" t="s">
         <v>2787</v>
-      </c>
-      <c r="BI200" s="1" t="s">
-        <v>2788</v>
       </c>
       <c r="BM200" s="1" t="s">
         <v>118</v>
@@ -48942,7 +48879,7 @@
         <v>106</v>
       </c>
       <c r="BT200" s="1" t="s">
-        <v>2789</v>
+        <v>2788</v>
       </c>
       <c r="BU200" s="1" t="s">
         <v>122</v>
@@ -48960,19 +48897,19 @@
         <v>112</v>
       </c>
       <c r="CC200" s="1" t="s">
-        <v>2472</v>
+        <v>2471</v>
       </c>
       <c r="CD200" s="1" t="s">
         <v>1193</v>
       </c>
       <c r="CE200" s="1" t="s">
+        <v>2789</v>
+      </c>
+      <c r="CG200" s="1" t="s">
         <v>2790</v>
       </c>
-      <c r="CG200" s="1" t="s">
+      <c r="CH200" s="1" t="s">
         <v>2791</v>
-      </c>
-      <c r="CH200" s="1" t="s">
-        <v>2792</v>
       </c>
       <c r="CI200" s="1" t="s">
         <v>130</v>
@@ -49010,19 +48947,19 @@
         <v>96</v>
       </c>
       <c r="K201" s="1" t="s">
+        <v>2792</v>
+      </c>
+      <c r="L201" s="1" t="s">
         <v>2793</v>
       </c>
-      <c r="L201" s="1" t="s">
+      <c r="N201" s="1" t="s">
         <v>2794</v>
-      </c>
-      <c r="N201" s="1" t="s">
-        <v>2795</v>
       </c>
       <c r="O201" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P201" s="1" t="s">
-        <v>2796</v>
+        <v>2795</v>
       </c>
       <c r="Q201" s="3">
         <v>30033</v>
@@ -49097,7 +49034,7 @@
         <v>112</v>
       </c>
       <c r="AZ201" s="1" t="s">
-        <v>2797</v>
+        <v>2796</v>
       </c>
       <c r="BB201" s="1">
         <v>4</v>
@@ -49106,13 +49043,13 @@
         <v>21</v>
       </c>
       <c r="BD201" s="1" t="s">
-        <v>2798</v>
+        <v>2797</v>
       </c>
       <c r="BG201" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH201" s="1" t="s">
-        <v>2799</v>
+        <v>2798</v>
       </c>
       <c r="BM201" s="1" t="s">
         <v>118</v>
@@ -49121,7 +49058,7 @@
         <v>106</v>
       </c>
       <c r="BT201" s="1" t="s">
-        <v>2800</v>
+        <v>2799</v>
       </c>
       <c r="BU201" s="1" t="s">
         <v>122</v>
@@ -49142,13 +49079,13 @@
         <v>1193</v>
       </c>
       <c r="CD201" s="1" t="s">
+        <v>2800</v>
+      </c>
+      <c r="CE201" s="1" t="s">
         <v>2801</v>
       </c>
-      <c r="CE201" s="1" t="s">
+      <c r="CG201" s="1" t="s">
         <v>2802</v>
-      </c>
-      <c r="CG201" s="1" t="s">
-        <v>2803</v>
       </c>
       <c r="CH201" s="1" t="s">
         <v>130</v>
@@ -49189,19 +49126,19 @@
         <v>96</v>
       </c>
       <c r="K202" s="1" t="s">
+        <v>2803</v>
+      </c>
+      <c r="L202" s="1" t="s">
         <v>2804</v>
       </c>
-      <c r="L202" s="1" t="s">
+      <c r="N202" s="1" t="s">
         <v>2805</v>
-      </c>
-      <c r="N202" s="1" t="s">
-        <v>2806</v>
       </c>
       <c r="O202" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P202" s="1" t="s">
-        <v>2807</v>
+        <v>2806</v>
       </c>
       <c r="Q202" s="3">
         <v>29411</v>
@@ -49276,7 +49213,7 @@
         <v>112</v>
       </c>
       <c r="AZ202" s="1" t="s">
-        <v>2808</v>
+        <v>2807</v>
       </c>
       <c r="BB202" s="1">
         <v>4</v>
@@ -49285,13 +49222,13 @@
         <v>21</v>
       </c>
       <c r="BD202" s="1" t="s">
-        <v>2809</v>
+        <v>2808</v>
       </c>
       <c r="BG202" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH202" s="1" t="s">
-        <v>2810</v>
+        <v>2809</v>
       </c>
       <c r="BI202" s="1" t="s">
         <v>1204</v>
@@ -49309,13 +49246,13 @@
         <v>168</v>
       </c>
       <c r="BR202" s="1" t="s">
-        <v>2811</v>
+        <v>2810</v>
       </c>
       <c r="BS202" s="3">
         <v>37513</v>
       </c>
       <c r="BT202" s="1" t="s">
-        <v>2812</v>
+        <v>2811</v>
       </c>
       <c r="BU202" s="1" t="s">
         <v>122</v>
@@ -49333,16 +49270,16 @@
         <v>112</v>
       </c>
       <c r="CC202" s="1" t="s">
-        <v>2813</v>
+        <v>2812</v>
       </c>
       <c r="CD202" s="1" t="s">
         <v>126</v>
       </c>
       <c r="CE202" s="1" t="s">
+        <v>2813</v>
+      </c>
+      <c r="CG202" s="1" t="s">
         <v>2814</v>
-      </c>
-      <c r="CG202" s="1" t="s">
-        <v>2815</v>
       </c>
       <c r="CH202" s="1" t="s">
         <v>1210</v>
@@ -49383,19 +49320,19 @@
         <v>96</v>
       </c>
       <c r="K203" s="1" t="s">
+        <v>2815</v>
+      </c>
+      <c r="L203" s="1" t="s">
         <v>2816</v>
       </c>
-      <c r="L203" s="1" t="s">
+      <c r="N203" s="1" t="s">
         <v>2817</v>
-      </c>
-      <c r="N203" s="1" t="s">
-        <v>2818</v>
       </c>
       <c r="O203" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P203" s="1" t="s">
-        <v>2819</v>
+        <v>2818</v>
       </c>
       <c r="Q203" s="3">
         <v>32173</v>
@@ -49473,16 +49410,16 @@
         <v>21</v>
       </c>
       <c r="BD203" s="1" t="s">
-        <v>2820</v>
+        <v>2819</v>
       </c>
       <c r="BG203" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH203" s="1" t="s">
+        <v>2820</v>
+      </c>
+      <c r="BI203" s="1" t="s">
         <v>2821</v>
-      </c>
-      <c r="BI203" s="1" t="s">
-        <v>2822</v>
       </c>
       <c r="BM203" s="1" t="s">
         <v>118</v>
@@ -49494,13 +49431,13 @@
         <v>102</v>
       </c>
       <c r="BR203" s="1" t="s">
-        <v>2823</v>
+        <v>2822</v>
       </c>
       <c r="BS203" s="3">
         <v>41024</v>
       </c>
       <c r="BT203" s="1" t="s">
-        <v>2824</v>
+        <v>2823</v>
       </c>
       <c r="BU203" s="1" t="s">
         <v>122</v>
@@ -49518,19 +49455,19 @@
         <v>112</v>
       </c>
       <c r="CC203" s="1" t="s">
+        <v>2824</v>
+      </c>
+      <c r="CD203" s="1" t="s">
         <v>2825</v>
       </c>
-      <c r="CD203" s="1" t="s">
+      <c r="CE203" s="1" t="s">
         <v>2826</v>
       </c>
-      <c r="CE203" s="1" t="s">
+      <c r="CG203" s="1" t="s">
         <v>2827</v>
       </c>
-      <c r="CG203" s="1" t="s">
+      <c r="CH203" s="1" t="s">
         <v>2828</v>
-      </c>
-      <c r="CH203" s="1" t="s">
-        <v>2829</v>
       </c>
       <c r="CI203" s="1" t="s">
         <v>130</v>
@@ -49568,10 +49505,10 @@
         <v>96</v>
       </c>
       <c r="K204" s="1" t="s">
+        <v>2829</v>
+      </c>
+      <c r="L204" s="1" t="s">
         <v>2830</v>
-      </c>
-      <c r="L204" s="1" t="s">
-        <v>2831</v>
       </c>
       <c r="O204" s="1" t="s">
         <v>100</v>
@@ -49601,7 +49538,7 @@
         <v>107</v>
       </c>
       <c r="AG204" s="1" t="s">
-        <v>2632</v>
+        <v>2631</v>
       </c>
       <c r="AH204" s="1" t="s">
         <v>2042</v>
@@ -49646,7 +49583,7 @@
         <v>112</v>
       </c>
       <c r="AZ204" s="1" t="s">
-        <v>2832</v>
+        <v>2831</v>
       </c>
       <c r="BB204" s="1">
         <v>2</v>
@@ -49655,7 +49592,7 @@
         <v>21</v>
       </c>
       <c r="BD204" s="1" t="s">
-        <v>2833</v>
+        <v>2832</v>
       </c>
       <c r="BM204" s="1" t="s">
         <v>118</v>
@@ -49682,7 +49619,7 @@
         <v>112</v>
       </c>
       <c r="CC204" s="1" t="s">
-        <v>2830</v>
+        <v>2829</v>
       </c>
       <c r="CG204" s="1" t="s">
         <v>1955</v>
@@ -49726,19 +49663,19 @@
         <v>96</v>
       </c>
       <c r="K205" s="1" t="s">
+        <v>2833</v>
+      </c>
+      <c r="L205" s="1" t="s">
         <v>2834</v>
       </c>
-      <c r="L205" s="1" t="s">
+      <c r="N205" s="1" t="s">
         <v>2835</v>
-      </c>
-      <c r="N205" s="1" t="s">
-        <v>2836</v>
       </c>
       <c r="O205" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P205" s="1" t="s">
-        <v>2837</v>
+        <v>2836</v>
       </c>
       <c r="Q205" s="3">
         <v>30408</v>
@@ -49810,7 +49747,7 @@
         <v>112</v>
       </c>
       <c r="AZ205" s="1" t="s">
-        <v>2838</v>
+        <v>2837</v>
       </c>
       <c r="BB205" s="1">
         <v>4</v>
@@ -49819,13 +49756,13 @@
         <v>21</v>
       </c>
       <c r="BD205" s="1" t="s">
-        <v>2839</v>
+        <v>2838</v>
       </c>
       <c r="BG205" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH205" s="1" t="s">
-        <v>2840</v>
+        <v>2839</v>
       </c>
       <c r="BI205" s="1" t="s">
         <v>1110</v>
@@ -49840,13 +49777,13 @@
         <v>102</v>
       </c>
       <c r="BR205" s="1" t="s">
-        <v>2841</v>
+        <v>2840</v>
       </c>
       <c r="BS205" s="3">
         <v>37336</v>
       </c>
       <c r="BT205" s="1" t="s">
-        <v>2842</v>
+        <v>2841</v>
       </c>
       <c r="BU205" s="1" t="s">
         <v>122</v>
@@ -49864,16 +49801,16 @@
         <v>112</v>
       </c>
       <c r="CC205" s="1" t="s">
+        <v>2842</v>
+      </c>
+      <c r="CD205" s="1" t="s">
         <v>2843</v>
       </c>
-      <c r="CD205" s="1" t="s">
+      <c r="CE205" s="1" t="s">
         <v>2844</v>
       </c>
-      <c r="CE205" s="1" t="s">
+      <c r="CG205" s="1" t="s">
         <v>2845</v>
-      </c>
-      <c r="CG205" s="1" t="s">
-        <v>2846</v>
       </c>
       <c r="CH205" s="1" t="s">
         <v>1116</v>
@@ -49914,19 +49851,19 @@
         <v>96</v>
       </c>
       <c r="K206" s="1" t="s">
+        <v>2846</v>
+      </c>
+      <c r="L206" s="1" t="s">
         <v>2847</v>
       </c>
-      <c r="L206" s="1" t="s">
+      <c r="N206" s="1" t="s">
         <v>2848</v>
-      </c>
-      <c r="N206" s="1" t="s">
-        <v>2849</v>
       </c>
       <c r="O206" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P206" s="1" t="s">
-        <v>2850</v>
+        <v>2849</v>
       </c>
       <c r="Q206" s="3">
         <v>28132</v>
@@ -50001,7 +49938,7 @@
         <v>112</v>
       </c>
       <c r="AZ206" s="1" t="s">
-        <v>2851</v>
+        <v>2850</v>
       </c>
       <c r="BB206" s="1">
         <v>4</v>
@@ -50010,13 +49947,13 @@
         <v>21</v>
       </c>
       <c r="BD206" s="1" t="s">
-        <v>2852</v>
+        <v>2851</v>
       </c>
       <c r="BG206" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH206" s="1" t="s">
-        <v>2853</v>
+        <v>2852</v>
       </c>
       <c r="BI206" s="1" t="s">
         <v>785</v>
@@ -50028,7 +49965,7 @@
         <v>106</v>
       </c>
       <c r="BT206" s="1" t="s">
-        <v>2854</v>
+        <v>2853</v>
       </c>
       <c r="BU206" s="1" t="s">
         <v>122</v>
@@ -50046,16 +49983,16 @@
         <v>112</v>
       </c>
       <c r="CC206" s="1" t="s">
+        <v>2854</v>
+      </c>
+      <c r="CD206" s="1" t="s">
         <v>2855</v>
       </c>
-      <c r="CD206" s="1" t="s">
+      <c r="CE206" s="1" t="s">
         <v>2856</v>
       </c>
-      <c r="CE206" s="1" t="s">
+      <c r="CG206" s="1" t="s">
         <v>2857</v>
-      </c>
-      <c r="CG206" s="1" t="s">
-        <v>2858</v>
       </c>
       <c r="CH206" s="1" t="s">
         <v>791</v>
@@ -50096,19 +50033,19 @@
         <v>96</v>
       </c>
       <c r="K207" s="1" t="s">
+        <v>2858</v>
+      </c>
+      <c r="L207" s="1" t="s">
         <v>2859</v>
       </c>
-      <c r="L207" s="1" t="s">
+      <c r="N207" s="1" t="s">
         <v>2860</v>
-      </c>
-      <c r="N207" s="1" t="s">
-        <v>2861</v>
       </c>
       <c r="O207" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P207" s="1" t="s">
-        <v>2862</v>
+        <v>2861</v>
       </c>
       <c r="Q207" s="3">
         <v>31743</v>
@@ -50192,7 +50129,7 @@
         <v>21</v>
       </c>
       <c r="BD207" s="1" t="s">
-        <v>2863</v>
+        <v>2862</v>
       </c>
       <c r="BG207" s="1" t="s">
         <v>115</v>
@@ -50207,7 +50144,7 @@
         <v>106</v>
       </c>
       <c r="BT207" s="1" t="s">
-        <v>2864</v>
+        <v>2863</v>
       </c>
       <c r="BU207" s="1" t="s">
         <v>122</v>
@@ -50225,13 +50162,13 @@
         <v>112</v>
       </c>
       <c r="CC207" s="1" t="s">
+        <v>2864</v>
+      </c>
+      <c r="CD207" s="1" t="s">
         <v>2865</v>
       </c>
-      <c r="CD207" s="1" t="s">
+      <c r="CE207" s="1" t="s">
         <v>2866</v>
-      </c>
-      <c r="CE207" s="1" t="s">
-        <v>2867</v>
       </c>
       <c r="CG207" s="1" t="s">
         <v>993</v>
@@ -50275,19 +50212,19 @@
         <v>96</v>
       </c>
       <c r="K208" s="1" t="s">
+        <v>2867</v>
+      </c>
+      <c r="L208" s="1" t="s">
         <v>2868</v>
       </c>
-      <c r="L208" s="1" t="s">
+      <c r="N208" s="1" t="s">
         <v>2869</v>
-      </c>
-      <c r="N208" s="1" t="s">
-        <v>2870</v>
       </c>
       <c r="O208" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P208" s="1" t="s">
-        <v>2871</v>
+        <v>2870</v>
       </c>
       <c r="Q208" s="3">
         <v>23750</v>
@@ -50316,12 +50253,7 @@
       <c r="AA208" s="1">
         <v>0</v>
       </c>
-      <c r="AC208" s="3">
-        <v>43008</v>
-      </c>
-      <c r="AD208" s="1" t="s">
-        <v>2872</v>
-      </c>
+      <c r="AC208" s="3"/>
       <c r="AF208" s="1" t="s">
         <v>107</v>
       </c>
@@ -50371,7 +50303,7 @@
         <v>112</v>
       </c>
       <c r="AZ208" s="1" t="s">
-        <v>2873</v>
+        <v>2871</v>
       </c>
       <c r="BB208" s="1">
         <v>4</v>
@@ -50380,16 +50312,16 @@
         <v>21</v>
       </c>
       <c r="BD208" s="1" t="s">
-        <v>2874</v>
+        <v>2872</v>
       </c>
       <c r="BG208" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH208" s="1" t="s">
-        <v>2875</v>
+        <v>2873</v>
       </c>
       <c r="BI208" s="1" t="s">
-        <v>2876</v>
+        <v>2874</v>
       </c>
       <c r="BM208" s="1" t="s">
         <v>118</v>
@@ -50398,7 +50330,7 @@
         <v>106</v>
       </c>
       <c r="BT208" s="1" t="s">
-        <v>2877</v>
+        <v>2875</v>
       </c>
       <c r="BU208" s="1" t="s">
         <v>122</v>
@@ -50410,7 +50342,7 @@
         <v>111</v>
       </c>
       <c r="BZ208" s="1" t="s">
-        <v>2878</v>
+        <v>2876</v>
       </c>
       <c r="CA208" s="1" t="s">
         <v>124</v>
@@ -50422,16 +50354,16 @@
         <v>1246</v>
       </c>
       <c r="CD208" s="1" t="s">
+        <v>2877</v>
+      </c>
+      <c r="CE208" s="1" t="s">
+        <v>2878</v>
+      </c>
+      <c r="CG208" s="1" t="s">
         <v>2879</v>
       </c>
-      <c r="CE208" s="1" t="s">
+      <c r="CH208" s="1" t="s">
         <v>2880</v>
-      </c>
-      <c r="CG208" s="1" t="s">
-        <v>2881</v>
-      </c>
-      <c r="CH208" s="1" t="s">
-        <v>2882</v>
       </c>
       <c r="CI208" s="1" t="s">
         <v>130</v>
@@ -50469,10 +50401,10 @@
         <v>96</v>
       </c>
       <c r="K209" s="1" t="s">
-        <v>2883</v>
+        <v>2881</v>
       </c>
       <c r="L209" s="1" t="s">
-        <v>2884</v>
+        <v>2882</v>
       </c>
       <c r="O209" s="1" t="s">
         <v>111</v>
@@ -50499,7 +50431,7 @@
         <v>107</v>
       </c>
       <c r="AG209" s="1" t="s">
-        <v>2885</v>
+        <v>2883</v>
       </c>
       <c r="AH209" s="1" t="s">
         <v>394</v>
@@ -50553,10 +50485,10 @@
         <v>112</v>
       </c>
       <c r="CC209" s="1" t="s">
-        <v>2886</v>
+        <v>2884</v>
       </c>
       <c r="CE209" s="1" t="s">
-        <v>2884</v>
+        <v>2882</v>
       </c>
     </row>
     <row r="210" spans="1:87" x14ac:dyDescent="0.25">
@@ -50567,13 +50499,13 @@
         <v>88</v>
       </c>
       <c r="C210" s="1" t="s">
+        <v>2546</v>
+      </c>
+      <c r="D210" s="1" t="s">
         <v>2547</v>
       </c>
-      <c r="D210" s="1" t="s">
-        <v>2548</v>
-      </c>
       <c r="E210" s="1" t="s">
-        <v>2887</v>
+        <v>2885</v>
       </c>
       <c r="F210" s="1" t="s">
         <v>112</v>
@@ -50585,16 +50517,16 @@
         <v>94</v>
       </c>
       <c r="I210" s="1" t="s">
-        <v>2888</v>
+        <v>2886</v>
       </c>
       <c r="J210" s="1" t="s">
         <v>96</v>
       </c>
       <c r="K210" s="1" t="s">
-        <v>2889</v>
+        <v>2887</v>
       </c>
       <c r="L210" s="1" t="s">
-        <v>2890</v>
+        <v>2888</v>
       </c>
       <c r="O210" s="1" t="s">
         <v>111</v>
@@ -50621,7 +50553,7 @@
         <v>107</v>
       </c>
       <c r="AG210" s="1" t="s">
-        <v>2885</v>
+        <v>2883</v>
       </c>
       <c r="AH210" s="1" t="s">
         <v>394</v>
@@ -50666,7 +50598,7 @@
         <v>0</v>
       </c>
       <c r="BZ210" s="1" t="s">
-        <v>2891</v>
+        <v>2889</v>
       </c>
       <c r="CA210" s="1" t="s">
         <v>124</v>
@@ -50675,10 +50607,10 @@
         <v>112</v>
       </c>
       <c r="CC210" s="1" t="s">
-        <v>2886</v>
+        <v>2884</v>
       </c>
       <c r="CE210" s="1" t="s">
-        <v>2890</v>
+        <v>2888</v>
       </c>
     </row>
     <row r="211" spans="1:87" x14ac:dyDescent="0.25">
@@ -50713,10 +50645,10 @@
         <v>96</v>
       </c>
       <c r="K211" s="1" t="s">
-        <v>2892</v>
+        <v>2890</v>
       </c>
       <c r="L211" s="1" t="s">
-        <v>2893</v>
+        <v>2891</v>
       </c>
       <c r="O211" s="1" t="s">
         <v>111</v>
@@ -50743,7 +50675,7 @@
         <v>107</v>
       </c>
       <c r="AG211" s="1" t="s">
-        <v>2885</v>
+        <v>2883</v>
       </c>
       <c r="AH211" s="1" t="s">
         <v>394</v>
@@ -50797,10 +50729,10 @@
         <v>112</v>
       </c>
       <c r="CC211" s="1" t="s">
-        <v>2886</v>
+        <v>2884</v>
       </c>
       <c r="CE211" s="1" t="s">
-        <v>2893</v>
+        <v>2891</v>
       </c>
     </row>
     <row r="212" spans="1:87" x14ac:dyDescent="0.25">
@@ -50817,7 +50749,7 @@
         <v>131</v>
       </c>
       <c r="E212" s="1" t="s">
-        <v>2894</v>
+        <v>2892</v>
       </c>
       <c r="F212" s="1" t="s">
         <v>92</v>
@@ -50829,16 +50761,16 @@
         <v>94</v>
       </c>
       <c r="I212" s="1" t="s">
-        <v>2895</v>
+        <v>2893</v>
       </c>
       <c r="J212" s="1" t="s">
         <v>96</v>
       </c>
       <c r="K212" s="1" t="s">
-        <v>2896</v>
+        <v>2894</v>
       </c>
       <c r="L212" s="1" t="s">
-        <v>2897</v>
+        <v>2895</v>
       </c>
       <c r="O212" s="1" t="s">
         <v>111</v>
@@ -50910,7 +50842,7 @@
         <v>0</v>
       </c>
       <c r="BZ212" s="1" t="s">
-        <v>2898</v>
+        <v>2896</v>
       </c>
       <c r="CA212" s="1" t="s">
         <v>124</v>
@@ -50919,10 +50851,10 @@
         <v>112</v>
       </c>
       <c r="CC212" s="1" t="s">
-        <v>2886</v>
+        <v>2884</v>
       </c>
       <c r="CE212" s="1" t="s">
-        <v>2897</v>
+        <v>2895</v>
       </c>
     </row>
     <row r="213" spans="1:87" x14ac:dyDescent="0.25">
@@ -50957,10 +50889,10 @@
         <v>96</v>
       </c>
       <c r="K213" s="1" t="s">
-        <v>2899</v>
+        <v>2897</v>
       </c>
       <c r="L213" s="1" t="s">
-        <v>2900</v>
+        <v>2898</v>
       </c>
       <c r="O213" s="1" t="s">
         <v>111</v>
@@ -51041,10 +50973,10 @@
         <v>112</v>
       </c>
       <c r="CC213" s="1" t="s">
-        <v>2886</v>
+        <v>2884</v>
       </c>
       <c r="CE213" s="1" t="s">
-        <v>2900</v>
+        <v>2898</v>
       </c>
     </row>
     <row r="214" spans="1:87" x14ac:dyDescent="0.25">
@@ -51061,7 +50993,7 @@
         <v>131</v>
       </c>
       <c r="E214" s="1" t="s">
-        <v>2894</v>
+        <v>2892</v>
       </c>
       <c r="F214" s="1" t="s">
         <v>92</v>
@@ -51073,16 +51005,16 @@
         <v>94</v>
       </c>
       <c r="I214" s="1" t="s">
-        <v>2895</v>
+        <v>2893</v>
       </c>
       <c r="J214" s="1" t="s">
         <v>96</v>
       </c>
       <c r="K214" s="1" t="s">
-        <v>2901</v>
+        <v>2899</v>
       </c>
       <c r="L214" s="1" t="s">
-        <v>2902</v>
+        <v>2900</v>
       </c>
       <c r="O214" s="1" t="s">
         <v>111</v>
@@ -51154,7 +51086,7 @@
         <v>0</v>
       </c>
       <c r="BZ214" s="1" t="s">
-        <v>2898</v>
+        <v>2896</v>
       </c>
       <c r="CA214" s="1" t="s">
         <v>124</v>
@@ -51163,10 +51095,10 @@
         <v>112</v>
       </c>
       <c r="CC214" s="1" t="s">
-        <v>2886</v>
+        <v>2884</v>
       </c>
       <c r="CE214" s="1" t="s">
-        <v>2902</v>
+        <v>2900</v>
       </c>
     </row>
     <row r="215" spans="1:87" x14ac:dyDescent="0.25">
@@ -51201,10 +51133,10 @@
         <v>96</v>
       </c>
       <c r="K215" s="1" t="s">
-        <v>2903</v>
+        <v>2901</v>
       </c>
       <c r="L215" s="1" t="s">
-        <v>2904</v>
+        <v>2902</v>
       </c>
       <c r="O215" s="1" t="s">
         <v>111</v>
@@ -51285,10 +51217,10 @@
         <v>112</v>
       </c>
       <c r="CC215" s="1" t="s">
-        <v>2886</v>
+        <v>2884</v>
       </c>
       <c r="CE215" s="1" t="s">
-        <v>2904</v>
+        <v>2902</v>
       </c>
     </row>
     <row r="216" spans="1:87" x14ac:dyDescent="0.25">
@@ -51323,19 +51255,19 @@
         <v>96</v>
       </c>
       <c r="K216" s="1" t="s">
+        <v>2903</v>
+      </c>
+      <c r="L216" s="1" t="s">
+        <v>2904</v>
+      </c>
+      <c r="N216" s="1" t="s">
         <v>2905</v>
-      </c>
-      <c r="L216" s="1" t="s">
-        <v>2906</v>
-      </c>
-      <c r="N216" s="1" t="s">
-        <v>2907</v>
       </c>
       <c r="O216" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P216" s="1" t="s">
-        <v>2908</v>
+        <v>2906</v>
       </c>
       <c r="Q216" s="3">
         <v>26043</v>
@@ -51361,12 +51293,7 @@
       <c r="AA216" s="1">
         <v>0</v>
       </c>
-      <c r="AC216" s="3">
-        <v>43405</v>
-      </c>
-      <c r="AD216" s="1" t="s">
-        <v>2872</v>
-      </c>
+      <c r="AC216" s="3"/>
       <c r="AF216" s="1" t="s">
         <v>107</v>
       </c>
@@ -51419,13 +51346,13 @@
         <v>21</v>
       </c>
       <c r="BD216" s="1" t="s">
-        <v>2909</v>
+        <v>2907</v>
       </c>
       <c r="BG216" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH216" s="1" t="s">
-        <v>2910</v>
+        <v>2908</v>
       </c>
       <c r="BI216" s="1" t="s">
         <v>398</v>
@@ -51440,13 +51367,13 @@
         <v>102</v>
       </c>
       <c r="BR216" s="1" t="s">
-        <v>2911</v>
+        <v>2909</v>
       </c>
       <c r="BS216" s="3">
         <v>36306</v>
       </c>
       <c r="BT216" s="1" t="s">
-        <v>2912</v>
+        <v>2910</v>
       </c>
       <c r="BU216" s="1" t="s">
         <v>122</v>
@@ -51464,16 +51391,16 @@
         <v>112</v>
       </c>
       <c r="CC216" s="1" t="s">
+        <v>2911</v>
+      </c>
+      <c r="CD216" s="1" t="s">
+        <v>2912</v>
+      </c>
+      <c r="CE216" s="1" t="s">
         <v>2913</v>
       </c>
-      <c r="CD216" s="1" t="s">
+      <c r="CG216" s="1" t="s">
         <v>2914</v>
-      </c>
-      <c r="CE216" s="1" t="s">
-        <v>2915</v>
-      </c>
-      <c r="CG216" s="1" t="s">
-        <v>2916</v>
       </c>
       <c r="CH216" s="1" t="s">
         <v>406</v>
@@ -51514,19 +51441,19 @@
         <v>96</v>
       </c>
       <c r="K217" s="1" t="s">
+        <v>2915</v>
+      </c>
+      <c r="L217" s="1" t="s">
+        <v>2916</v>
+      </c>
+      <c r="N217" s="1" t="s">
         <v>2917</v>
-      </c>
-      <c r="L217" s="1" t="s">
-        <v>2918</v>
-      </c>
-      <c r="N217" s="1" t="s">
-        <v>2919</v>
       </c>
       <c r="O217" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P217" s="1" t="s">
-        <v>2920</v>
+        <v>2918</v>
       </c>
       <c r="Q217" s="3">
         <v>29945</v>
@@ -51552,12 +51479,7 @@
       <c r="AA217" s="1">
         <v>0</v>
       </c>
-      <c r="AC217" s="3">
-        <v>43405</v>
-      </c>
-      <c r="AD217" s="1" t="s">
-        <v>2872</v>
-      </c>
+      <c r="AC217" s="3"/>
       <c r="AF217" s="1" t="s">
         <v>107</v>
       </c>
@@ -51613,13 +51535,13 @@
         <v>21</v>
       </c>
       <c r="BD217" s="1" t="s">
-        <v>2921</v>
+        <v>2919</v>
       </c>
       <c r="BG217" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH217" s="1" t="s">
-        <v>2922</v>
+        <v>2920</v>
       </c>
       <c r="BM217" s="1" t="s">
         <v>118</v>
@@ -51628,7 +51550,7 @@
         <v>106</v>
       </c>
       <c r="BT217" s="1" t="s">
-        <v>2923</v>
+        <v>2921</v>
       </c>
       <c r="BU217" s="1" t="s">
         <v>122</v>
@@ -51646,16 +51568,16 @@
         <v>112</v>
       </c>
       <c r="CC217" s="1" t="s">
-        <v>2924</v>
+        <v>2922</v>
       </c>
       <c r="CD217" s="1" t="s">
         <v>126</v>
       </c>
       <c r="CE217" s="1" t="s">
-        <v>2925</v>
+        <v>2923</v>
       </c>
       <c r="CG217" s="1" t="s">
-        <v>2926</v>
+        <v>2924</v>
       </c>
       <c r="CH217" s="1" t="s">
         <v>130</v>
@@ -51696,19 +51618,19 @@
         <v>96</v>
       </c>
       <c r="K218" s="1" t="s">
+        <v>2925</v>
+      </c>
+      <c r="L218" s="1" t="s">
+        <v>2926</v>
+      </c>
+      <c r="N218" s="1" t="s">
         <v>2927</v>
-      </c>
-      <c r="L218" s="1" t="s">
-        <v>2928</v>
-      </c>
-      <c r="N218" s="1" t="s">
-        <v>2929</v>
       </c>
       <c r="O218" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P218" s="1" t="s">
-        <v>2930</v>
+        <v>2928</v>
       </c>
       <c r="Q218" s="3">
         <v>29034</v>
@@ -51737,12 +51659,7 @@
       <c r="AB218" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="AC218" s="3">
-        <v>43405</v>
-      </c>
-      <c r="AD218" s="1" t="s">
-        <v>2872</v>
-      </c>
+      <c r="AC218" s="3"/>
       <c r="AF218" s="1" t="s">
         <v>107</v>
       </c>
@@ -51795,13 +51712,13 @@
         <v>21</v>
       </c>
       <c r="BD218" s="1" t="s">
-        <v>2931</v>
+        <v>2929</v>
       </c>
       <c r="BG218" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH218" s="1" t="s">
-        <v>2932</v>
+        <v>2930</v>
       </c>
       <c r="BI218" s="1" t="s">
         <v>398</v>
@@ -51816,13 +51733,13 @@
         <v>102</v>
       </c>
       <c r="BR218" s="1" t="s">
-        <v>2933</v>
+        <v>2931</v>
       </c>
       <c r="BS218" s="3">
         <v>38234</v>
       </c>
       <c r="BT218" s="1" t="s">
-        <v>2934</v>
+        <v>2932</v>
       </c>
       <c r="BU218" s="1" t="s">
         <v>122</v>
@@ -51840,16 +51757,16 @@
         <v>112</v>
       </c>
       <c r="CC218" s="1" t="s">
-        <v>2935</v>
+        <v>2933</v>
       </c>
       <c r="CD218" s="1" t="s">
         <v>1075</v>
       </c>
       <c r="CE218" s="1" t="s">
-        <v>2936</v>
+        <v>2934</v>
       </c>
       <c r="CG218" s="1" t="s">
-        <v>2937</v>
+        <v>2935</v>
       </c>
       <c r="CH218" s="1" t="s">
         <v>406</v>
@@ -51890,19 +51807,19 @@
         <v>96</v>
       </c>
       <c r="K219" s="1" t="s">
+        <v>2936</v>
+      </c>
+      <c r="L219" s="1" t="s">
+        <v>2937</v>
+      </c>
+      <c r="N219" s="1" t="s">
         <v>2938</v>
-      </c>
-      <c r="L219" s="1" t="s">
-        <v>2939</v>
-      </c>
-      <c r="N219" s="1" t="s">
-        <v>2940</v>
       </c>
       <c r="O219" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P219" s="1" t="s">
-        <v>2941</v>
+        <v>2939</v>
       </c>
       <c r="Q219" s="3">
         <v>29062</v>
@@ -51928,12 +51845,7 @@
       <c r="AA219" s="1">
         <v>0</v>
       </c>
-      <c r="AC219" s="3">
-        <v>43405</v>
-      </c>
-      <c r="AD219" s="1" t="s">
-        <v>2872</v>
-      </c>
+      <c r="AC219" s="3"/>
       <c r="AF219" s="1" t="s">
         <v>107</v>
       </c>
@@ -51989,13 +51901,13 @@
         <v>21</v>
       </c>
       <c r="BD219" s="1" t="s">
-        <v>2942</v>
+        <v>2940</v>
       </c>
       <c r="BG219" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH219" s="1" t="s">
-        <v>2943</v>
+        <v>2941</v>
       </c>
       <c r="BI219" s="1" t="s">
         <v>619</v>
@@ -52007,7 +51919,7 @@
         <v>106</v>
       </c>
       <c r="BT219" s="1" t="s">
-        <v>2944</v>
+        <v>2942</v>
       </c>
       <c r="BU219" s="1" t="s">
         <v>122</v>
@@ -52025,16 +51937,16 @@
         <v>112</v>
       </c>
       <c r="CC219" s="1" t="s">
+        <v>2943</v>
+      </c>
+      <c r="CD219" s="1" t="s">
+        <v>2944</v>
+      </c>
+      <c r="CE219" s="1" t="s">
         <v>2945</v>
       </c>
-      <c r="CD219" s="1" t="s">
+      <c r="CG219" s="1" t="s">
         <v>2946</v>
-      </c>
-      <c r="CE219" s="1" t="s">
-        <v>2947</v>
-      </c>
-      <c r="CG219" s="1" t="s">
-        <v>2948</v>
       </c>
       <c r="CH219" s="1" t="s">
         <v>626</v>
@@ -52075,19 +51987,19 @@
         <v>96</v>
       </c>
       <c r="K220" s="1" t="s">
+        <v>2947</v>
+      </c>
+      <c r="L220" s="1" t="s">
+        <v>2948</v>
+      </c>
+      <c r="N220" s="1" t="s">
         <v>2949</v>
-      </c>
-      <c r="L220" s="1" t="s">
-        <v>2950</v>
-      </c>
-      <c r="N220" s="1" t="s">
-        <v>2951</v>
       </c>
       <c r="O220" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P220" s="1" t="s">
-        <v>2952</v>
+        <v>2950</v>
       </c>
       <c r="Q220" s="3">
         <v>29181</v>
@@ -52113,12 +52025,7 @@
       <c r="AA220" s="1">
         <v>0</v>
       </c>
-      <c r="AC220" s="3">
-        <v>43405</v>
-      </c>
-      <c r="AD220" s="1" t="s">
-        <v>2872</v>
-      </c>
+      <c r="AC220" s="3"/>
       <c r="AF220" s="1" t="s">
         <v>107</v>
       </c>
@@ -52171,13 +52078,13 @@
         <v>21</v>
       </c>
       <c r="BD220" s="1" t="s">
-        <v>2953</v>
+        <v>2951</v>
       </c>
       <c r="BG220" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH220" s="1" t="s">
-        <v>2954</v>
+        <v>2952</v>
       </c>
       <c r="BI220" s="1" t="s">
         <v>1001</v>
@@ -52192,13 +52099,13 @@
         <v>238</v>
       </c>
       <c r="BR220" s="1" t="s">
-        <v>2955</v>
+        <v>2953</v>
       </c>
       <c r="BS220" s="3">
         <v>37069</v>
       </c>
       <c r="BT220" s="1" t="s">
-        <v>2956</v>
+        <v>2954</v>
       </c>
       <c r="BU220" s="1" t="s">
         <v>122</v>
@@ -52219,13 +52126,13 @@
         <v>802</v>
       </c>
       <c r="CD220" s="1" t="s">
+        <v>2955</v>
+      </c>
+      <c r="CE220" s="1" t="s">
+        <v>2956</v>
+      </c>
+      <c r="CG220" s="1" t="s">
         <v>2957</v>
-      </c>
-      <c r="CE220" s="1" t="s">
-        <v>2958</v>
-      </c>
-      <c r="CG220" s="1" t="s">
-        <v>2959</v>
       </c>
       <c r="CH220" s="1" t="s">
         <v>1006</v>
@@ -52266,19 +52173,19 @@
         <v>96</v>
       </c>
       <c r="K221" s="1" t="s">
+        <v>2958</v>
+      </c>
+      <c r="L221" s="1" t="s">
+        <v>2959</v>
+      </c>
+      <c r="N221" s="1" t="s">
         <v>2960</v>
-      </c>
-      <c r="L221" s="1" t="s">
-        <v>2961</v>
-      </c>
-      <c r="N221" s="1" t="s">
-        <v>2962</v>
       </c>
       <c r="O221" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P221" s="1" t="s">
-        <v>2963</v>
+        <v>2961</v>
       </c>
       <c r="Q221" s="3">
         <v>30033</v>
@@ -52304,12 +52211,7 @@
       <c r="AA221" s="1">
         <v>0</v>
       </c>
-      <c r="AC221" s="3">
-        <v>43405</v>
-      </c>
-      <c r="AD221" s="1" t="s">
-        <v>2872</v>
-      </c>
+      <c r="AC221" s="3"/>
       <c r="AF221" s="1" t="s">
         <v>107</v>
       </c>
@@ -52365,7 +52267,7 @@
         <v>21</v>
       </c>
       <c r="BD221" s="1" t="s">
-        <v>2964</v>
+        <v>2962</v>
       </c>
       <c r="BG221" s="1" t="s">
         <v>115</v>
@@ -52383,7 +52285,7 @@
         <v>106</v>
       </c>
       <c r="BT221" s="1" t="s">
-        <v>2965</v>
+        <v>2963</v>
       </c>
       <c r="BU221" s="1" t="s">
         <v>122</v>
@@ -52401,13 +52303,13 @@
         <v>112</v>
       </c>
       <c r="CC221" s="1" t="s">
+        <v>2964</v>
+      </c>
+      <c r="CD221" s="1" t="s">
+        <v>2965</v>
+      </c>
+      <c r="CE221" s="1" t="s">
         <v>2966</v>
-      </c>
-      <c r="CD221" s="1" t="s">
-        <v>2967</v>
-      </c>
-      <c r="CE221" s="1" t="s">
-        <v>2968</v>
       </c>
       <c r="CG221" s="1" t="s">
         <v>2378</v>
@@ -52451,19 +52353,19 @@
         <v>96</v>
       </c>
       <c r="K222" s="1" t="s">
+        <v>2967</v>
+      </c>
+      <c r="L222" s="1" t="s">
+        <v>2968</v>
+      </c>
+      <c r="N222" s="1" t="s">
         <v>2969</v>
-      </c>
-      <c r="L222" s="1" t="s">
-        <v>2970</v>
-      </c>
-      <c r="N222" s="1" t="s">
-        <v>2971</v>
       </c>
       <c r="O222" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P222" s="1" t="s">
-        <v>2972</v>
+        <v>2970</v>
       </c>
       <c r="Q222" s="3">
         <v>26843</v>
@@ -52489,12 +52391,7 @@
       <c r="AA222" s="1">
         <v>0</v>
       </c>
-      <c r="AC222" s="3">
-        <v>43404</v>
-      </c>
-      <c r="AD222" s="1" t="s">
-        <v>2973</v>
-      </c>
+      <c r="AC222" s="3"/>
       <c r="AF222" s="1" t="s">
         <v>107</v>
       </c>
@@ -52541,7 +52438,7 @@
         <v>112</v>
       </c>
       <c r="AZ222" s="1" t="s">
-        <v>2974</v>
+        <v>2971</v>
       </c>
       <c r="BB222" s="1">
         <v>4</v>
@@ -52550,16 +52447,16 @@
         <v>21</v>
       </c>
       <c r="BD222" s="1" t="s">
-        <v>2975</v>
+        <v>2972</v>
       </c>
       <c r="BG222" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH222" s="1" t="s">
-        <v>2976</v>
+        <v>2973</v>
       </c>
       <c r="BI222" s="1" t="s">
-        <v>2977</v>
+        <v>2974</v>
       </c>
       <c r="BM222" s="1" t="s">
         <v>118</v>
@@ -52571,13 +52468,13 @@
         <v>238</v>
       </c>
       <c r="BR222" s="1" t="s">
-        <v>2978</v>
+        <v>2975</v>
       </c>
       <c r="BS222" s="3">
         <v>35125</v>
       </c>
       <c r="BT222" s="1" t="s">
-        <v>2979</v>
+        <v>2976</v>
       </c>
       <c r="BU222" s="1" t="s">
         <v>122</v>
@@ -52595,19 +52492,19 @@
         <v>112</v>
       </c>
       <c r="CC222" s="1" t="s">
-        <v>2980</v>
+        <v>2977</v>
       </c>
       <c r="CD222" s="1" t="s">
         <v>125</v>
       </c>
       <c r="CE222" s="1" t="s">
-        <v>2981</v>
+        <v>2978</v>
       </c>
       <c r="CG222" s="1" t="s">
-        <v>2982</v>
+        <v>2979</v>
       </c>
       <c r="CH222" s="1" t="s">
-        <v>2983</v>
+        <v>2980</v>
       </c>
       <c r="CI222" s="1" t="s">
         <v>130</v>
@@ -52645,19 +52542,19 @@
         <v>96</v>
       </c>
       <c r="K223" s="1" t="s">
-        <v>2984</v>
+        <v>2981</v>
       </c>
       <c r="L223" s="1" t="s">
-        <v>2985</v>
+        <v>2982</v>
       </c>
       <c r="N223" s="1" t="s">
-        <v>2986</v>
+        <v>2983</v>
       </c>
       <c r="O223" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P223" s="1" t="s">
-        <v>2987</v>
+        <v>2984</v>
       </c>
       <c r="Q223" s="3">
         <v>25903</v>
@@ -52741,19 +52638,19 @@
         <v>21</v>
       </c>
       <c r="BD223" s="1" t="s">
-        <v>2988</v>
+        <v>2985</v>
       </c>
       <c r="BG223" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH223" s="1" t="s">
-        <v>2989</v>
+        <v>2986</v>
       </c>
       <c r="BM223" s="1" t="s">
         <v>118</v>
       </c>
       <c r="BT223" s="1" t="s">
-        <v>2990</v>
+        <v>2987</v>
       </c>
       <c r="BU223" s="1" t="s">
         <v>122</v>
@@ -52771,16 +52668,16 @@
         <v>112</v>
       </c>
       <c r="CC223" s="1" t="s">
+        <v>2988</v>
+      </c>
+      <c r="CD223" s="1" t="s">
+        <v>2989</v>
+      </c>
+      <c r="CE223" s="1" t="s">
+        <v>2990</v>
+      </c>
+      <c r="CG223" s="1" t="s">
         <v>2991</v>
-      </c>
-      <c r="CD223" s="1" t="s">
-        <v>2992</v>
-      </c>
-      <c r="CE223" s="1" t="s">
-        <v>2993</v>
-      </c>
-      <c r="CG223" s="1" t="s">
-        <v>2994</v>
       </c>
       <c r="CH223" s="1" t="s">
         <v>130</v>
@@ -52821,19 +52718,19 @@
         <v>96</v>
       </c>
       <c r="K224" s="1" t="s">
-        <v>2995</v>
+        <v>2992</v>
       </c>
       <c r="L224" s="1" t="s">
-        <v>2996</v>
+        <v>2993</v>
       </c>
       <c r="N224" s="1" t="s">
-        <v>2997</v>
+        <v>2994</v>
       </c>
       <c r="O224" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P224" s="1" t="s">
-        <v>2998</v>
+        <v>2995</v>
       </c>
       <c r="Q224" s="3">
         <v>28577</v>
@@ -52914,13 +52811,13 @@
         <v>21</v>
       </c>
       <c r="BD224" s="1" t="s">
-        <v>2999</v>
+        <v>2996</v>
       </c>
       <c r="BG224" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH224" s="1" t="s">
-        <v>3000</v>
+        <v>2997</v>
       </c>
       <c r="BM224" s="1" t="s">
         <v>118</v>
@@ -52929,7 +52826,7 @@
         <v>106</v>
       </c>
       <c r="BT224" s="1" t="s">
-        <v>3001</v>
+        <v>2998</v>
       </c>
       <c r="BU224" s="1" t="s">
         <v>122</v>
@@ -52950,13 +52847,13 @@
         <v>349</v>
       </c>
       <c r="CD224" s="1" t="s">
-        <v>3002</v>
+        <v>2999</v>
       </c>
       <c r="CE224" s="1" t="s">
-        <v>3003</v>
+        <v>3000</v>
       </c>
       <c r="CG224" s="1" t="s">
-        <v>3004</v>
+        <v>3001</v>
       </c>
       <c r="CH224" s="1" t="s">
         <v>130</v>
@@ -52997,19 +52894,19 @@
         <v>96</v>
       </c>
       <c r="K225" s="1" t="s">
-        <v>3005</v>
+        <v>3002</v>
       </c>
       <c r="L225" s="1" t="s">
-        <v>3006</v>
+        <v>3003</v>
       </c>
       <c r="N225" s="1" t="s">
-        <v>3007</v>
+        <v>3004</v>
       </c>
       <c r="O225" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P225" s="1" t="s">
-        <v>3008</v>
+        <v>3005</v>
       </c>
       <c r="Q225" s="3">
         <v>23039</v>
@@ -53090,13 +52987,13 @@
         <v>21</v>
       </c>
       <c r="BD225" s="1" t="s">
-        <v>3009</v>
+        <v>3006</v>
       </c>
       <c r="BG225" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH225" s="1" t="s">
-        <v>3010</v>
+        <v>3007</v>
       </c>
       <c r="BI225" s="1" t="s">
         <v>203</v>
@@ -53111,13 +53008,13 @@
         <v>238</v>
       </c>
       <c r="BR225" s="1" t="s">
-        <v>3011</v>
+        <v>3008</v>
       </c>
       <c r="BS225" s="3">
         <v>34307</v>
       </c>
       <c r="BT225" s="1" t="s">
-        <v>3012</v>
+        <v>3009</v>
       </c>
       <c r="BU225" s="1" t="s">
         <v>122</v>
@@ -53135,16 +53032,16 @@
         <v>112</v>
       </c>
       <c r="CC225" s="1" t="s">
-        <v>3013</v>
+        <v>3010</v>
       </c>
       <c r="CD225" s="1" t="s">
         <v>443</v>
       </c>
       <c r="CE225" s="1" t="s">
-        <v>3014</v>
+        <v>3011</v>
       </c>
       <c r="CG225" s="1" t="s">
-        <v>3015</v>
+        <v>3012</v>
       </c>
       <c r="CH225" s="1" t="s">
         <v>210</v>
@@ -53188,10 +53085,10 @@
         <v>264</v>
       </c>
       <c r="L226" s="1" t="s">
-        <v>3016</v>
+        <v>3013</v>
       </c>
       <c r="M226" s="1" t="s">
-        <v>3017</v>
+        <v>3014</v>
       </c>
       <c r="N226" s="1" t="s">
         <v>266</v>
@@ -53224,7 +53121,7 @@
         <v>42582</v>
       </c>
       <c r="AD226" s="1" t="s">
-        <v>3018</v>
+        <v>3015</v>
       </c>
       <c r="AF226" s="1" t="s">
         <v>107</v>
@@ -53281,13 +53178,13 @@
         <v>0</v>
       </c>
       <c r="BD226" s="1" t="s">
-        <v>3019</v>
+        <v>3016</v>
       </c>
       <c r="BH226" s="1" t="s">
-        <v>3020</v>
+        <v>3017</v>
       </c>
       <c r="BI226" s="1" t="s">
-        <v>3021</v>
+        <v>3018</v>
       </c>
       <c r="BM226" s="1" t="s">
         <v>118</v>
@@ -53332,7 +53229,7 @@
         <v>278</v>
       </c>
       <c r="CG226" s="1" t="s">
-        <v>3022</v>
+        <v>3019</v>
       </c>
       <c r="CH226" s="1" t="s">
         <v>836</v>
@@ -53355,7 +53252,7 @@
         <v>90</v>
       </c>
       <c r="E227" s="1" t="s">
-        <v>3023</v>
+        <v>3020</v>
       </c>
       <c r="F227" s="1" t="s">
         <v>92</v>
@@ -53367,22 +53264,22 @@
         <v>94</v>
       </c>
       <c r="I227" s="1" t="s">
-        <v>3024</v>
+        <v>3021</v>
       </c>
       <c r="J227" s="1" t="s">
         <v>96</v>
       </c>
       <c r="K227" s="1" t="s">
-        <v>3025</v>
+        <v>3022</v>
       </c>
       <c r="L227" s="1" t="s">
-        <v>3026</v>
+        <v>3023</v>
       </c>
       <c r="M227" s="1" t="s">
-        <v>3017</v>
+        <v>3014</v>
       </c>
       <c r="N227" s="1" t="s">
-        <v>3027</v>
+        <v>3024</v>
       </c>
       <c r="Q227" s="3">
         <v>17060</v>
@@ -53418,13 +53315,13 @@
         <v>42628</v>
       </c>
       <c r="AD227" s="1" t="s">
-        <v>3028</v>
+        <v>3025</v>
       </c>
       <c r="AF227" s="1" t="s">
         <v>107</v>
       </c>
       <c r="AG227" s="1" t="s">
-        <v>3029</v>
+        <v>3026</v>
       </c>
       <c r="AH227" s="1" t="s">
         <v>140</v>
@@ -53469,22 +53366,22 @@
         <v>112</v>
       </c>
       <c r="AZ227" s="1" t="s">
+        <v>3027</v>
+      </c>
+      <c r="BB227" s="1">
+        <v>0</v>
+      </c>
+      <c r="BC227" s="1">
+        <v>0</v>
+      </c>
+      <c r="BD227" s="1" t="s">
+        <v>3028</v>
+      </c>
+      <c r="BH227" s="1" t="s">
+        <v>3029</v>
+      </c>
+      <c r="BI227" s="1" t="s">
         <v>3030</v>
-      </c>
-      <c r="BB227" s="1">
-        <v>0</v>
-      </c>
-      <c r="BC227" s="1">
-        <v>0</v>
-      </c>
-      <c r="BD227" s="1" t="s">
-        <v>3031</v>
-      </c>
-      <c r="BH227" s="1" t="s">
-        <v>3032</v>
-      </c>
-      <c r="BI227" s="1" t="s">
-        <v>3033</v>
       </c>
       <c r="BM227" s="1" t="s">
         <v>118</v>
@@ -53493,7 +53390,7 @@
         <v>106</v>
       </c>
       <c r="BT227" s="1" t="s">
-        <v>3034</v>
+        <v>3031</v>
       </c>
       <c r="BU227" s="1" t="s">
         <v>122</v>
@@ -53502,7 +53399,7 @@
         <v>0</v>
       </c>
       <c r="BZ227" s="1" t="s">
-        <v>3035</v>
+        <v>3032</v>
       </c>
       <c r="CA227" s="1" t="s">
         <v>124</v>
@@ -53517,13 +53414,13 @@
         <v>126</v>
       </c>
       <c r="CE227" s="1" t="s">
-        <v>3036</v>
+        <v>3033</v>
       </c>
       <c r="CG227" s="1" t="s">
-        <v>3022</v>
+        <v>3019</v>
       </c>
       <c r="CH227" s="1" t="s">
-        <v>3037</v>
+        <v>3034</v>
       </c>
       <c r="CI227" s="1" t="s">
         <v>130</v>
@@ -53537,13 +53434,13 @@
         <v>88</v>
       </c>
       <c r="C228" s="1" t="s">
-        <v>3038</v>
+        <v>3035</v>
       </c>
       <c r="D228" s="1" t="s">
-        <v>3024</v>
+        <v>3021</v>
       </c>
       <c r="E228" s="1" t="s">
-        <v>3039</v>
+        <v>3036</v>
       </c>
       <c r="F228" s="1" t="s">
         <v>112</v>
@@ -53555,22 +53452,22 @@
         <v>94</v>
       </c>
       <c r="I228" s="1" t="s">
-        <v>3040</v>
+        <v>3037</v>
       </c>
       <c r="J228" s="1" t="s">
         <v>96</v>
       </c>
       <c r="K228" s="1" t="s">
-        <v>3041</v>
+        <v>3038</v>
       </c>
       <c r="L228" s="1" t="s">
-        <v>3042</v>
+        <v>3039</v>
       </c>
       <c r="M228" s="1" t="s">
-        <v>3017</v>
+        <v>3014</v>
       </c>
       <c r="N228" s="1" t="s">
-        <v>3043</v>
+        <v>3040</v>
       </c>
       <c r="Q228" s="3">
         <v>26864</v>
@@ -53603,7 +53500,7 @@
         <v>42735</v>
       </c>
       <c r="AD228" s="1" t="s">
-        <v>3044</v>
+        <v>3041</v>
       </c>
       <c r="AF228" s="1" t="s">
         <v>107</v>
@@ -53657,10 +53554,10 @@
         <v>0</v>
       </c>
       <c r="BD228" s="1" t="s">
-        <v>3045</v>
+        <v>3042</v>
       </c>
       <c r="BH228" s="1" t="s">
-        <v>3046</v>
+        <v>3043</v>
       </c>
       <c r="BM228" s="1" t="s">
         <v>118</v>
@@ -53672,13 +53569,13 @@
         <v>238</v>
       </c>
       <c r="BR228" s="1" t="s">
-        <v>3047</v>
+        <v>3044</v>
       </c>
       <c r="BS228" s="3">
         <v>102</v>
       </c>
       <c r="BT228" s="1" t="s">
-        <v>3048</v>
+        <v>3045</v>
       </c>
       <c r="BU228" s="1" t="s">
         <v>122</v>
@@ -53690,7 +53587,7 @@
         <v>111</v>
       </c>
       <c r="BZ228" s="1" t="s">
-        <v>2548</v>
+        <v>2547</v>
       </c>
       <c r="CA228" s="1" t="s">
         <v>124</v>
@@ -53699,16 +53596,16 @@
         <v>112</v>
       </c>
       <c r="CC228" s="1" t="s">
+        <v>3046</v>
+      </c>
+      <c r="CD228" s="1" t="s">
+        <v>3047</v>
+      </c>
+      <c r="CE228" s="1" t="s">
+        <v>3048</v>
+      </c>
+      <c r="CG228" s="1" t="s">
         <v>3049</v>
-      </c>
-      <c r="CD228" s="1" t="s">
-        <v>3050</v>
-      </c>
-      <c r="CE228" s="1" t="s">
-        <v>3051</v>
-      </c>
-      <c r="CG228" s="1" t="s">
-        <v>3052</v>
       </c>
       <c r="CH228" s="1" t="s">
         <v>130</v>
@@ -53749,16 +53646,16 @@
         <v>96</v>
       </c>
       <c r="K229" s="1" t="s">
-        <v>3053</v>
+        <v>3050</v>
       </c>
       <c r="L229" s="1" t="s">
-        <v>3054</v>
+        <v>3051</v>
       </c>
       <c r="M229" s="1" t="s">
-        <v>3017</v>
+        <v>3014</v>
       </c>
       <c r="N229" s="1" t="s">
-        <v>3055</v>
+        <v>3052</v>
       </c>
       <c r="Q229" s="3">
         <v>25379</v>
@@ -53791,7 +53688,7 @@
         <v>39800</v>
       </c>
       <c r="AD229" s="1" t="s">
-        <v>3056</v>
+        <v>3053</v>
       </c>
       <c r="AF229" s="1" t="s">
         <v>251</v>
@@ -53845,10 +53742,10 @@
         <v>0</v>
       </c>
       <c r="BD229" s="1" t="s">
-        <v>3057</v>
+        <v>3054</v>
       </c>
       <c r="BH229" s="1" t="s">
-        <v>3058</v>
+        <v>3055</v>
       </c>
       <c r="BM229" s="1" t="s">
         <v>118</v>
@@ -53860,13 +53757,13 @@
         <v>1750</v>
       </c>
       <c r="BR229" s="1" t="s">
-        <v>3059</v>
+        <v>3056</v>
       </c>
       <c r="BS229" s="3">
         <v>35915</v>
       </c>
       <c r="BT229" s="1" t="s">
-        <v>3060</v>
+        <v>3057</v>
       </c>
       <c r="BU229" s="1" t="s">
         <v>122</v>
@@ -53896,10 +53793,10 @@
         <v>681</v>
       </c>
       <c r="CE229" s="1" t="s">
-        <v>3061</v>
+        <v>3058</v>
       </c>
       <c r="CG229" s="1" t="s">
-        <v>3022</v>
+        <v>3019</v>
       </c>
       <c r="CH229" s="1" t="s">
         <v>130</v>
@@ -53922,7 +53819,7 @@
         <v>131</v>
       </c>
       <c r="E230" s="1" t="s">
-        <v>3062</v>
+        <v>3059</v>
       </c>
       <c r="F230" s="1" t="s">
         <v>112</v>
@@ -53934,22 +53831,22 @@
         <v>94</v>
       </c>
       <c r="I230" s="1" t="s">
-        <v>3063</v>
+        <v>3060</v>
       </c>
       <c r="J230" s="1" t="s">
         <v>96</v>
       </c>
       <c r="K230" s="1" t="s">
-        <v>3064</v>
+        <v>3061</v>
       </c>
       <c r="L230" s="1" t="s">
-        <v>3065</v>
+        <v>3062</v>
       </c>
       <c r="M230" s="1" t="s">
-        <v>3017</v>
+        <v>3014</v>
       </c>
       <c r="N230" s="1" t="s">
-        <v>3066</v>
+        <v>3063</v>
       </c>
       <c r="Q230" s="3">
         <v>17470</v>
@@ -53979,7 +53876,7 @@
         <v>43100</v>
       </c>
       <c r="AD230" s="1" t="s">
-        <v>3028</v>
+        <v>3025</v>
       </c>
       <c r="AF230" s="1" t="s">
         <v>107</v>
@@ -54036,10 +53933,10 @@
         <v>0</v>
       </c>
       <c r="BD230" s="1" t="s">
-        <v>3067</v>
+        <v>3064</v>
       </c>
       <c r="BH230" s="1" t="s">
-        <v>3068</v>
+        <v>3065</v>
       </c>
       <c r="BM230" s="1" t="s">
         <v>118</v>
@@ -54048,7 +53945,7 @@
         <v>106</v>
       </c>
       <c r="BT230" s="1" t="s">
-        <v>3069</v>
+        <v>3066</v>
       </c>
       <c r="BU230" s="1" t="s">
         <v>122</v>
@@ -54072,16 +53969,16 @@
         <v>112</v>
       </c>
       <c r="CC230" s="1" t="s">
-        <v>3070</v>
+        <v>3067</v>
       </c>
       <c r="CD230" s="1" t="s">
-        <v>3071</v>
+        <v>3068</v>
       </c>
       <c r="CE230" s="1" t="s">
-        <v>3072</v>
+        <v>3069</v>
       </c>
       <c r="CG230" s="1" t="s">
-        <v>3022</v>
+        <v>3019</v>
       </c>
       <c r="CH230" s="1" t="s">
         <v>130</v>
@@ -54104,7 +54001,7 @@
         <v>131</v>
       </c>
       <c r="E231" s="1" t="s">
-        <v>2894</v>
+        <v>2892</v>
       </c>
       <c r="F231" s="1" t="s">
         <v>112</v>
@@ -54116,22 +54013,22 @@
         <v>94</v>
       </c>
       <c r="I231" s="1" t="s">
-        <v>2895</v>
+        <v>2893</v>
       </c>
       <c r="J231" s="1" t="s">
         <v>96</v>
       </c>
       <c r="K231" s="1" t="s">
-        <v>3073</v>
+        <v>3070</v>
       </c>
       <c r="L231" s="1" t="s">
-        <v>3074</v>
+        <v>3071</v>
       </c>
       <c r="M231" s="1" t="s">
-        <v>3017</v>
+        <v>3014</v>
       </c>
       <c r="N231" s="1" t="s">
-        <v>3075</v>
+        <v>3072</v>
       </c>
       <c r="Q231" s="3">
         <v>23356</v>
@@ -54161,7 +54058,7 @@
         <v>43105</v>
       </c>
       <c r="AD231" s="1" t="s">
-        <v>3076</v>
+        <v>3073</v>
       </c>
       <c r="AF231" s="1" t="s">
         <v>107</v>
@@ -54215,10 +54112,10 @@
         <v>0</v>
       </c>
       <c r="BD231" s="1" t="s">
-        <v>3077</v>
+        <v>3074</v>
       </c>
       <c r="BH231" s="1" t="s">
-        <v>3078</v>
+        <v>3075</v>
       </c>
       <c r="BM231" s="1" t="s">
         <v>118</v>
@@ -54230,13 +54127,13 @@
         <v>102</v>
       </c>
       <c r="BR231" s="1" t="s">
-        <v>3079</v>
+        <v>3076</v>
       </c>
       <c r="BS231" s="3">
         <v>34412</v>
       </c>
       <c r="BT231" s="1" t="s">
-        <v>3080</v>
+        <v>3077</v>
       </c>
       <c r="BU231" s="1" t="s">
         <v>122</v>
@@ -54245,7 +54142,7 @@
         <v>0</v>
       </c>
       <c r="BZ231" s="1" t="s">
-        <v>2898</v>
+        <v>2896</v>
       </c>
       <c r="CA231" s="1" t="s">
         <v>124</v>
@@ -54254,16 +54151,16 @@
         <v>112</v>
       </c>
       <c r="CC231" s="1" t="s">
-        <v>3081</v>
+        <v>3078</v>
       </c>
       <c r="CD231" s="1" t="s">
         <v>2434</v>
       </c>
       <c r="CE231" s="1" t="s">
-        <v>3082</v>
+        <v>3079</v>
       </c>
       <c r="CG231" s="1" t="s">
-        <v>3083</v>
+        <v>3080</v>
       </c>
       <c r="CH231" s="1" t="s">
         <v>130</v>
@@ -54280,13 +54177,13 @@
         <v>88</v>
       </c>
       <c r="C232" s="1" t="s">
+        <v>2546</v>
+      </c>
+      <c r="D232" s="1" t="s">
         <v>2547</v>
       </c>
-      <c r="D232" s="1" t="s">
-        <v>2548</v>
-      </c>
       <c r="E232" s="1" t="s">
-        <v>2887</v>
+        <v>2885</v>
       </c>
       <c r="F232" s="1" t="s">
         <v>92</v>
@@ -54298,22 +54195,22 @@
         <v>94</v>
       </c>
       <c r="I232" s="1" t="s">
-        <v>2888</v>
+        <v>2886</v>
       </c>
       <c r="J232" s="1" t="s">
         <v>96</v>
       </c>
       <c r="K232" s="1" t="s">
-        <v>3084</v>
+        <v>3081</v>
       </c>
       <c r="L232" s="1" t="s">
-        <v>3085</v>
+        <v>3082</v>
       </c>
       <c r="M232" s="1" t="s">
-        <v>3017</v>
+        <v>3014</v>
       </c>
       <c r="N232" s="1" t="s">
-        <v>3086</v>
+        <v>3083</v>
       </c>
       <c r="Q232" s="3">
         <v>17726</v>
@@ -54349,7 +54246,7 @@
         <v>43312</v>
       </c>
       <c r="AD232" s="1" t="s">
-        <v>3028</v>
+        <v>3025</v>
       </c>
       <c r="AF232" s="1" t="s">
         <v>251</v>
@@ -54400,7 +54297,7 @@
         <v>112</v>
       </c>
       <c r="AZ232" s="1" t="s">
-        <v>3087</v>
+        <v>3084</v>
       </c>
       <c r="BB232" s="1">
         <v>0</v>
@@ -54409,10 +54306,10 @@
         <v>0</v>
       </c>
       <c r="BD232" s="1" t="s">
-        <v>3088</v>
+        <v>3085</v>
       </c>
       <c r="BH232" s="1" t="s">
-        <v>3089</v>
+        <v>3086</v>
       </c>
       <c r="BM232" s="1" t="s">
         <v>118</v>
@@ -54421,7 +54318,7 @@
         <v>106</v>
       </c>
       <c r="BT232" s="1" t="s">
-        <v>3090</v>
+        <v>3087</v>
       </c>
       <c r="BU232" s="1" t="s">
         <v>122</v>
@@ -54430,7 +54327,7 @@
         <v>0</v>
       </c>
       <c r="BZ232" s="1" t="s">
-        <v>2891</v>
+        <v>2889</v>
       </c>
       <c r="CA232" s="1" t="s">
         <v>124</v>
@@ -54439,16 +54336,16 @@
         <v>112</v>
       </c>
       <c r="CC232" s="1" t="s">
-        <v>3091</v>
+        <v>3088</v>
       </c>
       <c r="CD232" s="1" t="s">
-        <v>3092</v>
+        <v>3089</v>
       </c>
       <c r="CE232" s="1" t="s">
         <v>949</v>
       </c>
       <c r="CG232" s="1" t="s">
-        <v>3022</v>
+        <v>3019</v>
       </c>
       <c r="CH232" s="1" t="s">
         <v>130</v>
@@ -54471,7 +54368,7 @@
         <v>131</v>
       </c>
       <c r="E233" s="1" t="s">
-        <v>3093</v>
+        <v>3090</v>
       </c>
       <c r="F233" s="1" t="s">
         <v>92</v>
@@ -54483,22 +54380,22 @@
         <v>94</v>
       </c>
       <c r="I233" s="1" t="s">
-        <v>3094</v>
+        <v>3091</v>
       </c>
       <c r="J233" s="1" t="s">
         <v>96</v>
       </c>
       <c r="K233" s="1" t="s">
-        <v>3095</v>
+        <v>3092</v>
       </c>
       <c r="L233" s="1" t="s">
-        <v>3096</v>
+        <v>3093</v>
       </c>
       <c r="M233" s="1" t="s">
-        <v>3017</v>
+        <v>3014</v>
       </c>
       <c r="N233" s="1" t="s">
-        <v>3097</v>
+        <v>3094</v>
       </c>
       <c r="Q233" s="3">
         <v>17041</v>
@@ -54528,7 +54425,7 @@
         <v>42735</v>
       </c>
       <c r="AD233" s="1" t="s">
-        <v>3028</v>
+        <v>3025</v>
       </c>
       <c r="AF233" s="1" t="s">
         <v>107</v>
@@ -54585,7 +54482,7 @@
         <v>0</v>
       </c>
       <c r="BD233" s="1" t="s">
-        <v>3098</v>
+        <v>3095</v>
       </c>
       <c r="BM233" s="1" t="s">
         <v>118</v>
@@ -54594,7 +54491,7 @@
         <v>106</v>
       </c>
       <c r="BT233" s="1" t="s">
-        <v>3099</v>
+        <v>3096</v>
       </c>
       <c r="BU233" s="1" t="s">
         <v>122</v>
@@ -54606,7 +54503,7 @@
         <v>111</v>
       </c>
       <c r="BZ233" s="1" t="s">
-        <v>3100</v>
+        <v>3097</v>
       </c>
       <c r="CA233" s="1" t="s">
         <v>124</v>
@@ -54615,13 +54512,13 @@
         <v>112</v>
       </c>
       <c r="CC233" s="1" t="s">
-        <v>3101</v>
+        <v>3098</v>
       </c>
       <c r="CD233" s="1" t="s">
-        <v>3102</v>
+        <v>3099</v>
       </c>
       <c r="CE233" s="1" t="s">
-        <v>3103</v>
+        <v>3100</v>
       </c>
       <c r="CG233" s="1" t="s">
         <v>130</v>
@@ -54641,13 +54538,13 @@
         <v>88</v>
       </c>
       <c r="C234" s="1" t="s">
+        <v>2546</v>
+      </c>
+      <c r="D234" s="1" t="s">
         <v>2547</v>
       </c>
-      <c r="D234" s="1" t="s">
-        <v>2548</v>
-      </c>
       <c r="E234" s="1" t="s">
-        <v>3104</v>
+        <v>3101</v>
       </c>
       <c r="F234" s="1" t="s">
         <v>112</v>
@@ -54659,22 +54556,22 @@
         <v>94</v>
       </c>
       <c r="I234" s="1" t="s">
-        <v>3105</v>
+        <v>3102</v>
       </c>
       <c r="J234" s="1" t="s">
         <v>96</v>
       </c>
       <c r="K234" s="1" t="s">
-        <v>3106</v>
+        <v>3103</v>
       </c>
       <c r="L234" s="1" t="s">
-        <v>3107</v>
+        <v>3104</v>
       </c>
       <c r="M234" s="1" t="s">
-        <v>3017</v>
+        <v>3014</v>
       </c>
       <c r="N234" s="1" t="s">
-        <v>3108</v>
+        <v>3105</v>
       </c>
       <c r="Q234" s="3">
         <v>30147</v>
@@ -54700,17 +54597,12 @@
       <c r="AA234" s="1">
         <v>0</v>
       </c>
-      <c r="AC234" s="3">
-        <v>43405</v>
-      </c>
-      <c r="AD234" s="1" t="s">
-        <v>2872</v>
-      </c>
+      <c r="AC234" s="3"/>
       <c r="AF234" s="1" t="s">
         <v>107</v>
       </c>
       <c r="AG234" s="1" t="s">
-        <v>2885</v>
+        <v>2883</v>
       </c>
       <c r="AH234" s="1" t="s">
         <v>394</v>
@@ -54758,10 +54650,10 @@
         <v>0</v>
       </c>
       <c r="BD234" s="1" t="s">
-        <v>3109</v>
+        <v>3106</v>
       </c>
       <c r="BH234" s="1" t="s">
-        <v>3110</v>
+        <v>3107</v>
       </c>
       <c r="BM234" s="1" t="s">
         <v>118</v>
@@ -54773,13 +54665,13 @@
         <v>102</v>
       </c>
       <c r="BR234" s="1" t="s">
-        <v>3111</v>
+        <v>3108</v>
       </c>
       <c r="BS234" s="3">
         <v>37124</v>
       </c>
       <c r="BT234" s="1" t="s">
-        <v>3112</v>
+        <v>3109</v>
       </c>
       <c r="BU234" s="1" t="s">
         <v>122</v>
@@ -54788,7 +54680,7 @@
         <v>0</v>
       </c>
       <c r="BZ234" s="1" t="s">
-        <v>3113</v>
+        <v>3110</v>
       </c>
       <c r="CA234" s="1" t="s">
         <v>124</v>
@@ -54797,16 +54689,16 @@
         <v>112</v>
       </c>
       <c r="CC234" s="1" t="s">
-        <v>3114</v>
+        <v>3111</v>
       </c>
       <c r="CD234" s="1" t="s">
         <v>1220</v>
       </c>
       <c r="CE234" s="1" t="s">
-        <v>3115</v>
+        <v>3112</v>
       </c>
       <c r="CG234" s="1" t="s">
-        <v>3083</v>
+        <v>3080</v>
       </c>
       <c r="CH234" s="1" t="s">
         <v>130</v>
@@ -54847,16 +54739,16 @@
         <v>96</v>
       </c>
       <c r="K235" s="1" t="s">
-        <v>3116</v>
+        <v>3113</v>
       </c>
       <c r="L235" s="1" t="s">
-        <v>3117</v>
+        <v>3114</v>
       </c>
       <c r="M235" s="1" t="s">
-        <v>3017</v>
+        <v>3014</v>
       </c>
       <c r="N235" s="1" t="s">
-        <v>3118</v>
+        <v>3115</v>
       </c>
       <c r="Q235" s="3">
         <v>17821</v>
@@ -54895,7 +54787,7 @@
         <v>43388</v>
       </c>
       <c r="AD235" s="1" t="s">
-        <v>3028</v>
+        <v>3025</v>
       </c>
       <c r="AF235" s="1" t="s">
         <v>107</v>
@@ -54946,7 +54838,7 @@
         <v>112</v>
       </c>
       <c r="AZ235" s="1" t="s">
-        <v>3119</v>
+        <v>3116</v>
       </c>
       <c r="BB235" s="1">
         <v>0</v>
@@ -54955,7 +54847,7 @@
         <v>0</v>
       </c>
       <c r="BD235" s="1" t="s">
-        <v>3120</v>
+        <v>3117</v>
       </c>
       <c r="BE235" s="1" t="s">
         <v>2297</v>
@@ -54964,7 +54856,7 @@
         <v>2298</v>
       </c>
       <c r="BH235" s="1" t="s">
-        <v>3121</v>
+        <v>3118</v>
       </c>
       <c r="BM235" s="1" t="s">
         <v>118</v>
@@ -54973,7 +54865,7 @@
         <v>106</v>
       </c>
       <c r="BT235" s="1" t="s">
-        <v>3122</v>
+        <v>3119</v>
       </c>
       <c r="BU235" s="1" t="s">
         <v>122</v>
@@ -54991,16 +54883,16 @@
         <v>112</v>
       </c>
       <c r="CC235" s="1" t="s">
-        <v>3123</v>
+        <v>3120</v>
       </c>
       <c r="CD235" s="1" t="s">
-        <v>3124</v>
+        <v>3121</v>
       </c>
       <c r="CE235" s="1" t="s">
         <v>521</v>
       </c>
       <c r="CG235" s="1" t="s">
-        <v>3052</v>
+        <v>3049</v>
       </c>
       <c r="CH235" s="1" t="s">
         <v>130</v>
@@ -55041,16 +54933,16 @@
         <v>96</v>
       </c>
       <c r="K236" s="1" t="s">
-        <v>3053</v>
+        <v>3050</v>
       </c>
       <c r="L236" s="1" t="s">
-        <v>3125</v>
+        <v>3122</v>
       </c>
       <c r="M236" s="1" t="s">
-        <v>3017</v>
+        <v>3014</v>
       </c>
       <c r="N236" s="1" t="s">
-        <v>3055</v>
+        <v>3052</v>
       </c>
       <c r="O236" s="1" t="s">
         <v>100</v>
@@ -55086,7 +54978,7 @@
         <v>43980</v>
       </c>
       <c r="AD236" s="1" t="s">
-        <v>3126</v>
+        <v>3123</v>
       </c>
       <c r="AF236" s="1" t="s">
         <v>107</v>
@@ -55140,10 +55032,10 @@
         <v>20</v>
       </c>
       <c r="BD236" s="1" t="s">
-        <v>3057</v>
+        <v>3054</v>
       </c>
       <c r="BH236" s="1" t="s">
-        <v>3127</v>
+        <v>3124</v>
       </c>
       <c r="BM236" s="1" t="s">
         <v>118</v>
@@ -55155,13 +55047,13 @@
         <v>1750</v>
       </c>
       <c r="BR236" s="1" t="s">
-        <v>3059</v>
+        <v>3056</v>
       </c>
       <c r="BS236" s="3">
         <v>35915</v>
       </c>
       <c r="BT236" s="1" t="s">
-        <v>3060</v>
+        <v>3057</v>
       </c>
       <c r="BU236" s="1" t="s">
         <v>122</v>
@@ -55185,7 +55077,7 @@
         <v>681</v>
       </c>
       <c r="CE236" s="1" t="s">
-        <v>3061</v>
+        <v>3058</v>
       </c>
       <c r="CG236" s="1" t="s">
         <v>1955</v>
@@ -55205,10 +55097,10 @@
         <v>88</v>
       </c>
       <c r="C237" s="1" t="s">
+        <v>2546</v>
+      </c>
+      <c r="D237" s="1" t="s">
         <v>2547</v>
-      </c>
-      <c r="D237" s="1" t="s">
-        <v>2548</v>
       </c>
       <c r="E237" s="1" t="s">
         <v>154</v>
@@ -55223,22 +55115,22 @@
         <v>94</v>
       </c>
       <c r="I237" s="1" t="s">
-        <v>2764</v>
+        <v>2763</v>
       </c>
       <c r="J237" s="1" t="s">
         <v>96</v>
       </c>
       <c r="K237" s="1" t="s">
-        <v>3128</v>
+        <v>3125</v>
       </c>
       <c r="L237" s="1" t="s">
-        <v>3129</v>
+        <v>3126</v>
       </c>
       <c r="M237" s="1" t="s">
-        <v>3017</v>
+        <v>3014</v>
       </c>
       <c r="N237" s="1" t="s">
-        <v>3130</v>
+        <v>3127</v>
       </c>
       <c r="O237" s="1" t="s">
         <v>100</v>
@@ -55274,7 +55166,7 @@
         <v>44135</v>
       </c>
       <c r="AD237" s="1" t="s">
-        <v>3131</v>
+        <v>3128</v>
       </c>
       <c r="AF237" s="1" t="s">
         <v>107</v>
@@ -55331,10 +55223,10 @@
         <v>20</v>
       </c>
       <c r="BD237" s="1" t="s">
-        <v>3132</v>
+        <v>3129</v>
       </c>
       <c r="BH237" s="1" t="s">
-        <v>3133</v>
+        <v>3130</v>
       </c>
       <c r="BM237" s="1" t="s">
         <v>118</v>
@@ -55343,7 +55235,7 @@
         <v>106</v>
       </c>
       <c r="BT237" s="1" t="s">
-        <v>3134</v>
+        <v>3131</v>
       </c>
       <c r="BU237" s="1" t="s">
         <v>122</v>
@@ -55352,7 +55244,7 @@
         <v>0</v>
       </c>
       <c r="BZ237" s="1" t="s">
-        <v>2768</v>
+        <v>2767</v>
       </c>
       <c r="CA237" s="1" t="s">
         <v>124</v>
@@ -55364,10 +55256,10 @@
         <v>1346</v>
       </c>
       <c r="CD237" s="1" t="s">
-        <v>3135</v>
+        <v>3132</v>
       </c>
       <c r="CE237" s="1" t="s">
-        <v>3136</v>
+        <v>3133</v>
       </c>
       <c r="CG237" s="1" t="s">
         <v>1955</v>
@@ -55384,10 +55276,10 @@
         <v>87</v>
       </c>
       <c r="B238" s="1" t="s">
-        <v>3137</v>
+        <v>3134</v>
       </c>
       <c r="C238" s="1" t="s">
-        <v>3138</v>
+        <v>3135</v>
       </c>
       <c r="D238" s="1" t="s">
         <v>1320</v>
@@ -55402,7 +55294,7 @@
         <v>93</v>
       </c>
       <c r="H238" s="1" t="s">
-        <v>3139</v>
+        <v>3136</v>
       </c>
       <c r="I238" s="1" t="s">
         <v>1320</v>
@@ -55411,19 +55303,19 @@
         <v>154</v>
       </c>
       <c r="K238" s="1" t="s">
-        <v>3140</v>
+        <v>3137</v>
       </c>
       <c r="L238" s="1" t="s">
-        <v>3141</v>
+        <v>3138</v>
       </c>
       <c r="N238" s="1" t="s">
-        <v>3142</v>
+        <v>3139</v>
       </c>
       <c r="O238" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P238" s="1" t="s">
-        <v>3143</v>
+        <v>3140</v>
       </c>
       <c r="Q238" s="3">
         <v>20466</v>
@@ -55471,7 +55363,7 @@
         <v>0</v>
       </c>
       <c r="AN238" s="1" t="s">
-        <v>3144</v>
+        <v>3141</v>
       </c>
       <c r="AO238" s="1">
         <v>0</v>
@@ -55504,19 +55396,19 @@
         <v>21</v>
       </c>
       <c r="BD238" s="1" t="s">
-        <v>3145</v>
+        <v>3142</v>
       </c>
       <c r="BG238" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH238" s="1" t="s">
-        <v>3146</v>
+        <v>3143</v>
       </c>
       <c r="BM238" s="1" t="s">
         <v>118</v>
       </c>
       <c r="BT238" s="1" t="s">
-        <v>3147</v>
+        <v>3144</v>
       </c>
       <c r="BU238" s="1" t="s">
         <v>122</v>
@@ -55534,16 +55426,16 @@
         <v>112</v>
       </c>
       <c r="CC238" s="1" t="s">
-        <v>3148</v>
+        <v>3145</v>
       </c>
       <c r="CD238" s="1" t="s">
         <v>320</v>
       </c>
       <c r="CE238" s="1" t="s">
-        <v>3149</v>
+        <v>3146</v>
       </c>
       <c r="CG238" s="1" t="s">
-        <v>3150</v>
+        <v>3147</v>
       </c>
       <c r="CH238" s="1" t="s">
         <v>130</v>
@@ -55557,10 +55449,10 @@
         <v>87</v>
       </c>
       <c r="B239" s="1" t="s">
-        <v>3137</v>
+        <v>3134</v>
       </c>
       <c r="C239" s="1" t="s">
-        <v>3138</v>
+        <v>3135</v>
       </c>
       <c r="D239" s="1" t="s">
         <v>1320</v>
@@ -55575,7 +55467,7 @@
         <v>93</v>
       </c>
       <c r="H239" s="1" t="s">
-        <v>3139</v>
+        <v>3136</v>
       </c>
       <c r="I239" s="1" t="s">
         <v>1320</v>
@@ -55584,19 +55476,19 @@
         <v>154</v>
       </c>
       <c r="K239" s="1" t="s">
-        <v>3151</v>
+        <v>3148</v>
       </c>
       <c r="L239" s="1" t="s">
-        <v>3152</v>
+        <v>3149</v>
       </c>
       <c r="N239" s="1" t="s">
-        <v>3153</v>
+        <v>3150</v>
       </c>
       <c r="O239" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P239" s="1" t="s">
-        <v>3154</v>
+        <v>3151</v>
       </c>
       <c r="Q239" s="3">
         <v>24006</v>
@@ -55641,7 +55533,7 @@
         <v>0</v>
       </c>
       <c r="AN239" s="1" t="s">
-        <v>3155</v>
+        <v>3152</v>
       </c>
       <c r="AO239" s="1">
         <v>0</v>
@@ -55677,19 +55569,19 @@
         <v>21</v>
       </c>
       <c r="BD239" s="1" t="s">
-        <v>3156</v>
+        <v>3153</v>
       </c>
       <c r="BG239" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH239" s="1" t="s">
-        <v>3157</v>
+        <v>3154</v>
       </c>
       <c r="BM239" s="1" t="s">
         <v>118</v>
       </c>
       <c r="BT239" s="1" t="s">
-        <v>3158</v>
+        <v>3155</v>
       </c>
       <c r="BU239" s="1" t="s">
         <v>122</v>
@@ -55716,10 +55608,10 @@
         <v>1139</v>
       </c>
       <c r="CE239" s="1" t="s">
-        <v>3159</v>
+        <v>3156</v>
       </c>
       <c r="CG239" s="1" t="s">
-        <v>3160</v>
+        <v>3157</v>
       </c>
       <c r="CH239" s="1" t="s">
         <v>130</v>
@@ -55733,10 +55625,10 @@
         <v>87</v>
       </c>
       <c r="B240" s="1" t="s">
-        <v>3137</v>
+        <v>3134</v>
       </c>
       <c r="C240" s="1" t="s">
-        <v>3138</v>
+        <v>3135</v>
       </c>
       <c r="D240" s="1" t="s">
         <v>1320</v>
@@ -55751,7 +55643,7 @@
         <v>93</v>
       </c>
       <c r="H240" s="1" t="s">
-        <v>3139</v>
+        <v>3136</v>
       </c>
       <c r="I240" s="1" t="s">
         <v>1320</v>
@@ -55760,19 +55652,19 @@
         <v>154</v>
       </c>
       <c r="K240" s="1" t="s">
-        <v>3161</v>
+        <v>3158</v>
       </c>
       <c r="L240" s="1" t="s">
-        <v>3162</v>
+        <v>3159</v>
       </c>
       <c r="N240" s="1" t="s">
-        <v>3163</v>
+        <v>3160</v>
       </c>
       <c r="O240" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P240" s="1" t="s">
-        <v>3164</v>
+        <v>3161</v>
       </c>
       <c r="Q240" s="3">
         <v>26193</v>
@@ -55817,7 +55709,7 @@
         <v>0</v>
       </c>
       <c r="AN240" s="1" t="s">
-        <v>3165</v>
+        <v>3162</v>
       </c>
       <c r="AO240" s="1">
         <v>0</v>
@@ -55853,19 +55745,19 @@
         <v>21</v>
       </c>
       <c r="BD240" s="1" t="s">
-        <v>3166</v>
+        <v>3163</v>
       </c>
       <c r="BG240" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH240" s="1" t="s">
-        <v>3167</v>
+        <v>3164</v>
       </c>
       <c r="BM240" s="1" t="s">
         <v>118</v>
       </c>
       <c r="BT240" s="1" t="s">
-        <v>3168</v>
+        <v>3165</v>
       </c>
       <c r="BU240" s="1" t="s">
         <v>122</v>
@@ -55886,16 +55778,16 @@
         <v>112</v>
       </c>
       <c r="CC240" s="1" t="s">
+        <v>3166</v>
+      </c>
+      <c r="CD240" s="1" t="s">
+        <v>3167</v>
+      </c>
+      <c r="CE240" s="1" t="s">
+        <v>3168</v>
+      </c>
+      <c r="CG240" s="1" t="s">
         <v>3169</v>
-      </c>
-      <c r="CD240" s="1" t="s">
-        <v>3170</v>
-      </c>
-      <c r="CE240" s="1" t="s">
-        <v>3171</v>
-      </c>
-      <c r="CG240" s="1" t="s">
-        <v>3172</v>
       </c>
       <c r="CH240" s="1" t="s">
         <v>130</v>
@@ -55909,10 +55801,10 @@
         <v>87</v>
       </c>
       <c r="B241" s="1" t="s">
-        <v>3137</v>
+        <v>3134</v>
       </c>
       <c r="C241" s="1" t="s">
-        <v>3138</v>
+        <v>3135</v>
       </c>
       <c r="D241" s="1" t="s">
         <v>1320</v>
@@ -55927,7 +55819,7 @@
         <v>93</v>
       </c>
       <c r="H241" s="1" t="s">
-        <v>3139</v>
+        <v>3136</v>
       </c>
       <c r="I241" s="1" t="s">
         <v>1320</v>
@@ -55936,19 +55828,19 @@
         <v>154</v>
       </c>
       <c r="K241" s="1" t="s">
-        <v>3173</v>
+        <v>3170</v>
       </c>
       <c r="L241" s="1" t="s">
-        <v>3174</v>
+        <v>3171</v>
       </c>
       <c r="N241" s="1" t="s">
-        <v>3175</v>
+        <v>3172</v>
       </c>
       <c r="O241" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P241" s="1" t="s">
-        <v>3176</v>
+        <v>3173</v>
       </c>
       <c r="Q241" s="3">
         <v>24325</v>
@@ -56029,19 +55921,19 @@
         <v>21</v>
       </c>
       <c r="BD241" s="1" t="s">
-        <v>3177</v>
+        <v>3174</v>
       </c>
       <c r="BG241" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH241" s="1" t="s">
-        <v>3178</v>
+        <v>3175</v>
       </c>
       <c r="BM241" s="1" t="s">
         <v>118</v>
       </c>
       <c r="BT241" s="1" t="s">
-        <v>3179</v>
+        <v>3176</v>
       </c>
       <c r="BU241" s="1" t="s">
         <v>122</v>
@@ -56062,7 +55954,7 @@
         <v>112</v>
       </c>
       <c r="CC241" s="1" t="s">
-        <v>3180</v>
+        <v>3177</v>
       </c>
       <c r="CD241" s="1" t="s">
         <v>623</v>
@@ -56071,7 +55963,7 @@
         <v>521</v>
       </c>
       <c r="CG241" s="1" t="s">
-        <v>3181</v>
+        <v>3178</v>
       </c>
       <c r="CH241" s="1" t="s">
         <v>130</v>
@@ -56085,10 +55977,10 @@
         <v>87</v>
       </c>
       <c r="B242" s="1" t="s">
-        <v>3137</v>
+        <v>3134</v>
       </c>
       <c r="C242" s="1" t="s">
-        <v>3138</v>
+        <v>3135</v>
       </c>
       <c r="D242" s="1" t="s">
         <v>1320</v>
@@ -56103,7 +55995,7 @@
         <v>93</v>
       </c>
       <c r="H242" s="1" t="s">
-        <v>3139</v>
+        <v>3136</v>
       </c>
       <c r="I242" s="1" t="s">
         <v>1320</v>
@@ -56112,19 +56004,19 @@
         <v>154</v>
       </c>
       <c r="K242" s="1" t="s">
-        <v>3182</v>
+        <v>3179</v>
       </c>
       <c r="L242" s="1" t="s">
-        <v>3183</v>
+        <v>3180</v>
       </c>
       <c r="N242" s="1" t="s">
-        <v>3184</v>
+        <v>3181</v>
       </c>
       <c r="O242" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P242" s="1" t="s">
-        <v>3185</v>
+        <v>3182</v>
       </c>
       <c r="Q242" s="3">
         <v>24848</v>
@@ -56172,7 +56064,7 @@
         <v>0</v>
       </c>
       <c r="AN242" s="1" t="s">
-        <v>3186</v>
+        <v>3183</v>
       </c>
       <c r="AO242" s="1">
         <v>0</v>
@@ -56208,19 +56100,19 @@
         <v>21</v>
       </c>
       <c r="BD242" s="1" t="s">
-        <v>3187</v>
+        <v>3184</v>
       </c>
       <c r="BG242" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH242" s="1" t="s">
-        <v>3188</v>
+        <v>3185</v>
       </c>
       <c r="BM242" s="1" t="s">
         <v>118</v>
       </c>
       <c r="BT242" s="1" t="s">
-        <v>3189</v>
+        <v>3186</v>
       </c>
       <c r="BU242" s="1" t="s">
         <v>122</v>
@@ -56244,13 +56136,13 @@
         <v>504</v>
       </c>
       <c r="CD242" s="1" t="s">
-        <v>3190</v>
+        <v>3187</v>
       </c>
       <c r="CE242" s="1" t="s">
-        <v>3191</v>
+        <v>3188</v>
       </c>
       <c r="CG242" s="1" t="s">
-        <v>3192</v>
+        <v>3189</v>
       </c>
       <c r="CH242" s="1" t="s">
         <v>130</v>
@@ -56264,10 +56156,10 @@
         <v>87</v>
       </c>
       <c r="B243" s="1" t="s">
-        <v>3137</v>
+        <v>3134</v>
       </c>
       <c r="C243" s="1" t="s">
-        <v>3138</v>
+        <v>3135</v>
       </c>
       <c r="D243" s="1" t="s">
         <v>1320</v>
@@ -56282,7 +56174,7 @@
         <v>93</v>
       </c>
       <c r="H243" s="1" t="s">
-        <v>3139</v>
+        <v>3136</v>
       </c>
       <c r="I243" s="1" t="s">
         <v>1320</v>
@@ -56291,19 +56183,19 @@
         <v>154</v>
       </c>
       <c r="K243" s="1" t="s">
-        <v>3193</v>
+        <v>3190</v>
       </c>
       <c r="L243" s="1" t="s">
-        <v>3194</v>
+        <v>3191</v>
       </c>
       <c r="N243" s="1" t="s">
-        <v>3195</v>
+        <v>3192</v>
       </c>
       <c r="O243" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P243" s="1" t="s">
-        <v>3196</v>
+        <v>3193</v>
       </c>
       <c r="Q243" s="3">
         <v>27702</v>
@@ -56384,19 +56276,19 @@
         <v>21</v>
       </c>
       <c r="BD243" s="1" t="s">
-        <v>3197</v>
+        <v>3194</v>
       </c>
       <c r="BG243" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH243" s="1" t="s">
-        <v>3198</v>
+        <v>3195</v>
       </c>
       <c r="BM243" s="1" t="s">
         <v>118</v>
       </c>
       <c r="BT243" s="1" t="s">
-        <v>3199</v>
+        <v>3196</v>
       </c>
       <c r="BU243" s="1" t="s">
         <v>122</v>
@@ -56417,16 +56309,16 @@
         <v>112</v>
       </c>
       <c r="CC243" s="1" t="s">
-        <v>3200</v>
+        <v>3197</v>
       </c>
       <c r="CD243" s="1" t="s">
         <v>638</v>
       </c>
       <c r="CE243" s="1" t="s">
-        <v>3201</v>
+        <v>3198</v>
       </c>
       <c r="CG243" s="1" t="s">
-        <v>3202</v>
+        <v>3199</v>
       </c>
       <c r="CH243" s="1" t="s">
         <v>130</v>
@@ -56440,10 +56332,10 @@
         <v>87</v>
       </c>
       <c r="B244" s="1" t="s">
-        <v>3137</v>
+        <v>3134</v>
       </c>
       <c r="C244" s="1" t="s">
-        <v>3138</v>
+        <v>3135</v>
       </c>
       <c r="D244" s="1" t="s">
         <v>1320</v>
@@ -56458,7 +56350,7 @@
         <v>93</v>
       </c>
       <c r="H244" s="1" t="s">
-        <v>3139</v>
+        <v>3136</v>
       </c>
       <c r="I244" s="1" t="s">
         <v>1320</v>
@@ -56467,19 +56359,19 @@
         <v>154</v>
       </c>
       <c r="K244" s="1" t="s">
-        <v>3203</v>
+        <v>3200</v>
       </c>
       <c r="L244" s="1" t="s">
-        <v>3204</v>
+        <v>3201</v>
       </c>
       <c r="N244" s="1" t="s">
-        <v>3205</v>
+        <v>3202</v>
       </c>
       <c r="O244" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P244" s="1" t="s">
-        <v>3206</v>
+        <v>3203</v>
       </c>
       <c r="Q244" s="3">
         <v>23289</v>
@@ -56527,7 +56419,7 @@
         <v>0</v>
       </c>
       <c r="AN244" s="1" t="s">
-        <v>3207</v>
+        <v>3204</v>
       </c>
       <c r="AO244" s="1">
         <v>0</v>
@@ -56563,19 +56455,19 @@
         <v>21</v>
       </c>
       <c r="BD244" s="1" t="s">
-        <v>3208</v>
+        <v>3205</v>
       </c>
       <c r="BG244" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH244" s="1" t="s">
-        <v>3209</v>
+        <v>3206</v>
       </c>
       <c r="BM244" s="1" t="s">
         <v>118</v>
       </c>
       <c r="BT244" s="1" t="s">
-        <v>3210</v>
+        <v>3207</v>
       </c>
       <c r="BU244" s="1" t="s">
         <v>122</v>
@@ -56596,16 +56488,16 @@
         <v>112</v>
       </c>
       <c r="CC244" s="1" t="s">
-        <v>3211</v>
+        <v>3208</v>
       </c>
       <c r="CD244" s="1" t="s">
         <v>1062</v>
       </c>
       <c r="CE244" s="1" t="s">
-        <v>3212</v>
+        <v>3209</v>
       </c>
       <c r="CG244" s="1" t="s">
-        <v>3213</v>
+        <v>3210</v>
       </c>
       <c r="CH244" s="1" t="s">
         <v>130</v>
@@ -56619,10 +56511,10 @@
         <v>87</v>
       </c>
       <c r="B245" s="1" t="s">
-        <v>3137</v>
+        <v>3134</v>
       </c>
       <c r="C245" s="1" t="s">
-        <v>3138</v>
+        <v>3135</v>
       </c>
       <c r="D245" s="1" t="s">
         <v>1320</v>
@@ -56637,7 +56529,7 @@
         <v>93</v>
       </c>
       <c r="H245" s="1" t="s">
-        <v>3139</v>
+        <v>3136</v>
       </c>
       <c r="I245" s="1" t="s">
         <v>1320</v>
@@ -56646,19 +56538,19 @@
         <v>154</v>
       </c>
       <c r="K245" s="1" t="s">
-        <v>3214</v>
+        <v>3211</v>
       </c>
       <c r="L245" s="1" t="s">
-        <v>3215</v>
+        <v>3212</v>
       </c>
       <c r="N245" s="1" t="s">
-        <v>3216</v>
+        <v>3213</v>
       </c>
       <c r="O245" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P245" s="1" t="s">
-        <v>3217</v>
+        <v>3214</v>
       </c>
       <c r="Q245" s="3">
         <v>16546</v>
@@ -56706,7 +56598,7 @@
         <v>0</v>
       </c>
       <c r="AN245" s="1" t="s">
-        <v>3186</v>
+        <v>3183</v>
       </c>
       <c r="AO245" s="1">
         <v>0</v>
@@ -56742,19 +56634,19 @@
         <v>21</v>
       </c>
       <c r="BD245" s="1" t="s">
-        <v>3218</v>
+        <v>3215</v>
       </c>
       <c r="BG245" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH245" s="1" t="s">
-        <v>3219</v>
+        <v>3216</v>
       </c>
       <c r="BM245" s="1" t="s">
         <v>118</v>
       </c>
       <c r="BT245" s="1" t="s">
-        <v>3220</v>
+        <v>3217</v>
       </c>
       <c r="BU245" s="1" t="s">
         <v>122</v>
@@ -56778,13 +56670,13 @@
         <v>1047</v>
       </c>
       <c r="CD245" s="1" t="s">
-        <v>3221</v>
+        <v>3218</v>
       </c>
       <c r="CE245" s="1" t="s">
-        <v>3222</v>
+        <v>3219</v>
       </c>
       <c r="CG245" s="1" t="s">
-        <v>3223</v>
+        <v>3220</v>
       </c>
       <c r="CH245" s="1" t="s">
         <v>130</v>
@@ -56798,10 +56690,10 @@
         <v>87</v>
       </c>
       <c r="B246" s="1" t="s">
-        <v>3137</v>
+        <v>3134</v>
       </c>
       <c r="C246" s="1" t="s">
-        <v>3138</v>
+        <v>3135</v>
       </c>
       <c r="D246" s="1" t="s">
         <v>1320</v>
@@ -56816,7 +56708,7 @@
         <v>93</v>
       </c>
       <c r="H246" s="1" t="s">
-        <v>3139</v>
+        <v>3136</v>
       </c>
       <c r="I246" s="1" t="s">
         <v>1320</v>
@@ -56825,19 +56717,19 @@
         <v>154</v>
       </c>
       <c r="K246" s="1" t="s">
-        <v>3224</v>
+        <v>3221</v>
       </c>
       <c r="L246" s="1" t="s">
-        <v>3225</v>
+        <v>3222</v>
       </c>
       <c r="N246" s="1" t="s">
-        <v>3226</v>
+        <v>3223</v>
       </c>
       <c r="O246" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P246" s="1" t="s">
-        <v>3227</v>
+        <v>3224</v>
       </c>
       <c r="Q246" s="3">
         <v>12691</v>
@@ -56885,7 +56777,7 @@
         <v>0</v>
       </c>
       <c r="AN246" s="1" t="s">
-        <v>3186</v>
+        <v>3183</v>
       </c>
       <c r="AO246" s="1">
         <v>0</v>
@@ -56921,19 +56813,19 @@
         <v>21</v>
       </c>
       <c r="BD246" s="1" t="s">
-        <v>3228</v>
+        <v>3225</v>
       </c>
       <c r="BG246" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH246" s="1" t="s">
-        <v>3229</v>
+        <v>3226</v>
       </c>
       <c r="BM246" s="1" t="s">
         <v>118</v>
       </c>
       <c r="BT246" s="1" t="s">
-        <v>3230</v>
+        <v>3227</v>
       </c>
       <c r="BU246" s="1" t="s">
         <v>122</v>
@@ -56960,10 +56852,10 @@
         <v>2259</v>
       </c>
       <c r="CE246" s="1" t="s">
-        <v>3231</v>
+        <v>3228</v>
       </c>
       <c r="CG246" s="1" t="s">
-        <v>3232</v>
+        <v>3229</v>
       </c>
       <c r="CH246" s="1" t="s">
         <v>130</v>
@@ -56977,10 +56869,10 @@
         <v>87</v>
       </c>
       <c r="B247" s="1" t="s">
-        <v>3137</v>
+        <v>3134</v>
       </c>
       <c r="C247" s="1" t="s">
-        <v>3138</v>
+        <v>3135</v>
       </c>
       <c r="D247" s="1" t="s">
         <v>1320</v>
@@ -56995,7 +56887,7 @@
         <v>93</v>
       </c>
       <c r="H247" s="1" t="s">
-        <v>3139</v>
+        <v>3136</v>
       </c>
       <c r="I247" s="1" t="s">
         <v>1320</v>
@@ -57004,19 +56896,19 @@
         <v>154</v>
       </c>
       <c r="K247" s="1" t="s">
-        <v>3233</v>
+        <v>3230</v>
       </c>
       <c r="L247" s="1" t="s">
         <v>2371</v>
       </c>
       <c r="N247" s="1" t="s">
-        <v>3234</v>
+        <v>3231</v>
       </c>
       <c r="O247" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P247" s="1" t="s">
-        <v>3235</v>
+        <v>3232</v>
       </c>
       <c r="Q247" s="3">
         <v>23611</v>
@@ -57061,7 +56953,7 @@
         <v>0</v>
       </c>
       <c r="AN247" s="1" t="s">
-        <v>3236</v>
+        <v>3233</v>
       </c>
       <c r="AO247" s="1">
         <v>0</v>
@@ -57094,19 +56986,19 @@
         <v>21</v>
       </c>
       <c r="BD247" s="1" t="s">
-        <v>3237</v>
+        <v>3234</v>
       </c>
       <c r="BG247" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH247" s="1" t="s">
-        <v>3238</v>
+        <v>3235</v>
       </c>
       <c r="BM247" s="1" t="s">
         <v>118</v>
       </c>
       <c r="BT247" s="1" t="s">
-        <v>3239</v>
+        <v>3236</v>
       </c>
       <c r="BU247" s="1" t="s">
         <v>122</v>
@@ -57124,16 +57016,16 @@
         <v>112</v>
       </c>
       <c r="CC247" s="1" t="s">
+        <v>3237</v>
+      </c>
+      <c r="CD247" s="1" t="s">
+        <v>3238</v>
+      </c>
+      <c r="CE247" s="1" t="s">
+        <v>3239</v>
+      </c>
+      <c r="CG247" s="1" t="s">
         <v>3240</v>
-      </c>
-      <c r="CD247" s="1" t="s">
-        <v>3241</v>
-      </c>
-      <c r="CE247" s="1" t="s">
-        <v>3242</v>
-      </c>
-      <c r="CG247" s="1" t="s">
-        <v>3243</v>
       </c>
       <c r="CH247" s="1" t="s">
         <v>130</v>
@@ -57147,10 +57039,10 @@
         <v>87</v>
       </c>
       <c r="B248" s="1" t="s">
-        <v>3137</v>
+        <v>3134</v>
       </c>
       <c r="C248" s="1" t="s">
-        <v>3138</v>
+        <v>3135</v>
       </c>
       <c r="D248" s="1" t="s">
         <v>1320</v>
@@ -57165,7 +57057,7 @@
         <v>93</v>
       </c>
       <c r="H248" s="1" t="s">
-        <v>3139</v>
+        <v>3136</v>
       </c>
       <c r="I248" s="1" t="s">
         <v>1320</v>
@@ -57174,13 +57066,13 @@
         <v>154</v>
       </c>
       <c r="K248" s="1" t="s">
-        <v>3244</v>
+        <v>3241</v>
       </c>
       <c r="L248" s="1" t="s">
         <v>2380</v>
       </c>
       <c r="N248" s="1" t="s">
-        <v>3245</v>
+        <v>3242</v>
       </c>
       <c r="O248" s="1" t="s">
         <v>100</v>
@@ -57264,19 +57156,19 @@
         <v>21</v>
       </c>
       <c r="BD248" s="1" t="s">
-        <v>3246</v>
+        <v>3243</v>
       </c>
       <c r="BG248" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH248" s="1" t="s">
-        <v>3247</v>
+        <v>3244</v>
       </c>
       <c r="BM248" s="1" t="s">
         <v>118</v>
       </c>
       <c r="BT248" s="1" t="s">
-        <v>3248</v>
+        <v>3245</v>
       </c>
       <c r="BU248" s="1" t="s">
         <v>122</v>
@@ -57297,16 +57189,16 @@
         <v>2305</v>
       </c>
       <c r="CC248" s="1" t="s">
+        <v>3246</v>
+      </c>
+      <c r="CD248" s="1" t="s">
+        <v>3247</v>
+      </c>
+      <c r="CE248" s="1" t="s">
+        <v>3248</v>
+      </c>
+      <c r="CG248" s="1" t="s">
         <v>3249</v>
-      </c>
-      <c r="CD248" s="1" t="s">
-        <v>3250</v>
-      </c>
-      <c r="CE248" s="1" t="s">
-        <v>3251</v>
-      </c>
-      <c r="CG248" s="1" t="s">
-        <v>3252</v>
       </c>
       <c r="CH248" s="1" t="s">
         <v>130</v>
@@ -57320,10 +57212,10 @@
         <v>87</v>
       </c>
       <c r="B249" s="1" t="s">
-        <v>3137</v>
+        <v>3134</v>
       </c>
       <c r="C249" s="1" t="s">
-        <v>3138</v>
+        <v>3135</v>
       </c>
       <c r="D249" s="1" t="s">
         <v>1320</v>
@@ -57338,7 +57230,7 @@
         <v>93</v>
       </c>
       <c r="H249" s="1" t="s">
-        <v>3139</v>
+        <v>3136</v>
       </c>
       <c r="I249" s="1" t="s">
         <v>1320</v>
@@ -57347,19 +57239,19 @@
         <v>154</v>
       </c>
       <c r="K249" s="1" t="s">
-        <v>3253</v>
+        <v>3250</v>
       </c>
       <c r="L249" s="1" t="s">
-        <v>3254</v>
+        <v>3251</v>
       </c>
       <c r="N249" s="1" t="s">
-        <v>3255</v>
+        <v>3252</v>
       </c>
       <c r="O249" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P249" s="1" t="s">
-        <v>3256</v>
+        <v>3253</v>
       </c>
       <c r="Q249" s="3">
         <v>18056</v>
@@ -57437,19 +57329,19 @@
         <v>21</v>
       </c>
       <c r="BD249" s="1" t="s">
-        <v>3257</v>
+        <v>3254</v>
       </c>
       <c r="BG249" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH249" s="1" t="s">
-        <v>3258</v>
+        <v>3255</v>
       </c>
       <c r="BM249" s="1" t="s">
         <v>118</v>
       </c>
       <c r="BT249" s="1" t="s">
-        <v>3259</v>
+        <v>3256</v>
       </c>
       <c r="BU249" s="1" t="s">
         <v>122</v>
@@ -57470,13 +57362,13 @@
         <v>1261</v>
       </c>
       <c r="CD249" s="1" t="s">
-        <v>3260</v>
+        <v>3257</v>
       </c>
       <c r="CE249" s="1" t="s">
-        <v>3261</v>
+        <v>3258</v>
       </c>
       <c r="CG249" s="1" t="s">
-        <v>3262</v>
+        <v>3259</v>
       </c>
       <c r="CH249" s="1" t="s">
         <v>130</v>
@@ -57490,10 +57382,10 @@
         <v>87</v>
       </c>
       <c r="B250" s="1" t="s">
-        <v>3137</v>
+        <v>3134</v>
       </c>
       <c r="C250" s="1" t="s">
-        <v>3138</v>
+        <v>3135</v>
       </c>
       <c r="D250" s="1" t="s">
         <v>1320</v>
@@ -57508,7 +57400,7 @@
         <v>93</v>
       </c>
       <c r="H250" s="1" t="s">
-        <v>3139</v>
+        <v>3136</v>
       </c>
       <c r="I250" s="1" t="s">
         <v>1320</v>
@@ -57517,19 +57409,19 @@
         <v>154</v>
       </c>
       <c r="K250" s="1" t="s">
-        <v>3263</v>
+        <v>3260</v>
       </c>
       <c r="L250" s="1" t="s">
-        <v>3264</v>
+        <v>3261</v>
       </c>
       <c r="N250" s="1" t="s">
-        <v>3265</v>
+        <v>3262</v>
       </c>
       <c r="O250" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P250" s="1" t="s">
-        <v>3266</v>
+        <v>3263</v>
       </c>
       <c r="Q250" s="3">
         <v>26349</v>
@@ -57574,7 +57466,7 @@
         <v>0</v>
       </c>
       <c r="AN250" s="1" t="s">
-        <v>3267</v>
+        <v>3264</v>
       </c>
       <c r="AO250" s="1">
         <v>0</v>
@@ -57610,19 +57502,19 @@
         <v>21</v>
       </c>
       <c r="BD250" s="1" t="s">
-        <v>3268</v>
+        <v>3265</v>
       </c>
       <c r="BG250" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH250" s="1" t="s">
-        <v>3269</v>
+        <v>3266</v>
       </c>
       <c r="BM250" s="1" t="s">
         <v>118</v>
       </c>
       <c r="BT250" s="1" t="s">
-        <v>3270</v>
+        <v>3267</v>
       </c>
       <c r="BU250" s="1" t="s">
         <v>122</v>
@@ -57643,16 +57535,16 @@
         <v>112</v>
       </c>
       <c r="CC250" s="1" t="s">
-        <v>3249</v>
+        <v>3246</v>
       </c>
       <c r="CD250" s="1" t="s">
-        <v>3271</v>
+        <v>3268</v>
       </c>
       <c r="CE250" s="1" t="s">
-        <v>3272</v>
+        <v>3269</v>
       </c>
       <c r="CG250" s="1" t="s">
-        <v>3273</v>
+        <v>3270</v>
       </c>
       <c r="CH250" s="1" t="s">
         <v>130</v>
@@ -57666,10 +57558,10 @@
         <v>87</v>
       </c>
       <c r="B251" s="1" t="s">
-        <v>3137</v>
+        <v>3134</v>
       </c>
       <c r="C251" s="1" t="s">
-        <v>3138</v>
+        <v>3135</v>
       </c>
       <c r="D251" s="1" t="s">
         <v>1320</v>
@@ -57684,7 +57576,7 @@
         <v>93</v>
       </c>
       <c r="H251" s="1" t="s">
-        <v>3139</v>
+        <v>3136</v>
       </c>
       <c r="I251" s="1" t="s">
         <v>1320</v>
@@ -57693,19 +57585,19 @@
         <v>154</v>
       </c>
       <c r="K251" s="1" t="s">
-        <v>3274</v>
+        <v>3271</v>
       </c>
       <c r="L251" s="1" t="s">
-        <v>3275</v>
+        <v>3272</v>
       </c>
       <c r="N251" s="1" t="s">
-        <v>3276</v>
+        <v>3273</v>
       </c>
       <c r="O251" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P251" s="1" t="s">
-        <v>3277</v>
+        <v>3274</v>
       </c>
       <c r="Q251" s="3">
         <v>30589</v>
@@ -57753,7 +57645,7 @@
         <v>0</v>
       </c>
       <c r="AN251" s="1" t="s">
-        <v>2462</v>
+        <v>2461</v>
       </c>
       <c r="AO251" s="1">
         <v>0</v>
@@ -57789,19 +57681,19 @@
         <v>21</v>
       </c>
       <c r="BD251" s="1" t="s">
-        <v>3278</v>
+        <v>3275</v>
       </c>
       <c r="BG251" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH251" s="1" t="s">
-        <v>3279</v>
+        <v>3276</v>
       </c>
       <c r="BM251" s="1" t="s">
         <v>118</v>
       </c>
       <c r="BT251" s="1" t="s">
-        <v>3280</v>
+        <v>3277</v>
       </c>
       <c r="BU251" s="1" t="s">
         <v>122</v>
@@ -57822,16 +57714,16 @@
         <v>112</v>
       </c>
       <c r="CC251" s="1" t="s">
+        <v>3278</v>
+      </c>
+      <c r="CD251" s="1" t="s">
+        <v>3279</v>
+      </c>
+      <c r="CE251" s="1" t="s">
+        <v>3280</v>
+      </c>
+      <c r="CG251" s="1" t="s">
         <v>3281</v>
-      </c>
-      <c r="CD251" s="1" t="s">
-        <v>3282</v>
-      </c>
-      <c r="CE251" s="1" t="s">
-        <v>3283</v>
-      </c>
-      <c r="CG251" s="1" t="s">
-        <v>3284</v>
       </c>
       <c r="CH251" s="1" t="s">
         <v>130</v>
@@ -57845,10 +57737,10 @@
         <v>87</v>
       </c>
       <c r="B252" s="1" t="s">
-        <v>3137</v>
+        <v>3134</v>
       </c>
       <c r="C252" s="1" t="s">
-        <v>3138</v>
+        <v>3135</v>
       </c>
       <c r="D252" s="1" t="s">
         <v>1320</v>
@@ -57863,7 +57755,7 @@
         <v>93</v>
       </c>
       <c r="H252" s="1" t="s">
-        <v>3139</v>
+        <v>3136</v>
       </c>
       <c r="I252" s="1" t="s">
         <v>1320</v>
@@ -57872,19 +57764,19 @@
         <v>154</v>
       </c>
       <c r="K252" s="1" t="s">
-        <v>3285</v>
+        <v>3282</v>
       </c>
       <c r="L252" s="1" t="s">
-        <v>3286</v>
+        <v>3283</v>
       </c>
       <c r="N252" s="1" t="s">
-        <v>3287</v>
+        <v>3284</v>
       </c>
       <c r="O252" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P252" s="1" t="s">
-        <v>3288</v>
+        <v>3285</v>
       </c>
       <c r="Q252" s="3">
         <v>27354</v>
@@ -57932,7 +57824,7 @@
         <v>0</v>
       </c>
       <c r="AN252" s="1" t="s">
-        <v>2462</v>
+        <v>2461</v>
       </c>
       <c r="AO252" s="1">
         <v>0</v>
@@ -57968,19 +57860,19 @@
         <v>21</v>
       </c>
       <c r="BD252" s="1" t="s">
-        <v>3289</v>
+        <v>3286</v>
       </c>
       <c r="BG252" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH252" s="1" t="s">
-        <v>3290</v>
+        <v>3287</v>
       </c>
       <c r="BM252" s="1" t="s">
         <v>118</v>
       </c>
       <c r="BT252" s="1" t="s">
-        <v>3291</v>
+        <v>3288</v>
       </c>
       <c r="BU252" s="1" t="s">
         <v>122</v>
@@ -58001,16 +57893,16 @@
         <v>112</v>
       </c>
       <c r="CC252" s="1" t="s">
+        <v>3289</v>
+      </c>
+      <c r="CD252" s="1" t="s">
+        <v>3290</v>
+      </c>
+      <c r="CE252" s="1" t="s">
+        <v>3291</v>
+      </c>
+      <c r="CG252" s="1" t="s">
         <v>3292</v>
-      </c>
-      <c r="CD252" s="1" t="s">
-        <v>3293</v>
-      </c>
-      <c r="CE252" s="1" t="s">
-        <v>3294</v>
-      </c>
-      <c r="CG252" s="1" t="s">
-        <v>3295</v>
       </c>
       <c r="CH252" s="1" t="s">
         <v>130</v>
@@ -58024,10 +57916,10 @@
         <v>87</v>
       </c>
       <c r="B253" s="1" t="s">
-        <v>3137</v>
+        <v>3134</v>
       </c>
       <c r="C253" s="1" t="s">
-        <v>3138</v>
+        <v>3135</v>
       </c>
       <c r="D253" s="1" t="s">
         <v>1320</v>
@@ -58042,7 +57934,7 @@
         <v>93</v>
       </c>
       <c r="H253" s="1" t="s">
-        <v>3139</v>
+        <v>3136</v>
       </c>
       <c r="I253" s="1" t="s">
         <v>1320</v>
@@ -58051,19 +57943,19 @@
         <v>154</v>
       </c>
       <c r="K253" s="1" t="s">
-        <v>3296</v>
+        <v>3293</v>
       </c>
       <c r="L253" s="1" t="s">
-        <v>3297</v>
+        <v>3294</v>
       </c>
       <c r="N253" s="1" t="s">
-        <v>3298</v>
+        <v>3295</v>
       </c>
       <c r="O253" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P253" s="1" t="s">
-        <v>3299</v>
+        <v>3296</v>
       </c>
       <c r="Q253" s="3">
         <v>13756</v>
@@ -58150,7 +58042,7 @@
         <v>21</v>
       </c>
       <c r="BD253" s="1" t="s">
-        <v>3300</v>
+        <v>3297</v>
       </c>
       <c r="BG253" s="1" t="s">
         <v>115</v>
@@ -58177,10 +58069,10 @@
         <v>112</v>
       </c>
       <c r="CC253" s="1" t="s">
-        <v>2446</v>
+        <v>2445</v>
       </c>
       <c r="CD253" s="1" t="s">
-        <v>3301</v>
+        <v>3298</v>
       </c>
       <c r="CE253" s="1" t="s">
         <v>225</v>
@@ -58200,10 +58092,10 @@
         <v>87</v>
       </c>
       <c r="B254" s="1" t="s">
-        <v>3137</v>
+        <v>3134</v>
       </c>
       <c r="C254" s="1" t="s">
-        <v>3138</v>
+        <v>3135</v>
       </c>
       <c r="D254" s="1" t="s">
         <v>1320</v>
@@ -58218,7 +58110,7 @@
         <v>93</v>
       </c>
       <c r="H254" s="1" t="s">
-        <v>3139</v>
+        <v>3136</v>
       </c>
       <c r="I254" s="1" t="s">
         <v>1320</v>
@@ -58227,19 +58119,19 @@
         <v>154</v>
       </c>
       <c r="K254" s="1" t="s">
-        <v>3302</v>
+        <v>3299</v>
       </c>
       <c r="L254" s="1" t="s">
-        <v>3303</v>
+        <v>3300</v>
       </c>
       <c r="N254" s="1" t="s">
-        <v>3304</v>
+        <v>3301</v>
       </c>
       <c r="O254" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P254" s="1" t="s">
-        <v>3305</v>
+        <v>3302</v>
       </c>
       <c r="Q254" s="3">
         <v>26074</v>
@@ -58287,7 +58179,7 @@
         <v>0</v>
       </c>
       <c r="AN254" s="1" t="s">
-        <v>2462</v>
+        <v>2461</v>
       </c>
       <c r="AO254" s="1">
         <v>0</v>
@@ -58323,25 +58215,25 @@
         <v>21</v>
       </c>
       <c r="BD254" s="1" t="s">
-        <v>3306</v>
+        <v>3303</v>
       </c>
       <c r="BG254" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH254" s="1" t="s">
-        <v>3279</v>
+        <v>3276</v>
       </c>
       <c r="BM254" s="1" t="s">
         <v>118</v>
       </c>
       <c r="BT254" s="1" t="s">
-        <v>3307</v>
+        <v>3304</v>
       </c>
       <c r="BU254" s="1" t="s">
         <v>122</v>
       </c>
       <c r="BW254" s="1" t="s">
-        <v>3308</v>
+        <v>3305</v>
       </c>
       <c r="BX254" s="1">
         <v>0</v>
@@ -58359,16 +58251,16 @@
         <v>112</v>
       </c>
       <c r="CC254" s="1" t="s">
-        <v>3309</v>
+        <v>3306</v>
       </c>
       <c r="CD254" s="1" t="s">
         <v>1329</v>
       </c>
       <c r="CE254" s="1" t="s">
-        <v>3310</v>
+        <v>3307</v>
       </c>
       <c r="CG254" s="1" t="s">
-        <v>3284</v>
+        <v>3281</v>
       </c>
       <c r="CH254" s="1" t="s">
         <v>130</v>
@@ -58382,10 +58274,10 @@
         <v>87</v>
       </c>
       <c r="B255" s="1" t="s">
-        <v>3137</v>
+        <v>3134</v>
       </c>
       <c r="C255" s="1" t="s">
-        <v>3138</v>
+        <v>3135</v>
       </c>
       <c r="D255" s="1" t="s">
         <v>1320</v>
@@ -58400,7 +58292,7 @@
         <v>93</v>
       </c>
       <c r="H255" s="1" t="s">
-        <v>3139</v>
+        <v>3136</v>
       </c>
       <c r="I255" s="1" t="s">
         <v>1320</v>
@@ -58409,19 +58301,19 @@
         <v>154</v>
       </c>
       <c r="K255" s="1" t="s">
-        <v>3311</v>
+        <v>3308</v>
       </c>
       <c r="L255" s="1" t="s">
-        <v>3312</v>
+        <v>3309</v>
       </c>
       <c r="N255" s="1" t="s">
-        <v>3313</v>
+        <v>3310</v>
       </c>
       <c r="O255" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P255" s="1" t="s">
-        <v>3314</v>
+        <v>3311</v>
       </c>
       <c r="Q255" s="3">
         <v>28808</v>
@@ -58466,7 +58358,7 @@
         <v>0</v>
       </c>
       <c r="AN255" s="1" t="s">
-        <v>3315</v>
+        <v>3312</v>
       </c>
       <c r="AO255" s="1">
         <v>0</v>
@@ -58502,19 +58394,19 @@
         <v>21</v>
       </c>
       <c r="BD255" s="1" t="s">
-        <v>3316</v>
+        <v>3313</v>
       </c>
       <c r="BG255" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH255" s="1" t="s">
-        <v>3317</v>
+        <v>3314</v>
       </c>
       <c r="BM255" s="1" t="s">
         <v>118</v>
       </c>
       <c r="BT255" s="1" t="s">
-        <v>3318</v>
+        <v>3315</v>
       </c>
       <c r="BU255" s="1" t="s">
         <v>122</v>
@@ -58535,16 +58427,16 @@
         <v>112</v>
       </c>
       <c r="CC255" s="1" t="s">
-        <v>3319</v>
+        <v>3316</v>
       </c>
       <c r="CD255" s="1" t="s">
-        <v>2532</v>
+        <v>2531</v>
       </c>
       <c r="CE255" s="1" t="s">
-        <v>3320</v>
+        <v>3317</v>
       </c>
       <c r="CG255" s="1" t="s">
-        <v>3321</v>
+        <v>3318</v>
       </c>
       <c r="CH255" s="1" t="s">
         <v>130</v>
@@ -58558,10 +58450,10 @@
         <v>87</v>
       </c>
       <c r="B256" s="1" t="s">
-        <v>3137</v>
+        <v>3134</v>
       </c>
       <c r="C256" s="1" t="s">
-        <v>3138</v>
+        <v>3135</v>
       </c>
       <c r="D256" s="1" t="s">
         <v>1320</v>
@@ -58576,7 +58468,7 @@
         <v>93</v>
       </c>
       <c r="H256" s="1" t="s">
-        <v>3139</v>
+        <v>3136</v>
       </c>
       <c r="I256" s="1" t="s">
         <v>1320</v>
@@ -58585,19 +58477,19 @@
         <v>154</v>
       </c>
       <c r="K256" s="1" t="s">
-        <v>3322</v>
+        <v>3319</v>
       </c>
       <c r="L256" s="1" t="s">
-        <v>3323</v>
+        <v>3320</v>
       </c>
       <c r="N256" s="1" t="s">
-        <v>3324</v>
+        <v>3321</v>
       </c>
       <c r="O256" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P256" s="1" t="s">
-        <v>3325</v>
+        <v>3322</v>
       </c>
       <c r="R256" s="1" t="s">
         <v>138</v>
@@ -58621,7 +58513,7 @@
         <v>107</v>
       </c>
       <c r="AG256" s="1" t="s">
-        <v>2885</v>
+        <v>2883</v>
       </c>
       <c r="AH256" s="1" t="s">
         <v>394</v>
@@ -58636,7 +58528,7 @@
         <v>0</v>
       </c>
       <c r="AN256" s="1" t="s">
-        <v>3326</v>
+        <v>3323</v>
       </c>
       <c r="AO256" s="1">
         <v>0</v>
@@ -58666,19 +58558,19 @@
         <v>21</v>
       </c>
       <c r="BD256" s="1" t="s">
-        <v>3327</v>
+        <v>3324</v>
       </c>
       <c r="BG256" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH256" s="1" t="s">
-        <v>3328</v>
+        <v>3325</v>
       </c>
       <c r="BM256" s="1" t="s">
         <v>118</v>
       </c>
       <c r="BT256" s="1" t="s">
-        <v>3329</v>
+        <v>3326</v>
       </c>
       <c r="BU256" s="1" t="s">
         <v>122</v>
@@ -58696,16 +58588,16 @@
         <v>112</v>
       </c>
       <c r="CC256" s="1" t="s">
-        <v>3330</v>
+        <v>3327</v>
       </c>
       <c r="CD256" s="1" t="s">
         <v>320</v>
       </c>
       <c r="CE256" s="1" t="s">
-        <v>3331</v>
+        <v>3328</v>
       </c>
       <c r="CG256" s="1" t="s">
-        <v>3332</v>
+        <v>3329</v>
       </c>
       <c r="CH256" s="1" t="s">
         <v>130</v>
@@ -58719,10 +58611,10 @@
         <v>87</v>
       </c>
       <c r="B257" s="1" t="s">
-        <v>3137</v>
+        <v>3134</v>
       </c>
       <c r="C257" s="1" t="s">
-        <v>3138</v>
+        <v>3135</v>
       </c>
       <c r="D257" s="1" t="s">
         <v>1320</v>
@@ -58737,7 +58629,7 @@
         <v>93</v>
       </c>
       <c r="H257" s="1" t="s">
-        <v>3139</v>
+        <v>3136</v>
       </c>
       <c r="I257" s="1" t="s">
         <v>1320</v>
@@ -58746,19 +58638,19 @@
         <v>154</v>
       </c>
       <c r="K257" s="1" t="s">
-        <v>3333</v>
+        <v>3330</v>
       </c>
       <c r="L257" s="1" t="s">
-        <v>3334</v>
+        <v>3331</v>
       </c>
       <c r="N257" s="1" t="s">
-        <v>3335</v>
+        <v>3332</v>
       </c>
       <c r="O257" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P257" s="1" t="s">
-        <v>3336</v>
+        <v>3333</v>
       </c>
       <c r="R257" s="1" t="s">
         <v>138</v>
@@ -58836,19 +58728,19 @@
         <v>21</v>
       </c>
       <c r="BD257" s="1" t="s">
-        <v>3337</v>
+        <v>3334</v>
       </c>
       <c r="BG257" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH257" s="1" t="s">
-        <v>3338</v>
+        <v>3335</v>
       </c>
       <c r="BM257" s="1" t="s">
         <v>118</v>
       </c>
       <c r="BT257" s="1" t="s">
-        <v>3339</v>
+        <v>3336</v>
       </c>
       <c r="BU257" s="1" t="s">
         <v>122</v>
@@ -58866,16 +58758,16 @@
         <v>112</v>
       </c>
       <c r="CC257" s="1" t="s">
+        <v>3337</v>
+      </c>
+      <c r="CD257" s="1" t="s">
+        <v>3338</v>
+      </c>
+      <c r="CE257" s="1" t="s">
+        <v>3339</v>
+      </c>
+      <c r="CG257" s="1" t="s">
         <v>3340</v>
-      </c>
-      <c r="CD257" s="1" t="s">
-        <v>3341</v>
-      </c>
-      <c r="CE257" s="1" t="s">
-        <v>3342</v>
-      </c>
-      <c r="CG257" s="1" t="s">
-        <v>3343</v>
       </c>
       <c r="CH257" s="1" t="s">
         <v>130</v>
@@ -58889,10 +58781,10 @@
         <v>87</v>
       </c>
       <c r="B258" s="1" t="s">
-        <v>3137</v>
+        <v>3134</v>
       </c>
       <c r="C258" s="1" t="s">
-        <v>3138</v>
+        <v>3135</v>
       </c>
       <c r="D258" s="1" t="s">
         <v>1320</v>
@@ -58907,7 +58799,7 @@
         <v>93</v>
       </c>
       <c r="H258" s="1" t="s">
-        <v>3139</v>
+        <v>3136</v>
       </c>
       <c r="I258" s="1" t="s">
         <v>1320</v>
@@ -58916,19 +58808,19 @@
         <v>154</v>
       </c>
       <c r="K258" s="1" t="s">
-        <v>3344</v>
+        <v>3341</v>
       </c>
       <c r="L258" s="1" t="s">
-        <v>3345</v>
+        <v>3342</v>
       </c>
       <c r="N258" s="1" t="s">
-        <v>3346</v>
+        <v>3343</v>
       </c>
       <c r="O258" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P258" s="1" t="s">
-        <v>3347</v>
+        <v>3344</v>
       </c>
       <c r="Q258" s="3">
         <v>29466</v>
@@ -59009,19 +58901,19 @@
         <v>21</v>
       </c>
       <c r="BD258" s="1" t="s">
-        <v>3348</v>
+        <v>3345</v>
       </c>
       <c r="BG258" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH258" s="1" t="s">
-        <v>3349</v>
+        <v>3346</v>
       </c>
       <c r="BM258" s="1" t="s">
         <v>118</v>
       </c>
       <c r="BT258" s="1" t="s">
-        <v>3350</v>
+        <v>3347</v>
       </c>
       <c r="BU258" s="1" t="s">
         <v>122</v>
@@ -59039,16 +58931,16 @@
         <v>112</v>
       </c>
       <c r="CC258" s="1" t="s">
+        <v>3348</v>
+      </c>
+      <c r="CD258" s="1" t="s">
+        <v>3349</v>
+      </c>
+      <c r="CE258" s="1" t="s">
+        <v>3350</v>
+      </c>
+      <c r="CG258" s="1" t="s">
         <v>3351</v>
-      </c>
-      <c r="CD258" s="1" t="s">
-        <v>3352</v>
-      </c>
-      <c r="CE258" s="1" t="s">
-        <v>3353</v>
-      </c>
-      <c r="CG258" s="1" t="s">
-        <v>3354</v>
       </c>
       <c r="CH258" s="1" t="s">
         <v>130</v>
@@ -59062,10 +58954,10 @@
         <v>87</v>
       </c>
       <c r="B259" s="1" t="s">
-        <v>3137</v>
+        <v>3134</v>
       </c>
       <c r="C259" s="1" t="s">
-        <v>3138</v>
+        <v>3135</v>
       </c>
       <c r="D259" s="1" t="s">
         <v>1320</v>
@@ -59080,7 +58972,7 @@
         <v>93</v>
       </c>
       <c r="H259" s="1" t="s">
-        <v>3139</v>
+        <v>3136</v>
       </c>
       <c r="I259" s="1" t="s">
         <v>1320</v>
@@ -59089,22 +58981,22 @@
         <v>154</v>
       </c>
       <c r="K259" s="1" t="s">
-        <v>3355</v>
+        <v>3352</v>
       </c>
       <c r="L259" s="1" t="s">
-        <v>3356</v>
+        <v>3353</v>
       </c>
       <c r="N259" s="1" t="s">
-        <v>3357</v>
+        <v>3354</v>
       </c>
       <c r="O259" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P259" s="1" t="s">
-        <v>3358</v>
+        <v>3355</v>
       </c>
       <c r="Q259" t="s">
-        <v>3359</v>
+        <v>3356</v>
       </c>
       <c r="R259" s="1" t="s">
         <v>138</v>
@@ -59146,7 +59038,7 @@
         <v>0</v>
       </c>
       <c r="AN259" s="1" t="s">
-        <v>3144</v>
+        <v>3141</v>
       </c>
       <c r="AO259" s="1">
         <v>0</v>
@@ -59179,19 +59071,19 @@
         <v>21</v>
       </c>
       <c r="BD259" s="1" t="s">
-        <v>3360</v>
+        <v>3357</v>
       </c>
       <c r="BG259" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH259" s="1" t="s">
-        <v>3361</v>
+        <v>3358</v>
       </c>
       <c r="BM259" s="1" t="s">
         <v>118</v>
       </c>
       <c r="BT259" s="1" t="s">
-        <v>3362</v>
+        <v>3359</v>
       </c>
       <c r="BU259" s="1" t="s">
         <v>122</v>
@@ -59209,16 +59101,16 @@
         <v>112</v>
       </c>
       <c r="CC259" s="1" t="s">
+        <v>3360</v>
+      </c>
+      <c r="CD259" s="1" t="s">
+        <v>3361</v>
+      </c>
+      <c r="CE259" s="1" t="s">
+        <v>3362</v>
+      </c>
+      <c r="CG259" s="1" t="s">
         <v>3363</v>
-      </c>
-      <c r="CD259" s="1" t="s">
-        <v>3364</v>
-      </c>
-      <c r="CE259" s="1" t="s">
-        <v>3365</v>
-      </c>
-      <c r="CG259" s="1" t="s">
-        <v>3366</v>
       </c>
       <c r="CH259" s="1" t="s">
         <v>130</v>
@@ -59259,19 +59151,19 @@
         <v>96</v>
       </c>
       <c r="K260" s="1" t="s">
-        <v>3367</v>
+        <v>3364</v>
       </c>
       <c r="L260" s="1" t="s">
-        <v>3368</v>
+        <v>3365</v>
       </c>
       <c r="N260" s="1" t="s">
-        <v>3369</v>
+        <v>3366</v>
       </c>
       <c r="O260" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P260" s="1" t="s">
-        <v>3370</v>
+        <v>3367</v>
       </c>
       <c r="Q260" s="3">
         <v>31561</v>
@@ -59355,13 +59247,13 @@
         <v>21</v>
       </c>
       <c r="BD260" s="1" t="s">
-        <v>3371</v>
+        <v>3368</v>
       </c>
       <c r="BG260" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH260" s="1" t="s">
-        <v>3372</v>
+        <v>3369</v>
       </c>
       <c r="BM260" s="1" t="s">
         <v>118</v>
@@ -59370,7 +59262,7 @@
         <v>106</v>
       </c>
       <c r="BT260" s="1" t="s">
-        <v>3373</v>
+        <v>3370</v>
       </c>
       <c r="BU260" s="1" t="s">
         <v>122</v>
@@ -59400,10 +59292,10 @@
         <v>1312</v>
       </c>
       <c r="CE260" s="1" t="s">
-        <v>3374</v>
+        <v>3371</v>
       </c>
       <c r="CG260" s="1" t="s">
-        <v>3375</v>
+        <v>3372</v>
       </c>
       <c r="CH260" s="1" t="s">
         <v>130</v>
@@ -59444,19 +59336,19 @@
         <v>96</v>
       </c>
       <c r="K261" s="1" t="s">
-        <v>3376</v>
+        <v>3373</v>
       </c>
       <c r="L261" s="1" t="s">
-        <v>3377</v>
+        <v>3374</v>
       </c>
       <c r="N261" s="1" t="s">
-        <v>3378</v>
+        <v>3375</v>
       </c>
       <c r="O261" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P261" s="1" t="s">
-        <v>3379</v>
+        <v>3376</v>
       </c>
       <c r="Q261" s="3">
         <v>32847</v>
@@ -59540,13 +59432,13 @@
         <v>21</v>
       </c>
       <c r="BD261" s="1" t="s">
-        <v>3380</v>
+        <v>3377</v>
       </c>
       <c r="BG261" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH261" s="1" t="s">
-        <v>3381</v>
+        <v>3378</v>
       </c>
       <c r="BM261" s="1" t="s">
         <v>118</v>
@@ -59558,13 +59450,13 @@
         <v>168</v>
       </c>
       <c r="BR261" s="1" t="s">
-        <v>3382</v>
+        <v>3379</v>
       </c>
       <c r="BS261" s="3">
         <v>5347</v>
       </c>
       <c r="BT261" s="1" t="s">
-        <v>3383</v>
+        <v>3380</v>
       </c>
       <c r="BU261" s="1" t="s">
         <v>122</v>
@@ -59588,16 +59480,16 @@
         <v>112</v>
       </c>
       <c r="CC261" s="1" t="s">
-        <v>3384</v>
+        <v>3381</v>
       </c>
       <c r="CD261" s="1" t="s">
         <v>474</v>
       </c>
       <c r="CE261" s="1" t="s">
-        <v>3385</v>
+        <v>3382</v>
       </c>
       <c r="CG261" s="1" t="s">
-        <v>3386</v>
+        <v>3383</v>
       </c>
       <c r="CH261" s="1" t="s">
         <v>130</v>
@@ -59638,19 +59530,19 @@
         <v>96</v>
       </c>
       <c r="K262" s="1" t="s">
-        <v>3387</v>
+        <v>3384</v>
       </c>
       <c r="L262" s="1" t="s">
-        <v>3388</v>
+        <v>3385</v>
       </c>
       <c r="N262" s="1" t="s">
-        <v>3389</v>
+        <v>3386</v>
       </c>
       <c r="O262" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P262" s="1" t="s">
-        <v>3390</v>
+        <v>3387</v>
       </c>
       <c r="Q262" s="3">
         <v>29297</v>
@@ -59731,13 +59623,13 @@
         <v>21</v>
       </c>
       <c r="BD262" s="1" t="s">
-        <v>3391</v>
+        <v>3388</v>
       </c>
       <c r="BG262" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH262" s="1" t="s">
-        <v>3392</v>
+        <v>3389</v>
       </c>
       <c r="BM262" s="1" t="s">
         <v>118</v>
@@ -59746,13 +59638,13 @@
         <v>238</v>
       </c>
       <c r="BR262" s="1" t="s">
-        <v>3393</v>
+        <v>3390</v>
       </c>
       <c r="BS262" s="3">
         <v>5480</v>
       </c>
       <c r="BT262" s="1" t="s">
-        <v>3394</v>
+        <v>3391</v>
       </c>
       <c r="BU262" s="1" t="s">
         <v>122</v>
@@ -59779,13 +59671,13 @@
         <v>490</v>
       </c>
       <c r="CD262" s="1" t="s">
-        <v>3395</v>
+        <v>3392</v>
       </c>
       <c r="CE262" s="1" t="s">
-        <v>3396</v>
+        <v>3393</v>
       </c>
       <c r="CG262" s="1" t="s">
-        <v>3397</v>
+        <v>3394</v>
       </c>
       <c r="CH262" s="1" t="s">
         <v>130</v>
@@ -59826,19 +59718,19 @@
         <v>96</v>
       </c>
       <c r="K263" s="1" t="s">
-        <v>3398</v>
+        <v>3395</v>
       </c>
       <c r="L263" s="1" t="s">
-        <v>2985</v>
+        <v>2982</v>
       </c>
       <c r="N263" s="1" t="s">
-        <v>3399</v>
+        <v>3396</v>
       </c>
       <c r="O263" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P263" s="1" t="s">
-        <v>3400</v>
+        <v>3397</v>
       </c>
       <c r="Q263" s="3">
         <v>27288</v>
@@ -59871,10 +59763,10 @@
         <v>107</v>
       </c>
       <c r="AG263" s="1" t="s">
-        <v>3401</v>
+        <v>3398</v>
       </c>
       <c r="AH263" s="1" t="s">
-        <v>3402</v>
+        <v>3399</v>
       </c>
       <c r="AJ263" s="1" t="s">
         <v>110</v>
@@ -59922,13 +59814,13 @@
         <v>21</v>
       </c>
       <c r="BD263" s="1" t="s">
-        <v>3403</v>
+        <v>3400</v>
       </c>
       <c r="BG263" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH263" s="1" t="s">
-        <v>3404</v>
+        <v>3401</v>
       </c>
       <c r="BM263" s="1" t="s">
         <v>118</v>
@@ -59937,13 +59829,13 @@
         <v>238</v>
       </c>
       <c r="BR263" s="1" t="s">
-        <v>3405</v>
+        <v>3402</v>
       </c>
       <c r="BS263" s="3">
         <v>2302</v>
       </c>
       <c r="BT263" s="1" t="s">
-        <v>3406</v>
+        <v>3403</v>
       </c>
       <c r="BU263" s="1" t="s">
         <v>122</v>
@@ -59967,16 +59859,16 @@
         <v>92</v>
       </c>
       <c r="CC263" s="1" t="s">
+        <v>3404</v>
+      </c>
+      <c r="CD263" s="1" t="s">
+        <v>3405</v>
+      </c>
+      <c r="CE263" s="1" t="s">
+        <v>3406</v>
+      </c>
+      <c r="CG263" s="1" t="s">
         <v>3407</v>
-      </c>
-      <c r="CD263" s="1" t="s">
-        <v>3408</v>
-      </c>
-      <c r="CE263" s="1" t="s">
-        <v>3409</v>
-      </c>
-      <c r="CG263" s="1" t="s">
-        <v>3410</v>
       </c>
       <c r="CH263" s="1" t="s">
         <v>130</v>
@@ -59996,7 +59888,7 @@
         <v>152</v>
       </c>
       <c r="D264" s="1" t="s">
-        <v>2724</v>
+        <v>2723</v>
       </c>
       <c r="E264" s="1" t="s">
         <v>154</v>
@@ -60017,19 +59909,19 @@
         <v>96</v>
       </c>
       <c r="K264" s="1" t="s">
-        <v>3411</v>
+        <v>3408</v>
       </c>
       <c r="L264" s="1" t="s">
-        <v>3117</v>
+        <v>3114</v>
       </c>
       <c r="N264" s="1" t="s">
-        <v>3412</v>
+        <v>3409</v>
       </c>
       <c r="O264" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P264" s="1" t="s">
-        <v>3413</v>
+        <v>3410</v>
       </c>
       <c r="Q264" s="3">
         <v>21029</v>
@@ -60062,10 +59954,10 @@
         <v>107</v>
       </c>
       <c r="AG264" s="1" t="s">
-        <v>3401</v>
+        <v>3398</v>
       </c>
       <c r="AH264" s="1" t="s">
-        <v>3402</v>
+        <v>3399</v>
       </c>
       <c r="AI264" s="1" t="s">
         <v>112</v>
@@ -60116,19 +60008,19 @@
         <v>21</v>
       </c>
       <c r="BD264" s="1" t="s">
-        <v>3414</v>
+        <v>3411</v>
       </c>
       <c r="BG264" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH264" s="1" t="s">
-        <v>3415</v>
+        <v>3412</v>
       </c>
       <c r="BM264" s="1" t="s">
         <v>118</v>
       </c>
       <c r="BT264" s="1" t="s">
-        <v>3416</v>
+        <v>3413</v>
       </c>
       <c r="BU264" s="1" t="s">
         <v>122</v>
@@ -60143,7 +60035,7 @@
         <v>111</v>
       </c>
       <c r="BZ264" s="1" t="s">
-        <v>2734</v>
+        <v>2733</v>
       </c>
       <c r="CA264" s="1" t="s">
         <v>124</v>
@@ -60152,16 +60044,16 @@
         <v>92</v>
       </c>
       <c r="CC264" s="1" t="s">
-        <v>3417</v>
+        <v>3414</v>
       </c>
       <c r="CD264" s="1" t="s">
-        <v>3417</v>
+        <v>3414</v>
       </c>
       <c r="CE264" s="1" t="s">
-        <v>3418</v>
+        <v>3415</v>
       </c>
       <c r="CG264" s="1" t="s">
-        <v>3419</v>
+        <v>3416</v>
       </c>
       <c r="CH264" s="1" t="s">
         <v>130</v>
@@ -60202,16 +60094,16 @@
         <v>96</v>
       </c>
       <c r="K265" s="1" t="s">
-        <v>3420</v>
+        <v>3417</v>
       </c>
       <c r="L265" s="1" t="s">
-        <v>3421</v>
+        <v>3418</v>
       </c>
       <c r="M265" s="1" t="s">
-        <v>3017</v>
+        <v>3014</v>
       </c>
       <c r="N265" s="1" t="s">
-        <v>3422</v>
+        <v>3419</v>
       </c>
       <c r="O265" s="1" t="s">
         <v>100</v>
@@ -60247,13 +60139,13 @@
         <v>43847</v>
       </c>
       <c r="AD265" s="1" t="s">
-        <v>3423</v>
+        <v>3420</v>
       </c>
       <c r="AF265" s="1" t="s">
         <v>107</v>
       </c>
       <c r="AG265" s="1" t="s">
-        <v>2632</v>
+        <v>2631</v>
       </c>
       <c r="AH265" s="1" t="s">
         <v>2042</v>
@@ -60298,7 +60190,7 @@
         <v>112</v>
       </c>
       <c r="AZ265" s="1" t="s">
-        <v>2832</v>
+        <v>2831</v>
       </c>
       <c r="BB265" s="1">
         <v>2</v>
@@ -60307,10 +60199,10 @@
         <v>21</v>
       </c>
       <c r="BD265" s="1" t="s">
-        <v>3424</v>
+        <v>3421</v>
       </c>
       <c r="BH265" s="1" t="s">
-        <v>3425</v>
+        <v>3422</v>
       </c>
       <c r="BM265" s="1" t="s">
         <v>118</v>
@@ -60322,13 +60214,13 @@
         <v>119</v>
       </c>
       <c r="BR265" s="1" t="s">
-        <v>3426</v>
+        <v>3423</v>
       </c>
       <c r="BS265" s="3">
         <v>34808</v>
       </c>
       <c r="BT265" s="1" t="s">
-        <v>3427</v>
+        <v>3424</v>
       </c>
       <c r="BU265" s="1" t="s">
         <v>122</v>
@@ -60346,13 +60238,13 @@
         <v>112</v>
       </c>
       <c r="CC265" s="1" t="s">
-        <v>3428</v>
+        <v>3425</v>
       </c>
       <c r="CD265" s="1" t="s">
-        <v>3429</v>
+        <v>3426</v>
       </c>
       <c r="CE265" s="1" t="s">
-        <v>3430</v>
+        <v>3427</v>
       </c>
       <c r="CG265" s="1" t="s">
         <v>1955</v>
@@ -60369,10 +60261,10 @@
         <v>87</v>
       </c>
       <c r="B266" s="1" t="s">
-        <v>3137</v>
+        <v>3134</v>
       </c>
       <c r="C266" s="1" t="s">
-        <v>3138</v>
+        <v>3135</v>
       </c>
       <c r="D266" s="1" t="s">
         <v>1320</v>
@@ -60396,16 +60288,16 @@
         <v>154</v>
       </c>
       <c r="K266" s="1" t="s">
-        <v>3431</v>
+        <v>3428</v>
       </c>
       <c r="L266" s="1" t="s">
-        <v>3432</v>
+        <v>3429</v>
       </c>
       <c r="M266" s="1" t="s">
-        <v>3017</v>
+        <v>3014</v>
       </c>
       <c r="N266" s="1" t="s">
-        <v>3433</v>
+        <v>3430</v>
       </c>
       <c r="O266" s="1" t="s">
         <v>100</v>
@@ -60462,7 +60354,7 @@
         <v>0</v>
       </c>
       <c r="AN266" s="1" t="s">
-        <v>3434</v>
+        <v>3431</v>
       </c>
       <c r="AO266" s="1">
         <v>0</v>
@@ -60492,7 +60384,7 @@
         <v>112</v>
       </c>
       <c r="AZ266" s="1" t="s">
-        <v>3435</v>
+        <v>3432</v>
       </c>
       <c r="BB266" s="1">
         <v>2</v>
@@ -60501,13 +60393,13 @@
         <v>21</v>
       </c>
       <c r="BD266" s="1" t="s">
-        <v>3436</v>
+        <v>3433</v>
       </c>
       <c r="BM266" s="1" t="s">
         <v>118</v>
       </c>
       <c r="BT266" s="1" t="s">
-        <v>3437</v>
+        <v>3434</v>
       </c>
       <c r="BU266" s="1" t="s">
         <v>122</v>
@@ -60525,13 +60417,13 @@
         <v>112</v>
       </c>
       <c r="CC266" s="1" t="s">
-        <v>3438</v>
+        <v>3435</v>
       </c>
       <c r="CD266" s="1" t="s">
-        <v>3439</v>
+        <v>3436</v>
       </c>
       <c r="CE266" s="1" t="s">
-        <v>3440</v>
+        <v>3437</v>
       </c>
       <c r="CG266" s="1" t="s">
         <v>130</v>
@@ -60575,16 +60467,16 @@
         <v>96</v>
       </c>
       <c r="K267" s="1" t="s">
-        <v>3441</v>
+        <v>3438</v>
       </c>
       <c r="L267" s="1" t="s">
-        <v>3442</v>
+        <v>3439</v>
       </c>
       <c r="M267" s="1" t="s">
-        <v>3017</v>
+        <v>3014</v>
       </c>
       <c r="N267" s="1" t="s">
-        <v>3443</v>
+        <v>3440</v>
       </c>
       <c r="O267" s="1" t="s">
         <v>100</v>
@@ -60623,7 +60515,7 @@
         <v>44246</v>
       </c>
       <c r="AD267" s="1" t="s">
-        <v>3444</v>
+        <v>3441</v>
       </c>
       <c r="AF267" s="1" t="s">
         <v>107</v>
@@ -60680,10 +60572,10 @@
         <v>21</v>
       </c>
       <c r="BD267" s="1" t="s">
-        <v>3445</v>
+        <v>3442</v>
       </c>
       <c r="BH267" s="1" t="s">
-        <v>3446</v>
+        <v>3443</v>
       </c>
       <c r="BM267" s="1" t="s">
         <v>118</v>
@@ -60692,7 +60584,7 @@
         <v>106</v>
       </c>
       <c r="BT267" s="1" t="s">
-        <v>3447</v>
+        <v>3444</v>
       </c>
       <c r="BU267" s="1" t="s">
         <v>122</v>
@@ -60716,13 +60608,13 @@
         <v>112</v>
       </c>
       <c r="CC267" s="1" t="s">
-        <v>3448</v>
+        <v>3445</v>
       </c>
       <c r="CD267" s="1" t="s">
         <v>147</v>
       </c>
       <c r="CE267" s="1" t="s">
-        <v>3449</v>
+        <v>3446</v>
       </c>
       <c r="CG267" s="1" t="s">
         <v>130</v>
@@ -60766,16 +60658,16 @@
         <v>96</v>
       </c>
       <c r="K268" s="1" t="s">
-        <v>3450</v>
+        <v>3447</v>
       </c>
       <c r="L268" s="1" t="s">
-        <v>3451</v>
+        <v>3448</v>
       </c>
       <c r="M268" s="1" t="s">
-        <v>3017</v>
+        <v>3014</v>
       </c>
       <c r="N268" s="1" t="s">
-        <v>3452</v>
+        <v>3449</v>
       </c>
       <c r="O268" s="1" t="s">
         <v>100</v>
@@ -60814,7 +60706,7 @@
         <v>44267</v>
       </c>
       <c r="AD268" s="1" t="s">
-        <v>3453</v>
+        <v>3450</v>
       </c>
       <c r="AF268" s="1" t="s">
         <v>107</v>
@@ -60871,10 +60763,10 @@
         <v>21</v>
       </c>
       <c r="BD268" s="1" t="s">
-        <v>3454</v>
+        <v>3451</v>
       </c>
       <c r="BH268" s="1" t="s">
-        <v>3455</v>
+        <v>3452</v>
       </c>
       <c r="BM268" s="1" t="s">
         <v>118</v>
@@ -60886,13 +60778,13 @@
         <v>119</v>
       </c>
       <c r="BR268" s="1" t="s">
-        <v>3456</v>
+        <v>3453</v>
       </c>
       <c r="BS268" s="3">
         <v>35711</v>
       </c>
       <c r="BT268" s="1" t="s">
-        <v>3457</v>
+        <v>3454</v>
       </c>
       <c r="BU268" s="1" t="s">
         <v>122</v>
@@ -60916,7 +60808,7 @@
         <v>403</v>
       </c>
       <c r="CE268" s="1" t="s">
-        <v>3458</v>
+        <v>3455</v>
       </c>
       <c r="CG268" s="1" t="s">
         <v>130</v>
@@ -60972,7 +60864,7 @@
         <v>100</v>
       </c>
       <c r="P269" s="1" t="s">
-        <v>3459</v>
+        <v>3456</v>
       </c>
       <c r="Q269" s="3">
         <v>24907</v>
@@ -61062,13 +60954,13 @@
         <v>21</v>
       </c>
       <c r="BD269" s="1" t="s">
-        <v>3460</v>
+        <v>3457</v>
       </c>
       <c r="BG269" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH269" s="1" t="s">
-        <v>3461</v>
+        <v>3458</v>
       </c>
       <c r="BM269" s="1" t="s">
         <v>118</v>
@@ -61110,7 +61002,7 @@
         <v>278</v>
       </c>
       <c r="CG269" s="1" t="s">
-        <v>3462</v>
+        <v>3459</v>
       </c>
       <c r="CH269" s="1" t="s">
         <v>130</v>
@@ -61166,7 +61058,7 @@
         <v>100</v>
       </c>
       <c r="P270" s="1" t="s">
-        <v>3463</v>
+        <v>3460</v>
       </c>
       <c r="Q270" s="3">
         <v>21827</v>
@@ -61256,13 +61148,13 @@
         <v>21</v>
       </c>
       <c r="BD270" s="1" t="s">
-        <v>3464</v>
+        <v>3461</v>
       </c>
       <c r="BG270" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH270" s="1" t="s">
-        <v>3465</v>
+        <v>3462</v>
       </c>
       <c r="BM270" s="1" t="s">
         <v>118</v>
@@ -61310,7 +61202,7 @@
         <v>307</v>
       </c>
       <c r="CG270" s="1" t="s">
-        <v>3466</v>
+        <v>3463</v>
       </c>
       <c r="CH270" s="1" t="s">
         <v>130</v>
@@ -61363,7 +61255,7 @@
         <v>100</v>
       </c>
       <c r="P271" s="1" t="s">
-        <v>3467</v>
+        <v>3464</v>
       </c>
       <c r="Q271" s="3">
         <v>20035</v>
@@ -61456,13 +61348,13 @@
         <v>21</v>
       </c>
       <c r="BD271" s="1" t="s">
-        <v>3468</v>
+        <v>3465</v>
       </c>
       <c r="BG271" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH271" s="1" t="s">
-        <v>3469</v>
+        <v>3466</v>
       </c>
       <c r="BM271" s="1" t="s">
         <v>118</v>
@@ -61504,7 +61396,7 @@
         <v>1330</v>
       </c>
       <c r="CG271" s="1" t="s">
-        <v>3470</v>
+        <v>3467</v>
       </c>
       <c r="CH271" s="1" t="s">
         <v>130</v>
@@ -61557,7 +61449,7 @@
         <v>100</v>
       </c>
       <c r="P272" s="1" t="s">
-        <v>3471</v>
+        <v>3468</v>
       </c>
       <c r="Q272" s="3">
         <v>21808</v>
@@ -61650,13 +61542,13 @@
         <v>21</v>
       </c>
       <c r="BD272" s="1" t="s">
-        <v>3472</v>
+        <v>3469</v>
       </c>
       <c r="BG272" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH272" s="1" t="s">
-        <v>3473</v>
+        <v>3470</v>
       </c>
       <c r="BM272" s="1" t="s">
         <v>118</v>
@@ -61698,7 +61590,7 @@
         <v>1482</v>
       </c>
       <c r="CG272" s="1" t="s">
-        <v>3474</v>
+        <v>3471</v>
       </c>
       <c r="CH272" s="1" t="s">
         <v>130</v>
@@ -61751,7 +61643,7 @@
         <v>100</v>
       </c>
       <c r="P273" s="1" t="s">
-        <v>3475</v>
+        <v>3472</v>
       </c>
       <c r="Q273" s="3">
         <v>23013</v>
@@ -61844,13 +61736,13 @@
         <v>21</v>
       </c>
       <c r="BD273" s="1" t="s">
-        <v>3476</v>
+        <v>3473</v>
       </c>
       <c r="BG273" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH273" s="1" t="s">
-        <v>3477</v>
+        <v>3474</v>
       </c>
       <c r="BM273" s="1" t="s">
         <v>118</v>
@@ -61895,7 +61787,7 @@
         <v>1585</v>
       </c>
       <c r="CG273" s="1" t="s">
-        <v>3478</v>
+        <v>3475</v>
       </c>
       <c r="CH273" s="1" t="s">
         <v>130</v>
@@ -61948,7 +61840,7 @@
         <v>100</v>
       </c>
       <c r="P274" s="1" t="s">
-        <v>3479</v>
+        <v>3476</v>
       </c>
       <c r="Q274" s="3">
         <v>22935</v>
@@ -62038,13 +61930,13 @@
         <v>21</v>
       </c>
       <c r="BD274" s="1" t="s">
-        <v>3480</v>
+        <v>3477</v>
       </c>
       <c r="BG274" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH274" s="1" t="s">
-        <v>3481</v>
+        <v>3478</v>
       </c>
       <c r="BM274" s="1" t="s">
         <v>118</v>
@@ -62092,7 +61984,7 @@
         <v>1765</v>
       </c>
       <c r="CG274" s="1" t="s">
-        <v>3482</v>
+        <v>3479</v>
       </c>
       <c r="CH274" s="1" t="s">
         <v>130</v>
@@ -62145,7 +62037,7 @@
         <v>100</v>
       </c>
       <c r="P275" s="1" t="s">
-        <v>3483</v>
+        <v>3480</v>
       </c>
       <c r="Q275" s="3">
         <v>22447</v>
@@ -62232,13 +62124,13 @@
         <v>21</v>
       </c>
       <c r="BD275" s="1" t="s">
-        <v>3484</v>
+        <v>3481</v>
       </c>
       <c r="BG275" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH275" s="1" t="s">
-        <v>3485</v>
+        <v>3482</v>
       </c>
       <c r="BM275" s="1" t="s">
         <v>118</v>
@@ -62277,7 +62169,7 @@
         <v>1915</v>
       </c>
       <c r="CG275" s="1" t="s">
-        <v>3486</v>
+        <v>3483</v>
       </c>
       <c r="CH275" s="1" t="s">
         <v>130</v>
@@ -62330,7 +62222,7 @@
         <v>100</v>
       </c>
       <c r="P276" s="1" t="s">
-        <v>3487</v>
+        <v>3484</v>
       </c>
       <c r="Q276" s="3">
         <v>26397</v>
@@ -62420,13 +62312,13 @@
         <v>21</v>
       </c>
       <c r="BD276" s="1" t="s">
-        <v>3488</v>
+        <v>3485</v>
       </c>
       <c r="BG276" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH276" s="1" t="s">
-        <v>3485</v>
+        <v>3482</v>
       </c>
       <c r="BM276" s="1" t="s">
         <v>118</v>
@@ -62459,7 +62351,7 @@
         <v>2192</v>
       </c>
       <c r="CG276" s="1" t="s">
-        <v>3486</v>
+        <v>3483</v>
       </c>
       <c r="CH276" s="1" t="s">
         <v>130</v>
@@ -62512,7 +62404,7 @@
         <v>100</v>
       </c>
       <c r="P277" s="1" t="s">
-        <v>3489</v>
+        <v>3486</v>
       </c>
       <c r="Q277" s="3">
         <v>27862</v>
@@ -62605,13 +62497,13 @@
         <v>21</v>
       </c>
       <c r="BD277" s="1" t="s">
-        <v>3490</v>
+        <v>3487</v>
       </c>
       <c r="BG277" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH277" s="1" t="s">
-        <v>3491</v>
+        <v>3488</v>
       </c>
       <c r="BM277" s="1" t="s">
         <v>118</v>
@@ -62662,7 +62554,7 @@
         <v>2248</v>
       </c>
       <c r="CG277" s="1" t="s">
-        <v>3492</v>
+        <v>3489</v>
       </c>
       <c r="CH277" s="1" t="s">
         <v>130</v>
@@ -62703,19 +62595,19 @@
         <v>96</v>
       </c>
       <c r="K278" s="1" t="s">
+        <v>2449</v>
+      </c>
+      <c r="L278" s="1" t="s">
         <v>2450</v>
       </c>
-      <c r="L278" s="1" t="s">
+      <c r="N278" s="1" t="s">
         <v>2451</v>
-      </c>
-      <c r="N278" s="1" t="s">
-        <v>2452</v>
       </c>
       <c r="O278" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P278" s="1" t="s">
-        <v>3493</v>
+        <v>3490</v>
       </c>
       <c r="Q278" s="3">
         <v>27241</v>
@@ -62744,12 +62636,7 @@
       <c r="AB278" s="1" t="s">
         <v>1320</v>
       </c>
-      <c r="AC278" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD278" s="1" t="s">
-        <v>2439</v>
-      </c>
+      <c r="AC278" s="3"/>
       <c r="AF278" s="1" t="s">
         <v>107</v>
       </c>
@@ -62799,7 +62686,7 @@
         <v>112</v>
       </c>
       <c r="AZ278" s="1" t="s">
-        <v>2454</v>
+        <v>2453</v>
       </c>
       <c r="BA278" s="1" t="s">
         <v>289</v>
@@ -62811,13 +62698,13 @@
         <v>21</v>
       </c>
       <c r="BD278" s="1" t="s">
-        <v>3494</v>
+        <v>3491</v>
       </c>
       <c r="BG278" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH278" s="1" t="s">
-        <v>3495</v>
+        <v>3492</v>
       </c>
       <c r="BM278" s="1" t="s">
         <v>118</v>
@@ -62826,13 +62713,13 @@
         <v>102</v>
       </c>
       <c r="BR278" s="1" t="s">
-        <v>2457</v>
+        <v>2456</v>
       </c>
       <c r="BS278" s="3">
         <v>36949</v>
       </c>
       <c r="BT278" s="1" t="s">
-        <v>2458</v>
+        <v>2457</v>
       </c>
       <c r="BU278" s="1" t="s">
         <v>122</v>
@@ -62856,16 +62743,16 @@
         <v>112</v>
       </c>
       <c r="CC278" s="1" t="s">
-        <v>2459</v>
+        <v>2458</v>
       </c>
       <c r="CD278" s="1" t="s">
         <v>2125</v>
       </c>
       <c r="CE278" s="1" t="s">
-        <v>2460</v>
+        <v>2459</v>
       </c>
       <c r="CG278" s="1" t="s">
-        <v>3496</v>
+        <v>3493</v>
       </c>
       <c r="CH278" s="1" t="s">
         <v>130</v>
@@ -62879,10 +62766,10 @@
         <v>87</v>
       </c>
       <c r="B279" s="1" t="s">
-        <v>3137</v>
+        <v>3134</v>
       </c>
       <c r="C279" s="1" t="s">
-        <v>3138</v>
+        <v>3135</v>
       </c>
       <c r="D279" s="1" t="s">
         <v>1320</v>
@@ -62897,7 +62784,7 @@
         <v>93</v>
       </c>
       <c r="H279" s="1" t="s">
-        <v>3139</v>
+        <v>3136</v>
       </c>
       <c r="I279" s="1" t="s">
         <v>1320</v>
@@ -62906,19 +62793,19 @@
         <v>154</v>
       </c>
       <c r="K279" s="1" t="s">
-        <v>3203</v>
+        <v>3200</v>
       </c>
       <c r="L279" s="1" t="s">
-        <v>3204</v>
+        <v>3201</v>
       </c>
       <c r="N279" s="1" t="s">
-        <v>3205</v>
+        <v>3202</v>
       </c>
       <c r="O279" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P279" s="1" t="s">
-        <v>3497</v>
+        <v>3494</v>
       </c>
       <c r="Q279" s="3">
         <v>23289</v>
@@ -62966,7 +62853,7 @@
         <v>0</v>
       </c>
       <c r="AN279" s="1" t="s">
-        <v>3207</v>
+        <v>3204</v>
       </c>
       <c r="AO279" s="1">
         <v>0</v>
@@ -63005,19 +62892,19 @@
         <v>21</v>
       </c>
       <c r="BD279" s="1" t="s">
-        <v>3498</v>
+        <v>3495</v>
       </c>
       <c r="BG279" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH279" s="1" t="s">
-        <v>3499</v>
+        <v>3496</v>
       </c>
       <c r="BM279" s="1" t="s">
         <v>118</v>
       </c>
       <c r="BT279" s="1" t="s">
-        <v>3210</v>
+        <v>3207</v>
       </c>
       <c r="BU279" s="1" t="s">
         <v>122</v>
@@ -63038,16 +62925,16 @@
         <v>112</v>
       </c>
       <c r="CC279" s="1" t="s">
-        <v>3211</v>
+        <v>3208</v>
       </c>
       <c r="CD279" s="1" t="s">
         <v>1062</v>
       </c>
       <c r="CE279" s="1" t="s">
-        <v>3212</v>
+        <v>3209</v>
       </c>
       <c r="CG279" s="1" t="s">
-        <v>3486</v>
+        <v>3483</v>
       </c>
       <c r="CH279" s="1" t="s">
         <v>130</v>
@@ -63061,10 +62948,10 @@
         <v>87</v>
       </c>
       <c r="B280" s="1" t="s">
-        <v>3137</v>
+        <v>3134</v>
       </c>
       <c r="C280" s="1" t="s">
-        <v>3138</v>
+        <v>3135</v>
       </c>
       <c r="D280" s="1" t="s">
         <v>1320</v>
@@ -63079,7 +62966,7 @@
         <v>93</v>
       </c>
       <c r="H280" s="1" t="s">
-        <v>3139</v>
+        <v>3136</v>
       </c>
       <c r="I280" s="1" t="s">
         <v>1320</v>
@@ -63088,19 +62975,19 @@
         <v>154</v>
       </c>
       <c r="K280" s="1" t="s">
-        <v>3233</v>
+        <v>3230</v>
       </c>
       <c r="L280" s="1" t="s">
         <v>2371</v>
       </c>
       <c r="N280" s="1" t="s">
-        <v>3234</v>
+        <v>3231</v>
       </c>
       <c r="O280" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P280" s="1" t="s">
-        <v>3500</v>
+        <v>3497</v>
       </c>
       <c r="Q280" s="3">
         <v>23611</v>
@@ -63145,7 +63032,7 @@
         <v>0</v>
       </c>
       <c r="AN280" s="1" t="s">
-        <v>3236</v>
+        <v>3233</v>
       </c>
       <c r="AO280" s="1">
         <v>0</v>
@@ -63184,19 +63071,19 @@
         <v>21</v>
       </c>
       <c r="BD280" s="1" t="s">
-        <v>3501</v>
+        <v>3498</v>
       </c>
       <c r="BG280" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH280" s="1" t="s">
-        <v>3502</v>
+        <v>3499</v>
       </c>
       <c r="BM280" s="1" t="s">
         <v>118</v>
       </c>
       <c r="BT280" s="1" t="s">
-        <v>3239</v>
+        <v>3236</v>
       </c>
       <c r="BU280" s="1" t="s">
         <v>122</v>
@@ -63214,16 +63101,16 @@
         <v>112</v>
       </c>
       <c r="CC280" s="1" t="s">
-        <v>3240</v>
+        <v>3237</v>
       </c>
       <c r="CD280" s="1" t="s">
-        <v>3241</v>
+        <v>3238</v>
       </c>
       <c r="CE280" s="1" t="s">
-        <v>3242</v>
+        <v>3239</v>
       </c>
       <c r="CG280" s="1" t="s">
-        <v>3503</v>
+        <v>3500</v>
       </c>
       <c r="CH280" s="1" t="s">
         <v>130</v>
@@ -63233,6 +63120,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:CI280" xr:uid="{BC4D57B7-D57A-4CC0-BC91-612412DBC132}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>